--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="julho1-5" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="122">
   <si>
     <t>DATA</t>
   </si>
@@ -623,6 +623,24 @@
   <si>
     <t>HERCULIO LUZ vs INDEPENDIENTE</t>
   </si>
+  <si>
+    <t>  BARRACAS C. vs ARGENTINOS JRS</t>
+  </si>
+  <si>
+    <t> ARGENTINA - LIGA PROFESIONAL</t>
+  </si>
+  <si>
+    <t>         JEJU UTD vs GWANGJU</t>
+  </si>
+  <si>
+    <t> SOUTH KOREA - K LEAGUE 1</t>
+  </si>
+  <si>
+    <t>2--2</t>
+  </si>
+  <si>
+    <t>    SUWON BLUEWINGS vs POHANG STEELERS</t>
+  </si>
 </sst>
 </file>
 
@@ -632,7 +650,7 @@
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -724,13 +742,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -815,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -936,9 +947,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -948,11 +956,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2343,10 +2366,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2459,25 +2482,25 @@
         <v>58</v>
       </c>
       <c r="C3" s="23">
-        <v>505</v>
+        <v>404</v>
       </c>
       <c r="D3" s="23">
-        <v>505</v>
+        <v>404</v>
       </c>
       <c r="E3" s="23">
-        <v>505</v>
+        <v>404</v>
       </c>
       <c r="F3" s="23">
-        <v>505</v>
+        <v>404</v>
       </c>
       <c r="G3" s="23">
-        <v>505</v>
+        <v>404</v>
       </c>
       <c r="H3" s="23">
-        <v>505</v>
+        <v>404</v>
       </c>
       <c r="I3" s="23">
-        <v>505</v>
+        <v>404</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>20</v>
@@ -2868,26 +2891,26 @@
       <c r="B13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="44">
-        <v>505</v>
+      <c r="C13" s="43">
+        <v>404</v>
       </c>
       <c r="D13" s="44">
-        <v>505</v>
+        <v>404</v>
       </c>
       <c r="E13" s="44">
-        <v>505</v>
+        <v>404</v>
       </c>
       <c r="F13" s="44">
-        <v>505</v>
+        <v>404</v>
       </c>
       <c r="G13" s="44">
-        <v>505</v>
+        <v>404</v>
       </c>
       <c r="H13" s="44">
-        <v>505</v>
+        <v>404</v>
       </c>
       <c r="I13" s="44">
-        <v>505</v>
+        <v>404</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>20</v>
@@ -2909,13 +2932,27 @@
       <c r="B14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="C14" s="10">
+        <v>3.95</v>
+      </c>
+      <c r="D14" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="F14" s="10">
+        <v>3.99</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1.847</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1.617</v>
+      </c>
       <c r="J14" s="10" t="s">
         <v>20</v>
       </c>
@@ -2936,13 +2973,27 @@
       <c r="B15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="C15" s="46">
+        <v>2.83</v>
+      </c>
+      <c r="D15" s="46">
+        <v>3.04</v>
+      </c>
+      <c r="E15" s="46">
+        <v>2.85</v>
+      </c>
+      <c r="F15" s="46">
+        <v>2.67</v>
+      </c>
+      <c r="G15" s="46">
+        <v>2.62</v>
+      </c>
+      <c r="H15" s="46">
+        <v>1.5229999999999999</v>
+      </c>
+      <c r="I15" s="46">
+        <v>2.2599999999999998</v>
+      </c>
       <c r="J15" s="10" t="s">
         <v>20</v>
       </c>
@@ -2961,14 +3012,28 @@
       <c r="B16" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="44" t="s">
+      <c r="C16" s="46">
+        <v>2.29</v>
+      </c>
+      <c r="D16" s="46">
+        <v>3.1</v>
+      </c>
+      <c r="E16" s="46">
+        <v>3.56</v>
+      </c>
+      <c r="F16" s="46">
+        <v>2.7</v>
+      </c>
+      <c r="G16" s="46">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H16" s="46">
+        <v>1.546</v>
+      </c>
+      <c r="I16" s="46">
+        <v>2.17</v>
+      </c>
+      <c r="J16" s="43" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="6">
@@ -2985,14 +3050,28 @@
       <c r="B17" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="44" t="s">
+      <c r="C17" s="46">
+        <v>2.12</v>
+      </c>
+      <c r="D17" s="46">
+        <v>3.61</v>
+      </c>
+      <c r="E17" s="46">
+        <v>3.56</v>
+      </c>
+      <c r="F17" s="46">
+        <v>3.6</v>
+      </c>
+      <c r="G17" s="46">
+        <v>2</v>
+      </c>
+      <c r="H17" s="46">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="I17" s="46">
+        <v>1.746</v>
+      </c>
+      <c r="J17" s="43" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="6">
@@ -3009,7 +3088,28 @@
       <c r="B18" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="C18" s="46">
+        <v>2.37</v>
+      </c>
+      <c r="D18" s="46">
+        <v>2.81</v>
+      </c>
+      <c r="E18" s="46">
+        <v>3.48</v>
+      </c>
+      <c r="F18" s="46">
+        <v>2.31</v>
+      </c>
+      <c r="G18" s="46">
+        <v>404</v>
+      </c>
+      <c r="H18" s="46">
+        <v>404</v>
+      </c>
+      <c r="I18" s="46">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="J18" s="43" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="6">
@@ -3026,7 +3126,28 @@
       <c r="B19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="C19" s="46">
+        <v>505</v>
+      </c>
+      <c r="D19" s="46">
+        <v>505</v>
+      </c>
+      <c r="E19" s="46">
+        <v>505</v>
+      </c>
+      <c r="F19" s="46">
+        <v>505</v>
+      </c>
+      <c r="G19" s="46">
+        <v>505</v>
+      </c>
+      <c r="H19" s="46">
+        <v>505</v>
+      </c>
+      <c r="I19" s="46">
+        <v>505</v>
+      </c>
+      <c r="J19" s="43" t="s">
         <v>20</v>
       </c>
       <c r="M19" s="6">
@@ -3034,6 +3155,96 @@
       </c>
       <c r="N19" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>45117</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="47">
+        <v>3.82</v>
+      </c>
+      <c r="D20" s="47">
+        <v>3.18</v>
+      </c>
+      <c r="E20" s="47">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F20" s="47">
+        <v>2.73</v>
+      </c>
+      <c r="G20" s="47">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H20" s="47">
+        <v>1.55</v>
+      </c>
+      <c r="I20" s="47">
+        <v>2.21</v>
+      </c>
+      <c r="J20" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="6">
+        <v>66</v>
+      </c>
+      <c r="N20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>45118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="48">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D21" s="48">
+        <v>3.42</v>
+      </c>
+      <c r="E21" s="48">
+        <v>2.97</v>
+      </c>
+      <c r="F21" s="48">
+        <v>3.44</v>
+      </c>
+      <c r="G21" s="48">
+        <v>2.09</v>
+      </c>
+      <c r="H21" s="48">
+        <v>1.819</v>
+      </c>
+      <c r="I21" s="48">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="J21" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="6">
+        <v>15</v>
+      </c>
+      <c r="N21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>45119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="M22" s="6">
+        <v>25</v>
+      </c>
+      <c r="N22" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3049,10 +3260,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3112,14 +3323,14 @@
         <v>94</v>
       </c>
       <c r="F2" s="21">
-        <f>C2*D$45</f>
+        <f>C2*D$55</f>
         <v>6149.9999999999991</v>
       </c>
       <c r="G2" s="21">
-        <f>F2-D$45</f>
+        <f>F2-D$55</f>
         <v>3149.9999999999991</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="51" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3140,14 +3351,14 @@
         <v>95</v>
       </c>
       <c r="F3" s="21">
-        <f t="shared" ref="F3:F25" si="0">C3*D$45</f>
+        <f>C3*D$55</f>
         <v>5850</v>
       </c>
       <c r="G3" s="21">
-        <f t="shared" ref="G3:G25" si="1">F3-D$45</f>
+        <f>F3-D$55</f>
         <v>2850</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="51" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3164,17 +3375,17 @@
       <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="45" t="s">
         <v>95</v>
       </c>
       <c r="F4" s="21">
-        <f t="shared" si="0"/>
+        <f>C4*D$55</f>
         <v>5850</v>
       </c>
       <c r="G4" s="21">
         <v>0</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="51" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3198,10 +3409,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="21">
-        <f t="shared" si="1"/>
+        <f>F5-D$55</f>
         <v>-3000</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="51" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3222,14 +3433,14 @@
         <v>95</v>
       </c>
       <c r="F6" s="21">
-        <f t="shared" si="0"/>
+        <f>C6*D$55</f>
         <v>6000</v>
       </c>
       <c r="G6" s="21">
-        <f t="shared" si="1"/>
+        <f>F6-D$55</f>
         <v>3000</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="51" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3250,14 +3461,14 @@
         <v>94</v>
       </c>
       <c r="F7" s="21">
-        <f t="shared" si="0"/>
+        <f>C7*D$55</f>
         <v>5940</v>
       </c>
       <c r="G7" s="21">
-        <f t="shared" si="1"/>
+        <f>F7-D$55</f>
         <v>2940</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="51" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3278,14 +3489,14 @@
         <v>95</v>
       </c>
       <c r="F8" s="21">
-        <f t="shared" si="0"/>
+        <f>C8*D$55</f>
         <v>5850</v>
       </c>
       <c r="G8" s="21">
-        <f t="shared" si="1"/>
+        <f>F8-D$55</f>
         <v>2850</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="51" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3309,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="21">
-        <f t="shared" si="1"/>
+        <f>F9-D$55</f>
         <v>-3000</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="51" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3333,14 +3544,14 @@
         <v>94</v>
       </c>
       <c r="F10" s="21">
-        <f t="shared" si="0"/>
+        <f>C10*D$55</f>
         <v>5700</v>
       </c>
       <c r="G10" s="21">
-        <f t="shared" si="1"/>
+        <f>F10-D$55</f>
         <v>2700</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="51" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3361,14 +3572,14 @@
         <v>94</v>
       </c>
       <c r="F11" s="21">
-        <f t="shared" si="0"/>
+        <f>C11*D$55</f>
         <v>4830</v>
       </c>
       <c r="G11" s="21">
-        <f t="shared" si="1"/>
+        <f>F11-D$55</f>
         <v>1830</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="51" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3392,10 +3603,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="21">
-        <f t="shared" si="1"/>
+        <f>F12-D$55</f>
         <v>-3000</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="51" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3412,7 +3623,7 @@
       <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="45" t="s">
         <v>95</v>
       </c>
       <c r="F13" s="21">
@@ -3421,7 +3632,7 @@
       <c r="G13" s="21">
         <v>0</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="51" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3438,7 +3649,7 @@
       <c r="D14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="45" t="s">
         <v>95</v>
       </c>
       <c r="F14" s="21">
@@ -3447,7 +3658,7 @@
       <c r="G14" s="21">
         <v>0</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="51" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3464,7 +3675,7 @@
       <c r="D15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="45" t="s">
         <v>95</v>
       </c>
       <c r="F15" s="21">
@@ -3473,7 +3684,7 @@
       <c r="G15" s="21">
         <v>0</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="51" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3494,14 +3705,14 @@
         <v>95</v>
       </c>
       <c r="F16" s="21">
-        <f t="shared" si="0"/>
+        <f>C16*D$55</f>
         <v>5850</v>
       </c>
       <c r="G16" s="21">
-        <f t="shared" si="1"/>
+        <f>F16-D$55</f>
         <v>2850</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="51" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3522,14 +3733,14 @@
         <v>95</v>
       </c>
       <c r="F17" s="21">
-        <f t="shared" si="0"/>
+        <f>C17*D$55</f>
         <v>5850</v>
       </c>
       <c r="G17" s="21">
-        <f t="shared" si="1"/>
+        <f>F17-D$55</f>
         <v>2850</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="51" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3546,17 +3757,17 @@
       <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="45" t="s">
         <v>95</v>
       </c>
       <c r="F18" s="21">
-        <f t="shared" si="0"/>
+        <f>C18*D$55</f>
         <v>5850</v>
       </c>
       <c r="G18" s="21">
         <v>0</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="51" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3577,14 +3788,14 @@
         <v>94</v>
       </c>
       <c r="F19" s="21">
-        <f t="shared" si="0"/>
+        <f>C19*D$55</f>
         <v>5550</v>
       </c>
       <c r="G19" s="21">
-        <f t="shared" si="1"/>
+        <f>F19-D$55</f>
         <v>2550</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3605,14 +3816,14 @@
         <v>94</v>
       </c>
       <c r="F20" s="21">
-        <f t="shared" si="0"/>
+        <f>C20*D$55</f>
         <v>4530</v>
       </c>
       <c r="G20" s="21">
-        <f t="shared" si="1"/>
+        <f>F20-D$55</f>
         <v>1530</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="51" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3629,18 +3840,20 @@
       <c r="D21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="24" t="s">
         <v>95</v>
       </c>
       <c r="F21" s="21">
-        <f t="shared" si="0"/>
+        <f>C21*D$55</f>
         <v>5850</v>
       </c>
       <c r="G21" s="21">
-        <f t="shared" si="1"/>
+        <f>F21-D$55</f>
         <v>2850</v>
       </c>
-      <c r="H21" s="25"/>
+      <c r="H21" s="51" t="s">
+        <v>88</v>
+      </c>
       <c r="I21" s="4" t="s">
         <v>51</v>
       </c>
@@ -3658,18 +3871,20 @@
       <c r="D22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="24" t="s">
         <v>95</v>
       </c>
       <c r="F22" s="21">
-        <f t="shared" si="0"/>
+        <f>C22*D$55</f>
         <v>5040</v>
       </c>
       <c r="G22" s="21">
-        <f t="shared" si="1"/>
+        <f>F22-D$55</f>
         <v>2040</v>
       </c>
-      <c r="H22" s="25"/>
+      <c r="H22" s="51" t="s">
+        <v>80</v>
+      </c>
       <c r="I22" s="6" t="s">
         <v>49</v>
       </c>
@@ -3687,18 +3902,20 @@
       <c r="D23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="24" t="s">
         <v>95</v>
       </c>
       <c r="F23" s="21">
-        <f t="shared" si="0"/>
+        <f>C23*D$55</f>
         <v>5190</v>
       </c>
       <c r="G23" s="21">
-        <f t="shared" si="1"/>
+        <f>F23-D$55</f>
         <v>2190</v>
       </c>
-      <c r="H23" s="25"/>
+      <c r="H23" s="51" t="s">
+        <v>89</v>
+      </c>
       <c r="I23" s="4" t="s">
         <v>51</v>
       </c>
@@ -3716,18 +3933,20 @@
       <c r="D24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="24" t="s">
         <v>95</v>
       </c>
       <c r="F24" s="21">
-        <f t="shared" si="0"/>
+        <f>C24*D$55</f>
         <v>5310</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" si="1"/>
+        <f>F24-D$55</f>
         <v>2310</v>
       </c>
-      <c r="H24" s="25"/>
+      <c r="H24" s="51" t="s">
+        <v>88</v>
+      </c>
       <c r="I24" s="4" t="s">
         <v>23</v>
       </c>
@@ -3745,273 +3964,347 @@
       <c r="D25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="24" t="s">
         <v>94</v>
       </c>
       <c r="F25" s="21">
-        <f t="shared" si="0"/>
+        <f>C25*D$55</f>
         <v>5790</v>
       </c>
       <c r="G25" s="21">
-        <f t="shared" si="1"/>
+        <f>F25-D$55</f>
         <v>2790</v>
       </c>
-      <c r="H25" s="25"/>
+      <c r="H25" s="51" t="s">
+        <v>85</v>
+      </c>
       <c r="I25" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="25"/>
+      <c r="A26" s="3">
+        <v>45116</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="21">
+        <f>C26*D$55</f>
+        <v>5250</v>
+      </c>
+      <c r="G26" s="21">
+        <f>F26-D$55</f>
+        <v>2250</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="25"/>
+      <c r="A27" s="3">
+        <v>45116</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1.84</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21">
+        <f>F27-D$55</f>
+        <v>-3000</v>
+      </c>
+      <c r="H27" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="25"/>
+      <c r="A28" s="16">
+        <v>45116</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0</v>
+      </c>
+      <c r="G28" s="21">
+        <f>F28-D$55</f>
+        <v>-3000</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="25"/>
+      <c r="A29" s="16">
+        <v>45116</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1.87</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="21">
+        <f>C29*D$55</f>
+        <v>5610</v>
+      </c>
+      <c r="G29" s="21">
+        <f>F29-D$55</f>
+        <v>2610</v>
+      </c>
+      <c r="H29" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="25"/>
+      <c r="A30" s="16">
+        <v>45116</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1.65</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="21">
+        <v>0</v>
+      </c>
+      <c r="G30" s="21">
+        <v>0</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="25"/>
+      <c r="A31" s="16">
+        <v>45117</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1.92</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="21">
+        <f>C31*D$55</f>
+        <v>5760</v>
+      </c>
+      <c r="G31" s="21">
+        <f>F31-D$55</f>
+        <v>2760</v>
+      </c>
+      <c r="H31" s="51"/>
+      <c r="I31" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="11"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="24"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
-      <c r="H32" s="25"/>
+      <c r="H32" s="51"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="45"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="43">
-        <f>COUNT(C2:C25)</f>
-        <v>24</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="51"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="51"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="22">
-        <v>3</v>
-      </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="27"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="51"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="25">
-        <f>D34-D35</f>
-        <v>21</v>
-      </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="27"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="51"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6">
-        <f>D36/D34*100</f>
-        <v>87.5</v>
-      </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="27"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="51"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6">
-        <f>1/D39*100</f>
-        <v>52.828527404798599</v>
-      </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="27"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="51"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6">
-        <f>SUM(C2:C25)/D34</f>
-        <v>1.8929166666666666</v>
-      </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="27"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="51"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="25">
-        <f>D37-D38</f>
-        <v>34.671472595201401</v>
-      </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="27"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="51"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="25">
-        <f>D40/1</f>
-        <v>34.671472595201401</v>
-      </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="27"/>
-    </row>
-    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="31">
-        <v>100000</v>
-      </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="27"/>
-    </row>
-    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="51"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="6" t="s">
-        <v>105</v>
-      </c>
+      <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="32">
-        <v>100000</v>
-      </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="27"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="21">
-        <f>D43/100</f>
-        <v>1000</v>
-      </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="27"/>
+      <c r="D44" s="42">
+        <f>COUNT(C2:C31)</f>
+        <v>30</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="33" t="s">
-        <v>110</v>
+      <c r="B45" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="C45" s="6"/>
-      <c r="D45" s="34">
-        <f>D44*3</f>
-        <v>3000</v>
+      <c r="D45" s="22">
+        <v>5</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="28"/>
@@ -4021,12 +4314,12 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="41">
-        <f>SUM(G2:G25)</f>
-        <v>32280</v>
+      <c r="D46" s="25">
+        <f>D44-D45</f>
+        <v>25</v>
       </c>
       <c r="E46" s="27"/>
       <c r="F46" s="28"/>
@@ -4035,13 +4328,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="35" t="s">
-        <v>108</v>
+      <c r="B47" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="10">
-        <f>D46/D42*100</f>
-        <v>32.28</v>
+      <c r="D47" s="6">
+        <f>D46/D44*100</f>
+        <v>83.333333333333343</v>
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="28"/>
@@ -4050,9 +4343,14 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="10"/>
+      <c r="D48" s="6">
+        <f>1/D49*100</f>
+        <v>53.229240596167493</v>
+      </c>
       <c r="E48" s="27"/>
       <c r="F48" s="28"/>
       <c r="G48" s="29"/>
@@ -4060,9 +4358,14 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="B49" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="10"/>
+      <c r="D49" s="6">
+        <f>SUM(C2:C31)/D44</f>
+        <v>1.8786666666666667</v>
+      </c>
       <c r="E49" s="27"/>
       <c r="F49" s="28"/>
       <c r="G49" s="29"/>
@@ -4070,9 +4373,14 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="36"/>
+      <c r="B50" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="10"/>
+      <c r="D50" s="25">
+        <f>D47-D48</f>
+        <v>30.10409273716585</v>
+      </c>
       <c r="E50" s="27"/>
       <c r="F50" s="28"/>
       <c r="G50" s="29"/>
@@ -4080,30 +4388,163 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="36"/>
+      <c r="B51" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="10"/>
+      <c r="D51" s="25">
+        <f>D50/1</f>
+        <v>30.10409273716585</v>
+      </c>
       <c r="E51" s="27"/>
       <c r="F51" s="28"/>
       <c r="G51" s="29"/>
       <c r="H51" s="27"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
-      <c r="B52" s="36"/>
+      <c r="B52" s="30" t="s">
+        <v>104</v>
+      </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="10"/>
+      <c r="D52" s="31">
+        <v>100000</v>
+      </c>
       <c r="E52" s="27"/>
       <c r="F52" s="28"/>
       <c r="G52" s="29"/>
       <c r="H52" s="27"/>
     </row>
+    <row r="53" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="32">
+        <v>100000</v>
+      </c>
+      <c r="E53" s="27"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="27"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="21">
+        <f>D53/100</f>
+        <v>1000</v>
+      </c>
+      <c r="E54" s="27"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="27"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="34">
+        <f>D54*3</f>
+        <v>3000</v>
+      </c>
+      <c r="E55" s="27"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="27"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="41">
+        <f>SUM(G2:G31)</f>
+        <v>33900</v>
+      </c>
+      <c r="E56" s="27"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="27"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="10">
+        <f>D56/D52*100</f>
+        <v>33.900000000000006</v>
+      </c>
+      <c r="E57" s="27"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="27"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="27"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="27"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="27"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="27"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:H43"/>
   </mergeCells>
-  <conditionalFormatting sqref="E35:E52 H35:H52">
+  <conditionalFormatting sqref="E45:E62 H45:H62">
     <cfRule type="cellIs" dxfId="4" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -4114,7 +4555,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G32">
+  <conditionalFormatting sqref="G2:G42">
     <cfRule type="cellIs" dxfId="1" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="122">
   <si>
     <t>DATA</t>
   </si>
@@ -826,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -968,13 +968,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1344,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2368,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3240,6 +3243,30 @@
       <c r="B22" t="s">
         <v>121</v>
       </c>
+      <c r="C22" s="50">
+        <v>4.22</v>
+      </c>
+      <c r="D22" s="50">
+        <v>3.5</v>
+      </c>
+      <c r="E22" s="50">
+        <v>1.97</v>
+      </c>
+      <c r="F22" s="50">
+        <v>3.23</v>
+      </c>
+      <c r="G22" s="50">
+        <v>2.16</v>
+      </c>
+      <c r="H22" s="50">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="I22" s="50">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="J22" s="50" t="s">
+        <v>20</v>
+      </c>
       <c r="M22" s="6">
         <v>25</v>
       </c>
@@ -3260,10 +3287,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3323,15 +3350,18 @@
         <v>94</v>
       </c>
       <c r="F2" s="21">
-        <f>C2*D$55</f>
+        <f>C2*D$51</f>
         <v>6149.9999999999991</v>
       </c>
       <c r="G2" s="21">
-        <f>F2-D$55</f>
+        <f>F2-D$51</f>
         <v>3149.9999999999991</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="49" t="s">
         <v>85</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3351,15 +3381,18 @@
         <v>95</v>
       </c>
       <c r="F3" s="21">
-        <f>C3*D$55</f>
+        <f>C3*D$51</f>
         <v>5850</v>
       </c>
       <c r="G3" s="21">
-        <f>F3-D$55</f>
+        <f>F3-D$51</f>
         <v>2850</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="49" t="s">
         <v>80</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3379,14 +3412,17 @@
         <v>95</v>
       </c>
       <c r="F4" s="21">
-        <f>C4*D$55</f>
+        <f>C4*D$51</f>
         <v>5850</v>
       </c>
       <c r="G4" s="21">
         <v>0</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="49" t="s">
         <v>83</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3409,11 +3445,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="21">
-        <f>F5-D$55</f>
+        <f t="shared" ref="G5:G12" si="0">F5-D$51</f>
         <v>-3000</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="49" t="s">
         <v>80</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3433,15 +3472,18 @@
         <v>95</v>
       </c>
       <c r="F6" s="21">
-        <f>C6*D$55</f>
+        <f>C6*D$51</f>
         <v>6000</v>
       </c>
       <c r="G6" s="21">
-        <f>F6-D$55</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="49" t="s">
         <v>80</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3461,15 +3503,18 @@
         <v>94</v>
       </c>
       <c r="F7" s="21">
-        <f>C7*D$55</f>
+        <f>C7*D$51</f>
         <v>5940</v>
       </c>
       <c r="G7" s="21">
-        <f>F7-D$55</f>
+        <f t="shared" si="0"/>
         <v>2940</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="49" t="s">
         <v>85</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3489,15 +3534,18 @@
         <v>95</v>
       </c>
       <c r="F8" s="21">
-        <f>C8*D$55</f>
+        <f>C8*D$51</f>
         <v>5850</v>
       </c>
       <c r="G8" s="21">
-        <f>F8-D$55</f>
+        <f t="shared" si="0"/>
         <v>2850</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="49" t="s">
         <v>89</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3520,11 +3568,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="21">
-        <f>F9-D$55</f>
+        <f t="shared" si="0"/>
         <v>-3000</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="49" t="s">
         <v>85</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3544,15 +3595,18 @@
         <v>94</v>
       </c>
       <c r="F10" s="21">
-        <f>C10*D$55</f>
+        <f>C10*D$51</f>
         <v>5700</v>
       </c>
       <c r="G10" s="21">
-        <f>F10-D$55</f>
+        <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="49" t="s">
         <v>90</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3572,15 +3626,18 @@
         <v>94</v>
       </c>
       <c r="F11" s="21">
-        <f>C11*D$55</f>
+        <f>C11*D$51</f>
         <v>4830</v>
       </c>
       <c r="G11" s="21">
-        <f>F11-D$55</f>
+        <f t="shared" si="0"/>
         <v>1830</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="49" t="s">
         <v>85</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3603,11 +3660,14 @@
         <v>0</v>
       </c>
       <c r="G12" s="21">
-        <f>F12-D$55</f>
+        <f t="shared" si="0"/>
         <v>-3000</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="49" t="s">
         <v>84</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3632,8 +3692,11 @@
       <c r="G13" s="21">
         <v>0</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="H13" s="49" t="s">
         <v>89</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3641,10 +3704,10 @@
         <v>45110</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" s="19">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>20</v>
@@ -3658,8 +3721,11 @@
       <c r="G14" s="21">
         <v>0</v>
       </c>
-      <c r="H14" s="51" t="s">
-        <v>81</v>
+      <c r="H14" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3667,33 +3733,38 @@
         <v>45110</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="19">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="24" t="s">
         <v>95</v>
       </c>
       <c r="F15" s="21">
-        <v>0</v>
+        <f t="shared" ref="F15:F23" si="1">C15*D$51</f>
+        <v>5850</v>
       </c>
       <c r="G15" s="21">
-        <v>0</v>
-      </c>
-      <c r="H15" s="51" t="s">
-        <v>82</v>
+        <f>F15-D$51</f>
+        <v>2850</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C16" s="19">
         <v>1.95</v>
@@ -3705,23 +3776,26 @@
         <v>95</v>
       </c>
       <c r="F16" s="21">
-        <f>C16*D$55</f>
+        <f t="shared" si="1"/>
         <v>5850</v>
       </c>
       <c r="G16" s="21">
-        <f>F16-D$55</f>
+        <f>F16-D$51</f>
         <v>2850</v>
       </c>
-      <c r="H16" s="51" t="s">
-        <v>80</v>
+      <c r="H16" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="19">
         <v>1.95</v>
@@ -3729,19 +3803,21 @@
       <c r="D17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="45" t="s">
         <v>95</v>
       </c>
       <c r="F17" s="21">
-        <f>C17*D$55</f>
+        <f t="shared" si="1"/>
         <v>5850</v>
       </c>
       <c r="G17" s="21">
-        <f>F17-D$55</f>
-        <v>2850</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>89</v>
+        <v>0</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3749,26 +3825,30 @@
         <v>45112</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="19">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="45" t="s">
-        <v>95</v>
+      <c r="E18" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="F18" s="21">
-        <f>C18*D$55</f>
-        <v>5850</v>
+        <f t="shared" si="1"/>
+        <v>5550</v>
       </c>
       <c r="G18" s="21">
-        <v>0</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>82</v>
+        <f t="shared" ref="G18:G25" si="2">F18-D$51</f>
+        <v>2550</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3776,10 +3856,10 @@
         <v>45112</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" s="19">
-        <v>1.85</v>
+        <v>1.51</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>20</v>
@@ -3788,43 +3868,49 @@
         <v>94</v>
       </c>
       <c r="F19" s="21">
-        <f>C19*D$55</f>
-        <v>5550</v>
+        <f t="shared" si="1"/>
+        <v>4530</v>
       </c>
       <c r="G19" s="21">
-        <f>F19-D$55</f>
-        <v>2550</v>
-      </c>
-      <c r="H19" s="51" t="s">
-        <v>86</v>
+        <f t="shared" si="2"/>
+        <v>1530</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
-        <v>45112</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="19">
-        <v>1.51</v>
+      <c r="A20" s="3">
+        <v>45115</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1.68</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F20" s="21">
-        <f>C20*D$55</f>
-        <v>4530</v>
+        <f t="shared" si="1"/>
+        <v>5040</v>
       </c>
       <c r="G20" s="21">
-        <f>F20-D$55</f>
-        <v>1530</v>
-      </c>
-      <c r="H20" s="51" t="s">
-        <v>87</v>
+        <f t="shared" si="2"/>
+        <v>2040</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3832,10 +3918,10 @@
         <v>45115</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C21" s="11">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>20</v>
@@ -3844,122 +3930,121 @@
         <v>95</v>
       </c>
       <c r="F21" s="21">
-        <f>C21*D$55</f>
-        <v>5850</v>
+        <f t="shared" si="1"/>
+        <v>5310</v>
       </c>
       <c r="G21" s="21">
-        <f>F21-D$55</f>
-        <v>2850</v>
-      </c>
-      <c r="H21" s="51" t="s">
+        <f t="shared" si="2"/>
+        <v>2310</v>
+      </c>
+      <c r="H21" s="49" t="s">
         <v>88</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45115</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>60</v>
+      <c r="B22" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C22" s="11">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="21">
-        <f>C22*D$55</f>
-        <v>5040</v>
+        <f t="shared" si="1"/>
+        <v>5790</v>
       </c>
       <c r="G22" s="21">
-        <f>F22-D$55</f>
-        <v>2040</v>
-      </c>
-      <c r="H22" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>49</v>
+        <f t="shared" si="2"/>
+        <v>2790</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C23" s="11">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="21">
+        <f t="shared" si="1"/>
+        <v>5250</v>
+      </c>
+      <c r="G23" s="21">
+        <f t="shared" si="2"/>
+        <v>2250</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>45116</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="21">
-        <f>C23*D$55</f>
-        <v>5190</v>
-      </c>
-      <c r="G23" s="21">
-        <f>F23-D$55</f>
-        <v>2190</v>
-      </c>
-      <c r="H23" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>45115</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="11">
-        <v>1.77</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>95</v>
-      </c>
       <c r="F24" s="21">
-        <f>C24*D$55</f>
-        <v>5310</v>
+        <v>0</v>
       </c>
       <c r="G24" s="21">
-        <f>F24-D$55</f>
-        <v>2310</v>
-      </c>
-      <c r="H24" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" s="4" t="s">
+        <f t="shared" si="2"/>
+        <v>-3000</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>45115</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>64</v>
+      <c r="A25" s="16">
+        <v>45116</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="C25" s="11">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>20</v>
@@ -3968,199 +4053,119 @@
         <v>94</v>
       </c>
       <c r="F25" s="21">
-        <f>C25*D$55</f>
-        <v>5790</v>
+        <f>C25*D$51</f>
+        <v>5610</v>
       </c>
       <c r="G25" s="21">
-        <f>F25-D$55</f>
-        <v>2790</v>
-      </c>
-      <c r="H25" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>65</v>
+        <f t="shared" si="2"/>
+        <v>2610</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="16">
         <v>45116</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>70</v>
+      <c r="B26" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="C26" s="11">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>94</v>
+      <c r="E26" s="45" t="s">
+        <v>95</v>
       </c>
       <c r="F26" s="21">
-        <f>C26*D$55</f>
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="G26" s="21">
-        <f>F26-D$55</f>
-        <v>2250</v>
-      </c>
-      <c r="H26" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>45116</v>
+      <c r="A27" s="16">
+        <v>45117</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="C27" s="11">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="24" t="s">
         <v>95</v>
       </c>
       <c r="F27" s="21">
-        <v>0</v>
+        <f>C27*D$51</f>
+        <v>5760</v>
       </c>
       <c r="G27" s="21">
-        <f>F27-D$55</f>
-        <v>-3000</v>
-      </c>
-      <c r="H27" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>26</v>
+        <f>F27-D$51</f>
+        <v>2760</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
-        <v>45116</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="11">
-        <v>1.9</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="21">
-        <v>0</v>
-      </c>
-      <c r="G28" s="21">
-        <f>F28-D$55</f>
-        <v>-3000</v>
-      </c>
-      <c r="H28" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A28" s="16"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="49"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
-        <v>45116</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="11">
-        <v>1.87</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="21">
-        <f>C29*D$55</f>
-        <v>5610</v>
-      </c>
-      <c r="G29" s="21">
-        <f>F29-D$55</f>
-        <v>2610</v>
-      </c>
-      <c r="H29" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="A29" s="16"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="49"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
-        <v>45116</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="11">
-        <v>1.65</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="21">
-        <v>0</v>
-      </c>
-      <c r="G30" s="21">
-        <v>0</v>
-      </c>
-      <c r="H30" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="A30" s="16"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
-        <v>45117</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="11">
-        <v>1.92</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="21">
-        <f>C31*D$55</f>
-        <v>5760</v>
-      </c>
-      <c r="G31" s="21">
-        <f>F31-D$55</f>
-        <v>2760</v>
-      </c>
-      <c r="H31" s="51"/>
-      <c r="I31" s="6" t="s">
-        <v>117</v>
-      </c>
+      <c r="A31" s="16"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="49"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
@@ -4170,7 +4175,7 @@
       <c r="E32" s="45"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
-      <c r="H32" s="51"/>
+      <c r="H32" s="49"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
@@ -4180,7 +4185,7 @@
       <c r="E33" s="45"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
-      <c r="H33" s="51"/>
+      <c r="H33" s="49"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
@@ -4190,7 +4195,7 @@
       <c r="E34" s="45"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
-      <c r="H34" s="51"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
@@ -4200,7 +4205,7 @@
       <c r="E35" s="45"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
-      <c r="H35" s="51"/>
+      <c r="H35" s="49"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
@@ -4210,7 +4215,7 @@
       <c r="E36" s="45"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
-      <c r="H36" s="51"/>
+      <c r="H36" s="49"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
@@ -4220,91 +4225,111 @@
       <c r="E37" s="45"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
-      <c r="H37" s="51"/>
+      <c r="H37" s="49"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="11"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="45"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
-      <c r="H38" s="51"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="51"/>
       <c r="H39" s="51"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="51"/>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="42">
+        <f>COUNT(C2:C27)</f>
+        <v>26</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="51"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="22">
+        <v>4</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="25"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="25">
+        <f>D40-D41</f>
+        <v>22</v>
+      </c>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="27"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D43" s="6">
+        <f>D42/D40*100</f>
+        <v>84.615384615384613</v>
+      </c>
+      <c r="E43" s="27"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="42">
-        <f>COUNT(C2:C31)</f>
-        <v>30</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="D44" s="6">
+        <f>1/D45*100</f>
+        <v>53.180609531601561</v>
+      </c>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="27"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C45" s="6"/>
-      <c r="D45" s="22">
-        <v>5</v>
+      <c r="D45" s="6">
+        <f>SUM(C2:C27)/D40</f>
+        <v>1.8803846153846151</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="28"/>
@@ -4314,12 +4339,12 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="25">
-        <f>D44-D45</f>
-        <v>25</v>
+        <f>D43-D44</f>
+        <v>31.434775083783052</v>
       </c>
       <c r="E46" s="27"/>
       <c r="F46" s="28"/>
@@ -4329,42 +4354,40 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="6">
-        <f>D46/D44*100</f>
-        <v>83.333333333333343</v>
+      <c r="D47" s="25">
+        <f>D46/1</f>
+        <v>31.434775083783052</v>
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="28"/>
       <c r="G47" s="29"/>
       <c r="H47" s="27"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
-      <c r="B48" s="6" t="s">
-        <v>100</v>
+      <c r="B48" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="6">
-        <f>1/D49*100</f>
-        <v>53.229240596167493</v>
+      <c r="D48" s="31">
+        <v>100000</v>
       </c>
       <c r="E48" s="27"/>
       <c r="F48" s="28"/>
       <c r="G48" s="29"/>
       <c r="H48" s="27"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="6">
-        <f>SUM(C2:C31)/D44</f>
-        <v>1.8786666666666667</v>
+      <c r="D49" s="32">
+        <v>100000</v>
       </c>
       <c r="E49" s="27"/>
       <c r="F49" s="28"/>
@@ -4374,12 +4397,12 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="25">
-        <f>D47-D48</f>
-        <v>30.10409273716585</v>
+      <c r="D50" s="21">
+        <f>D49/100</f>
+        <v>1000</v>
       </c>
       <c r="E50" s="27"/>
       <c r="F50" s="28"/>
@@ -4388,41 +4411,43 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="6" t="s">
-        <v>103</v>
+      <c r="B51" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="25">
-        <f>D50/1</f>
-        <v>30.10409273716585</v>
+      <c r="D51" s="34">
+        <f>D50*3</f>
+        <v>3000</v>
       </c>
       <c r="E51" s="27"/>
       <c r="F51" s="28"/>
       <c r="G51" s="29"/>
       <c r="H51" s="27"/>
     </row>
-    <row r="52" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="30" t="s">
-        <v>104</v>
+      <c r="B52" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="31">
-        <v>100000</v>
+      <c r="D52" s="41">
+        <f>SUM(G2:G27)</f>
+        <v>31860</v>
       </c>
       <c r="E52" s="27"/>
       <c r="F52" s="28"/>
       <c r="G52" s="29"/>
       <c r="H52" s="27"/>
     </row>
-    <row r="53" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="6" t="s">
-        <v>105</v>
+      <c r="B53" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="32">
-        <v>100000</v>
+      <c r="D53" s="10">
+        <f>D52/D48*100</f>
+        <v>31.86</v>
       </c>
       <c r="E53" s="27"/>
       <c r="F53" s="28"/>
@@ -4431,14 +4456,9 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="21">
-        <f>D53/100</f>
-        <v>1000</v>
-      </c>
+      <c r="D54" s="10"/>
       <c r="E54" s="27"/>
       <c r="F54" s="28"/>
       <c r="G54" s="29"/>
@@ -4446,14 +4466,9 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="33" t="s">
-        <v>110</v>
-      </c>
+      <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="34">
-        <f>D54*3</f>
-        <v>3000</v>
-      </c>
+      <c r="D55" s="10"/>
       <c r="E55" s="27"/>
       <c r="F55" s="28"/>
       <c r="G55" s="29"/>
@@ -4461,14 +4476,9 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
-      <c r="B56" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="B56" s="36"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="41">
-        <f>SUM(G2:G31)</f>
-        <v>33900</v>
-      </c>
+      <c r="D56" s="10"/>
       <c r="E56" s="27"/>
       <c r="F56" s="28"/>
       <c r="G56" s="29"/>
@@ -4476,14 +4486,9 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="35" t="s">
-        <v>108</v>
-      </c>
+      <c r="B57" s="36"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="10">
-        <f>D56/D52*100</f>
-        <v>33.900000000000006</v>
-      </c>
+      <c r="D57" s="10"/>
       <c r="E57" s="27"/>
       <c r="F57" s="28"/>
       <c r="G57" s="29"/>
@@ -4491,7 +4496,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="6"/>
       <c r="D58" s="10"/>
       <c r="E58" s="27"/>
@@ -4499,52 +4504,12 @@
       <c r="G58" s="29"/>
       <c r="H58" s="27"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="27"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="27"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="27"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="27"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:H39"/>
   </mergeCells>
-  <conditionalFormatting sqref="E45:E62 H45:H62">
+  <conditionalFormatting sqref="E41:E58 H41:H58">
     <cfRule type="cellIs" dxfId="4" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -4555,7 +4520,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G42">
+  <conditionalFormatting sqref="G2:G38">
     <cfRule type="cellIs" dxfId="1" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="julho1-5" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="121">
   <si>
     <t>DATA</t>
   </si>
@@ -636,9 +636,6 @@
     <t> SOUTH KOREA - K LEAGUE 1</t>
   </si>
   <si>
-    <t>2--2</t>
-  </si>
-  <si>
     <t>    SUWON BLUEWINGS vs POHANG STEELERS</t>
   </si>
 </sst>
@@ -650,7 +647,7 @@
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,8 +739,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -804,6 +808,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -826,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -974,11 +984,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1347,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,7 +2390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+    <sheetView topLeftCell="C20" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
@@ -3241,7 +3260,7 @@
         <v>45119</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="50">
         <v>4.22</v>
@@ -3287,10 +3306,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3350,17 +3369,17 @@
         <v>94</v>
       </c>
       <c r="F2" s="21">
-        <f>C2*D$51</f>
+        <f>C2*D$49</f>
         <v>6149.9999999999991</v>
       </c>
       <c r="G2" s="21">
-        <f>F2-D$51</f>
+        <f>F2-D$49</f>
         <v>3149.9999999999991</v>
       </c>
       <c r="H2" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="55" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3381,11 +3400,11 @@
         <v>95</v>
       </c>
       <c r="F3" s="21">
-        <f>C3*D$51</f>
+        <f>C3*D$49</f>
         <v>5850</v>
       </c>
       <c r="G3" s="21">
-        <f>F3-D$51</f>
+        <f>F3-D$49</f>
         <v>2850</v>
       </c>
       <c r="H3" s="49" t="s">
@@ -3412,7 +3431,7 @@
         <v>95</v>
       </c>
       <c r="F4" s="21">
-        <f>C4*D$51</f>
+        <f>C4*D$49</f>
         <v>5850</v>
       </c>
       <c r="G4" s="21">
@@ -3445,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="21">
-        <f t="shared" ref="G5:G12" si="0">F5-D$51</f>
+        <f t="shared" ref="G5:G12" si="0">F5-D$49</f>
         <v>-3000</v>
       </c>
       <c r="H5" s="49" t="s">
@@ -3472,7 +3491,7 @@
         <v>95</v>
       </c>
       <c r="F6" s="21">
-        <f>C6*D$51</f>
+        <f>C6*D$49</f>
         <v>6000</v>
       </c>
       <c r="G6" s="21">
@@ -3482,7 +3501,7 @@
       <c r="H6" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="54" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3503,7 +3522,7 @@
         <v>94</v>
       </c>
       <c r="F7" s="21">
-        <f>C7*D$51</f>
+        <f>C7*D$49</f>
         <v>5940</v>
       </c>
       <c r="G7" s="21">
@@ -3534,7 +3553,7 @@
         <v>95</v>
       </c>
       <c r="F8" s="21">
-        <f>C8*D$51</f>
+        <f>C8*D$49</f>
         <v>5850</v>
       </c>
       <c r="G8" s="21">
@@ -3595,7 +3614,7 @@
         <v>94</v>
       </c>
       <c r="F10" s="21">
-        <f>C10*D$51</f>
+        <f>C10*D$49</f>
         <v>5700</v>
       </c>
       <c r="G10" s="21">
@@ -3626,7 +3645,7 @@
         <v>94</v>
       </c>
       <c r="F11" s="21">
-        <f>C11*D$51</f>
+        <f>C11*D$49</f>
         <v>4830</v>
       </c>
       <c r="G11" s="21">
@@ -3645,40 +3664,41 @@
         <v>45109</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" s="19">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="51" t="s">
         <v>95</v>
       </c>
       <c r="F12" s="21">
-        <v>0</v>
+        <f>C12*D$49</f>
+        <v>5850</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="0"/>
-        <v>-3000</v>
+        <v>2850</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C13" s="19">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>20</v>
@@ -3693,10 +3713,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3704,36 +3724,38 @@
         <v>45110</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="19">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="24" t="s">
         <v>95</v>
       </c>
       <c r="F14" s="21">
-        <v>0</v>
+        <f t="shared" ref="F14:F22" si="1">C14*D$49</f>
+        <v>5850</v>
       </c>
       <c r="G14" s="21">
-        <v>0</v>
+        <f>F14-D$49</f>
+        <v>2850</v>
       </c>
       <c r="H14" s="49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C15" s="19">
         <v>1.95</v>
@@ -3745,15 +3767,15 @@
         <v>95</v>
       </c>
       <c r="F15" s="21">
-        <f t="shared" ref="F15:F23" si="1">C15*D$51</f>
+        <f t="shared" si="1"/>
         <v>5850</v>
       </c>
       <c r="G15" s="21">
-        <f>F15-D$51</f>
+        <f>F15-D$49</f>
         <v>2850</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>49</v>
@@ -3761,10 +3783,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="19">
         <v>1.95</v>
@@ -3772,7 +3794,7 @@
       <c r="D16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="45" t="s">
         <v>95</v>
       </c>
       <c r="F16" s="21">
@@ -3780,11 +3802,10 @@
         <v>5850</v>
       </c>
       <c r="G16" s="21">
-        <f>F16-D$51</f>
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>49</v>
@@ -3795,29 +3816,30 @@
         <v>45112</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="19">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="45" t="s">
-        <v>95</v>
+      <c r="E17" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="F17" s="21">
         <f t="shared" si="1"/>
-        <v>5850</v>
+        <v>5550</v>
       </c>
       <c r="G17" s="21">
-        <v>0</v>
+        <f t="shared" ref="G17:G23" si="2">F17-D$49</f>
+        <v>2550</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3825,10 +3847,10 @@
         <v>45112</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="19">
-        <v>1.85</v>
+        <v>1.51</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>20</v>
@@ -3838,59 +3860,59 @@
       </c>
       <c r="F18" s="21">
         <f t="shared" si="1"/>
-        <v>5550</v>
+        <v>4530</v>
       </c>
       <c r="G18" s="21">
-        <f t="shared" ref="G18:G25" si="2">F18-D$51</f>
-        <v>2550</v>
+        <f t="shared" si="2"/>
+        <v>1530</v>
       </c>
       <c r="H18" s="49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>45112</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="19">
-        <v>1.51</v>
+      <c r="A19" s="3">
+        <v>45115</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1.68</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" s="21">
         <f t="shared" si="1"/>
-        <v>4530</v>
+        <v>5040</v>
       </c>
       <c r="G19" s="21">
         <f t="shared" si="2"/>
-        <v>1530</v>
+        <v>2040</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45115</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>60</v>
+      <c r="B20" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C20" s="11">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>20</v>
@@ -3900,17 +3922,17 @@
       </c>
       <c r="F20" s="21">
         <f t="shared" si="1"/>
-        <v>5040</v>
+        <v>5310</v>
       </c>
       <c r="G20" s="21">
         <f t="shared" si="2"/>
-        <v>2040</v>
+        <v>2310</v>
       </c>
       <c r="H20" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>49</v>
+        <v>88</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3918,41 +3940,41 @@
         <v>45115</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" s="11">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21" s="21">
         <f t="shared" si="1"/>
-        <v>5310</v>
+        <v>5790</v>
       </c>
       <c r="G21" s="21">
         <f t="shared" si="2"/>
-        <v>2310</v>
+        <v>2790</v>
       </c>
       <c r="H21" s="49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C22" s="11">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>20</v>
@@ -3962,48 +3984,47 @@
       </c>
       <c r="F22" s="21">
         <f t="shared" si="1"/>
-        <v>5790</v>
+        <v>5250</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="2"/>
-        <v>2790</v>
+        <v>2250</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="16">
         <v>45116</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>70</v>
+      <c r="B23" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="C23" s="11">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>94</v>
+      <c r="E23" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="F23" s="21">
-        <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="G23" s="21">
         <f t="shared" si="2"/>
-        <v>2250</v>
+        <v>-3000</v>
       </c>
       <c r="H23" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>26</v>
+        <v>85</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4011,121 +4032,80 @@
         <v>45116</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C24" s="11">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="45" t="s">
         <v>95</v>
       </c>
       <c r="F24" s="21">
         <v>0</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" si="2"/>
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
-        <v>45116</v>
+        <v>45117</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C25" s="11">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F25" s="21">
-        <f>C25*D$51</f>
-        <v>5610</v>
+        <f>C25*D$49</f>
+        <v>5760</v>
       </c>
       <c r="G25" s="21">
-        <f t="shared" si="2"/>
-        <v>2610</v>
+        <f>F25-D$49</f>
+        <v>2760</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
-        <v>45116</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="11">
-        <v>1.65</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="21">
-        <v>0</v>
-      </c>
-      <c r="G26" s="21">
-        <v>0</v>
-      </c>
-      <c r="H26" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="A26" s="16"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
-        <v>45117</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="11">
-        <v>1.92</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="21">
-        <f>C27*D$51</f>
-        <v>5760</v>
-      </c>
-      <c r="G27" s="21">
-        <f>F27-D$51</f>
-        <v>2760</v>
-      </c>
-      <c r="H27" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>117</v>
-      </c>
+      <c r="A27" s="16"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="49"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
@@ -4208,68 +4188,78 @@
       <c r="H35" s="49"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="11"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="45"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
-      <c r="H36" s="49"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="49"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="25"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="42">
+        <f>COUNT(C2:C25)</f>
+        <v>24</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D39" s="22">
+        <v>3</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="27"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="42">
-        <f>COUNT(C2:C27)</f>
-        <v>26</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+      <c r="D40" s="25">
+        <f>D38-D39</f>
+        <v>21</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C41" s="6"/>
-      <c r="D41" s="22">
-        <v>4</v>
+      <c r="D41" s="6">
+        <f>D40/D38*100</f>
+        <v>87.5</v>
       </c>
       <c r="E41" s="27"/>
       <c r="F41" s="28"/>
@@ -4279,12 +4269,12 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="D42" s="25">
-        <f>D40-D41</f>
-        <v>22</v>
+      <c r="D42" s="6">
+        <f>1/D43*100</f>
+        <v>53.309640159928925</v>
       </c>
       <c r="E42" s="27"/>
       <c r="F42" s="28"/>
@@ -4294,12 +4284,12 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6">
-        <f>D42/D40*100</f>
-        <v>84.615384615384613</v>
+        <f>SUM(C2:C25)/D38</f>
+        <v>1.8758333333333332</v>
       </c>
       <c r="E43" s="27"/>
       <c r="F43" s="28"/>
@@ -4309,12 +4299,12 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="6">
-        <f>1/D45*100</f>
-        <v>53.180609531601561</v>
+      <c r="D44" s="25">
+        <f>D41-D42</f>
+        <v>34.190359840071075</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="28"/>
@@ -4324,70 +4314,70 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C45" s="6"/>
-      <c r="D45" s="6">
-        <f>SUM(C2:C27)/D40</f>
-        <v>1.8803846153846151</v>
+      <c r="D45" s="25">
+        <f>D44/1</f>
+        <v>34.190359840071075</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="28"/>
       <c r="G45" s="29"/>
       <c r="H45" s="27"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
-      <c r="B46" s="6" t="s">
-        <v>102</v>
+      <c r="B46" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="25">
-        <f>D43-D44</f>
-        <v>31.434775083783052</v>
+      <c r="D46" s="31">
+        <v>100000</v>
       </c>
       <c r="E46" s="27"/>
       <c r="F46" s="28"/>
       <c r="G46" s="29"/>
       <c r="H46" s="27"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="25">
-        <f>D46/1</f>
-        <v>31.434775083783052</v>
+      <c r="D47" s="32">
+        <v>100000</v>
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="28"/>
       <c r="G47" s="29"/>
       <c r="H47" s="27"/>
     </row>
-    <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="30" t="s">
-        <v>104</v>
+      <c r="B48" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="31">
-        <v>100000</v>
+      <c r="D48" s="21">
+        <f>D47/100</f>
+        <v>1000</v>
       </c>
       <c r="E48" s="27"/>
       <c r="F48" s="28"/>
       <c r="G48" s="29"/>
       <c r="H48" s="27"/>
     </row>
-    <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="6" t="s">
-        <v>105</v>
+      <c r="B49" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="32">
-        <v>100000</v>
+      <c r="D49" s="34">
+        <f>D48*3</f>
+        <v>3000</v>
       </c>
       <c r="E49" s="27"/>
       <c r="F49" s="28"/>
@@ -4397,12 +4387,12 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="21">
-        <f>D49/100</f>
-        <v>1000</v>
+      <c r="D50" s="41">
+        <f>SUM(G2:G25)</f>
+        <v>35100</v>
       </c>
       <c r="E50" s="27"/>
       <c r="F50" s="28"/>
@@ -4411,13 +4401,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="33" t="s">
-        <v>110</v>
+      <c r="B51" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="34">
-        <f>D50*3</f>
-        <v>3000</v>
+      <c r="D51" s="10">
+        <f>D50/D46*100</f>
+        <v>35.099999999999994</v>
       </c>
       <c r="E51" s="27"/>
       <c r="F51" s="28"/>
@@ -4426,14 +4416,9 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="41">
-        <f>SUM(G2:G27)</f>
-        <v>31860</v>
-      </c>
+      <c r="D52" s="10"/>
       <c r="E52" s="27"/>
       <c r="F52" s="28"/>
       <c r="G52" s="29"/>
@@ -4441,14 +4426,9 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="35" t="s">
-        <v>108</v>
-      </c>
+      <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="10">
-        <f>D52/D48*100</f>
-        <v>31.86</v>
-      </c>
+      <c r="D53" s="10"/>
       <c r="E53" s="27"/>
       <c r="F53" s="28"/>
       <c r="G53" s="29"/>
@@ -4456,7 +4436,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="6"/>
       <c r="D54" s="10"/>
       <c r="E54" s="27"/>
@@ -4466,7 +4446,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="6"/>
       <c r="D55" s="10"/>
       <c r="E55" s="27"/>
@@ -4484,32 +4464,12 @@
       <c r="G56" s="29"/>
       <c r="H56" s="27"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="27"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="27"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:H37"/>
   </mergeCells>
-  <conditionalFormatting sqref="E41:E58 H41:H58">
+  <conditionalFormatting sqref="E39:E56 H39:H56">
     <cfRule type="cellIs" dxfId="4" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -4520,7 +4480,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G38">
+  <conditionalFormatting sqref="G2:G36">
     <cfRule type="cellIs" dxfId="1" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="julho1-5" sheetId="2" r:id="rId1"/>
-    <sheet name="julho" sheetId="1" r:id="rId2"/>
-    <sheet name="julhoInvest" sheetId="3" r:id="rId3"/>
+    <sheet name="mls" sheetId="4" r:id="rId1"/>
+    <sheet name="julho1-5" sheetId="2" r:id="rId2"/>
+    <sheet name="julho" sheetId="1" r:id="rId3"/>
+    <sheet name="julhoInvest" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="137">
   <si>
     <t>DATA</t>
   </si>
@@ -64,9 +65,6 @@
   </si>
   <si>
     <t>ANALISE-TECNICA</t>
-  </si>
-  <si>
-    <t>TOTAL DE GOLS</t>
   </si>
   <si>
     <t>ARGENTINA - LIGA PROFESIONAL</t>
@@ -606,9 +604,6 @@
     <t>OVER 2,25-PINNACLE</t>
   </si>
   <si>
-    <t>STAKE BET MATRIZ-FULL 3%</t>
-  </si>
-  <si>
     <t>  CHAPECOENSE vs CRB</t>
   </si>
   <si>
@@ -637,6 +632,60 @@
   </si>
   <si>
     <t>    SUWON BLUEWINGS vs POHANG STEELERS</t>
+  </si>
+  <si>
+    <t> CHUNGNAM ASAN vs ANYANG</t>
+  </si>
+  <si>
+    <t> FC GIFU vs FC IMABARI</t>
+  </si>
+  <si>
+    <t> R. YAMAGUCHI vs IWAKI</t>
+  </si>
+  <si>
+    <t>  TOKYO VERDY vs TOKUSHIMA V.</t>
+  </si>
+  <si>
+    <t> V. HACHINOHE vs EHIME FC</t>
+  </si>
+  <si>
+    <t>STAKE BET MATRIZ-FULL 4%</t>
+  </si>
+  <si>
+    <t>over 2,25</t>
+  </si>
+  <si>
+    <t>  BUSAN IPARK vs SEONGNAM</t>
+  </si>
+  <si>
+    <t> CSA vs EC SAO JOSE</t>
+  </si>
+  <si>
+    <t> FAGIANO OKAYAMA vs V-V. NAGASAKI</t>
+  </si>
+  <si>
+    <t> FORTALEZA vs CUIABA</t>
+  </si>
+  <si>
+    <t> BRAZIL - SERIE A</t>
+  </si>
+  <si>
+    <t>  INTERNACIONAL vs PALMEIRAS</t>
+  </si>
+  <si>
+    <t>3--1</t>
+  </si>
+  <si>
+    <t> MIAMI FC vs CHARLESTON</t>
+  </si>
+  <si>
+    <t>usa - usl championship</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA vs FORWARD MADISON</t>
+  </si>
+  <si>
+    <t> usa - usl league one</t>
   </si>
 </sst>
 </file>
@@ -647,7 +696,7 @@
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,8 +795,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,12 +871,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -836,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -984,26 +1041,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1364,10 +1456,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="144" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>45123</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6">
+        <v>47</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>45123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K1:K2">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"NOT INVEST"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,11 +1575,11 @@
     <col min="2" max="2" width="38.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="9.140625" style="6"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="6"/>
+    <col min="13" max="13" width="9.140625" style="6"/>
+    <col min="14" max="14" width="30.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="226.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="226.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1388,25 +1587,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>8</v>
@@ -1417,22 +1616,20 @@
       <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45108</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6">
         <v>3.37</v>
@@ -1456,26 +1653,26 @@
         <v>1.98</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6">
         <v>46</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45108</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6">
         <v>2.25</v>
@@ -1499,26 +1696,26 @@
         <v>2.14</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6">
         <v>36</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6">
         <v>1.99</v>
@@ -1542,26 +1739,26 @@
         <v>2.44</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6">
         <v>40</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45108</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6">
         <v>1.6</v>
@@ -1585,26 +1782,26 @@
         <v>1.93</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6">
         <v>35</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>45108</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6">
         <v>1.93</v>
@@ -1628,26 +1825,26 @@
         <v>1.72</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6">
         <v>33</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>45108</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6">
         <v>1.82</v>
@@ -1671,24 +1868,24 @@
         <v>1.99</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" s="6">
         <v>68</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>45108</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6">
         <v>2.3199999999999998</v>
@@ -1712,24 +1909,24 @@
         <v>1.91</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L8" s="6">
         <v>52</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>45108</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6">
         <v>4.07</v>
@@ -1753,24 +1950,24 @@
         <v>1.74</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="6">
         <v>45</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>45108</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="6">
         <v>1.85</v>
@@ -1794,24 +1991,24 @@
         <v>1.76</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10" s="6">
         <v>16</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>45109</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="6">
         <v>1.93</v>
@@ -1835,24 +2032,24 @@
         <v>1.87</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L11" s="6">
         <v>69</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>45109</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="6">
         <v>2.11</v>
@@ -1876,24 +2073,24 @@
         <v>1.66</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="6">
         <v>41</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>45109</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="6">
         <v>1.69</v>
@@ -1917,24 +2114,24 @@
         <v>1.49</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L13" s="6">
         <v>44</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>45109</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="6">
         <v>1.96</v>
@@ -1958,24 +2155,24 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L14" s="6">
         <v>47</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>45109</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="6">
         <v>2.71</v>
@@ -1999,24 +2196,24 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="6">
         <v>46</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>45109</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6">
         <v>2.0099999999999998</v>
@@ -2040,16 +2237,16 @@
         <v>1.94</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L16" s="6">
         <v>27</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2057,7 +2254,7 @@
         <v>45110</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="6">
         <v>2.33</v>
@@ -2081,16 +2278,16 @@
         <v>2.42</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L17" s="6">
         <v>31</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2098,7 +2295,7 @@
         <v>45110</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="6">
         <v>1.76</v>
@@ -2122,16 +2319,16 @@
         <v>2.27</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="6">
         <v>49</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2139,7 +2336,7 @@
         <v>45110</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="6">
         <v>2.63</v>
@@ -2163,16 +2360,16 @@
         <v>2.38</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L19" s="6">
         <v>34</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2180,7 +2377,7 @@
         <v>45110</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="6">
         <v>2.94</v>
@@ -2204,16 +2401,16 @@
         <v>1.92</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L20" s="6">
         <v>23</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2221,7 +2418,7 @@
         <v>45111</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="6">
         <v>2.4700000000000002</v>
@@ -2245,16 +2442,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="6">
         <v>54</v>
       </c>
       <c r="M21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N21" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2262,7 +2459,7 @@
         <v>45112</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="6">
         <v>2.98</v>
@@ -2286,16 +2483,16 @@
         <v>2.23</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L22" s="6">
         <v>63</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2303,7 +2500,7 @@
         <v>45112</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="6">
         <v>2.23</v>
@@ -2327,16 +2524,16 @@
         <v>1.63</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L23" s="6">
         <v>12</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2344,7 +2541,7 @@
         <v>45112</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="6">
         <v>4.3099999999999996</v>
@@ -2368,16 +2565,16 @@
         <v>1.49</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L24" s="6">
         <v>23</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2386,18 +2583,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
@@ -2436,7 +2633,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>8</v>
@@ -2460,7 +2657,7 @@
         <v>45114</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="23">
         <v>3.36</v>
@@ -2484,7 +2681,7 @@
         <v>1.819</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="23"/>
       <c r="L2" s="6"/>
@@ -2492,7 +2689,7 @@
         <v>18</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2" s="6"/>
     </row>
@@ -2501,7 +2698,7 @@
         <v>45115</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="23">
         <v>404</v>
@@ -2525,7 +2722,7 @@
         <v>404</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="23"/>
       <c r="L3" s="6"/>
@@ -2533,7 +2730,7 @@
         <v>21</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O3" s="6"/>
     </row>
@@ -2542,7 +2739,7 @@
         <v>45115</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="23">
         <v>2.13</v>
@@ -2566,7 +2763,7 @@
         <v>2.11</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="23"/>
       <c r="L4" s="6"/>
@@ -2574,7 +2771,7 @@
         <v>43</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O4" s="6"/>
     </row>
@@ -2583,7 +2780,7 @@
         <v>45115</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="10">
         <v>2.88</v>
@@ -2607,7 +2804,7 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" s="40"/>
       <c r="L5" s="10"/>
@@ -2615,7 +2812,7 @@
         <v>19</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" s="6"/>
     </row>
@@ -2624,7 +2821,7 @@
         <v>45115</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="10">
         <v>1.6990000000000001</v>
@@ -2648,7 +2845,7 @@
         <v>2.4</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -2656,7 +2853,7 @@
         <v>83</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O6" s="6"/>
     </row>
@@ -2665,7 +2862,7 @@
         <v>45115</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="10">
         <v>1.591</v>
@@ -2689,7 +2886,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -2697,7 +2894,7 @@
         <v>51</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O7" s="6"/>
     </row>
@@ -2706,7 +2903,7 @@
         <v>45115</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="10">
         <v>2.25</v>
@@ -2730,7 +2927,7 @@
         <v>2.36</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -2738,7 +2935,7 @@
         <v>70</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O8" s="6"/>
     </row>
@@ -2747,7 +2944,7 @@
         <v>45115</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="10">
         <v>4.99</v>
@@ -2771,7 +2968,7 @@
         <v>1.7929999999999999</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -2779,7 +2976,7 @@
         <v>24</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O9" s="6"/>
     </row>
@@ -2788,7 +2985,7 @@
         <v>45115</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="10">
         <v>2.48</v>
@@ -2812,7 +3009,7 @@
         <v>1.9</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -2820,7 +3017,7 @@
         <v>63</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O10" s="6"/>
     </row>
@@ -2829,7 +3026,7 @@
         <v>45115</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="10">
         <v>2.14</v>
@@ -2853,7 +3050,7 @@
         <v>1.98</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -2861,7 +3058,7 @@
         <v>40</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O11" s="6"/>
     </row>
@@ -2870,7 +3067,7 @@
         <v>45115</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="10">
         <v>1.833</v>
@@ -2894,7 +3091,7 @@
         <v>1.8839999999999999</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -2902,7 +3099,7 @@
         <v>32</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O12" s="6"/>
     </row>
@@ -2911,7 +3108,7 @@
         <v>45115</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C13" s="43">
         <v>404</v>
@@ -2935,7 +3132,7 @@
         <v>404</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -2943,7 +3140,7 @@
         <v>53</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O13" s="6"/>
     </row>
@@ -2952,7 +3149,7 @@
         <v>45116</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="10">
         <v>3.95</v>
@@ -2976,7 +3173,7 @@
         <v>1.617</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -2984,7 +3181,7 @@
         <v>46</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O14" s="6"/>
     </row>
@@ -2993,7 +3190,7 @@
         <v>45116</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="46">
         <v>2.83</v>
@@ -3017,14 +3214,14 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="38"/>
       <c r="M15" s="6">
         <v>53</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -3032,7 +3229,7 @@
         <v>45116</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="46">
         <v>2.29</v>
@@ -3056,13 +3253,13 @@
         <v>2.17</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M16" s="6">
         <v>28</v>
       </c>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3070,7 +3267,7 @@
         <v>45116</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17" s="46">
         <v>2.12</v>
@@ -3094,13 +3291,13 @@
         <v>1.746</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M17" s="6">
         <v>57</v>
       </c>
       <c r="N17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -3108,7 +3305,7 @@
         <v>45116</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18" s="46">
         <v>2.37</v>
@@ -3132,13 +3329,13 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" s="6">
         <v>60</v>
       </c>
       <c r="N18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -3146,37 +3343,37 @@
         <v>45116</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="46">
-        <v>505</v>
+        <v>1.88</v>
       </c>
       <c r="D19" s="46">
-        <v>505</v>
+        <v>3.21</v>
       </c>
       <c r="E19" s="46">
-        <v>505</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F19" s="46">
-        <v>505</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="G19" s="46">
-        <v>505</v>
+        <v>2.65</v>
       </c>
       <c r="H19" s="46">
-        <v>505</v>
+        <v>1.61</v>
       </c>
       <c r="I19" s="46">
-        <v>505</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M19" s="6">
         <v>36</v>
       </c>
       <c r="N19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -3184,7 +3381,7 @@
         <v>45117</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C20" s="47">
         <v>3.82</v>
@@ -3208,13 +3405,13 @@
         <v>2.21</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M20" s="6">
         <v>66</v>
       </c>
       <c r="N20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -3222,7 +3419,7 @@
         <v>45118</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C21" s="48">
         <v>2.5099999999999998</v>
@@ -3246,13 +3443,13 @@
         <v>1.8129999999999999</v>
       </c>
       <c r="J21" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21" s="6">
         <v>15</v>
       </c>
       <c r="N21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3260,7 +3457,7 @@
         <v>45119</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C22" s="50">
         <v>4.22</v>
@@ -3284,18 +3481,398 @@
         <v>1.8919999999999999</v>
       </c>
       <c r="J22" s="50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M22" s="6">
         <v>25</v>
       </c>
       <c r="N22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>45122</v>
+      </c>
+      <c r="B23" t="s">
         <v>119</v>
+      </c>
+      <c r="C23" s="52">
+        <v>3.76</v>
+      </c>
+      <c r="D23" s="52">
+        <v>3.28</v>
+      </c>
+      <c r="E23" s="52">
+        <v>2.16</v>
+      </c>
+      <c r="F23" s="52">
+        <v>2.82</v>
+      </c>
+      <c r="G23" s="52">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H23" s="52">
+        <v>1.595</v>
+      </c>
+      <c r="I23" s="52">
+        <v>2.11</v>
+      </c>
+      <c r="J23" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="6">
+        <v>16</v>
+      </c>
+      <c r="N23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>45122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="52">
+        <v>2.57</v>
+      </c>
+      <c r="D24" s="52">
+        <v>3.15</v>
+      </c>
+      <c r="E24" s="52">
+        <v>2.79</v>
+      </c>
+      <c r="F24" s="52">
+        <v>404</v>
+      </c>
+      <c r="G24" s="52">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H24" s="52">
+        <v>1.746</v>
+      </c>
+      <c r="I24" s="52">
+        <v>1.819</v>
+      </c>
+      <c r="J24" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="6">
+        <v>32</v>
+      </c>
+      <c r="N24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>45122</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="52">
+        <v>2.84</v>
+      </c>
+      <c r="D25" s="52">
+        <v>3.17</v>
+      </c>
+      <c r="E25" s="52">
+        <v>2.74</v>
+      </c>
+      <c r="F25" s="52">
+        <v>3.16</v>
+      </c>
+      <c r="G25" s="52">
+        <v>2.23</v>
+      </c>
+      <c r="H25" s="52">
+        <v>1.694</v>
+      </c>
+      <c r="I25" s="52">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="J25" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="6">
+        <v>12</v>
+      </c>
+      <c r="N25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>45122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="52">
+        <v>1.74</v>
+      </c>
+      <c r="D26" s="52">
+        <v>3.67</v>
+      </c>
+      <c r="E26" s="52">
+        <v>5.3</v>
+      </c>
+      <c r="F26" s="52">
+        <v>5.3</v>
+      </c>
+      <c r="G26" s="52">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H26" s="52">
+        <v>1.653</v>
+      </c>
+      <c r="I26" s="52">
+        <v>2.02</v>
+      </c>
+      <c r="J26" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="6">
+        <v>34</v>
+      </c>
+      <c r="N26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>45122</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="52">
+        <v>2.58</v>
+      </c>
+      <c r="D27" s="52">
+        <v>3.04</v>
+      </c>
+      <c r="E27" s="52">
+        <v>2.72</v>
+      </c>
+      <c r="F27" s="52">
+        <v>404</v>
+      </c>
+      <c r="G27" s="52">
+        <v>2.17</v>
+      </c>
+      <c r="H27" s="52">
+        <v>1.6279999999999999</v>
+      </c>
+      <c r="I27" s="52">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="J27" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="6">
+        <v>34</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>45123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="55">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D28" s="55">
+        <v>3.32</v>
+      </c>
+      <c r="E28" s="55">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F28" s="55">
+        <v>2.79</v>
+      </c>
+      <c r="G28" s="55">
+        <v>2.38</v>
+      </c>
+      <c r="H28" s="55">
+        <v>1.617</v>
+      </c>
+      <c r="I28" s="55">
+        <v>2.09</v>
+      </c>
+      <c r="J28" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="6">
+        <v>48</v>
+      </c>
+      <c r="N28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>45123</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="55">
+        <v>1.877</v>
+      </c>
+      <c r="D29" s="55">
+        <v>3.22</v>
+      </c>
+      <c r="E29" s="55">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="F29" s="55">
+        <v>2.59</v>
+      </c>
+      <c r="G29" s="55">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H29" s="55">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="I29" s="55">
+        <v>2.17</v>
+      </c>
+      <c r="J29" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="6">
+        <v>41</v>
+      </c>
+      <c r="N29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>45123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="55">
+        <v>2.25</v>
+      </c>
+      <c r="D30" s="55">
+        <v>3.34</v>
+      </c>
+      <c r="E30" s="55">
+        <v>3.44</v>
+      </c>
+      <c r="F30" s="55">
+        <v>3.14</v>
+      </c>
+      <c r="G30" s="55">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H30" s="55">
+        <v>1.714</v>
+      </c>
+      <c r="I30" s="55">
+        <v>1.925</v>
+      </c>
+      <c r="J30" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="6">
+        <v>43</v>
+      </c>
+      <c r="N30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>45123</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="55">
+        <v>1.68</v>
+      </c>
+      <c r="D31" s="55">
+        <v>3.79</v>
+      </c>
+      <c r="E31" s="55">
+        <v>5.83</v>
+      </c>
+      <c r="F31" s="55">
+        <v>2.97</v>
+      </c>
+      <c r="G31" s="55">
+        <v>2.29</v>
+      </c>
+      <c r="H31" s="55">
+        <v>1.675</v>
+      </c>
+      <c r="I31" s="55">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J31" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="6">
+        <v>24</v>
+      </c>
+      <c r="N31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>45123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="55">
+        <v>2.99</v>
+      </c>
+      <c r="D32" s="55">
+        <v>3.23</v>
+      </c>
+      <c r="E32" s="55">
+        <v>2.61</v>
+      </c>
+      <c r="F32" s="55">
+        <v>3.02</v>
+      </c>
+      <c r="G32" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H32" s="55">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="I32" s="55">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J32" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="6">
+        <v>47</v>
+      </c>
+      <c r="N32" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K14">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3304,12 +3881,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3334,16 +3911,16 @@
         <v>13</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>93</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>10</v>
@@ -3352,110 +3929,108 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45108</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="19">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="21">
-        <f>C2*D$49</f>
-        <v>6149.9999999999991</v>
-      </c>
-      <c r="G2" s="21">
-        <f>F2-D$49</f>
-        <v>3149.9999999999991</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="56">
+        <v>2.44</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="57">
+        <f>C2*D$47</f>
+        <v>2928</v>
+      </c>
+      <c r="G2" s="57">
+        <f>(F2-D$47)/2</f>
+        <v>864</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="7">
         <v>45108</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" s="19">
-        <v>1.95</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>95</v>
+        <v>1.96</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="F3" s="21">
-        <f>C3*D$49</f>
-        <v>5850</v>
+        <v>0</v>
       </c>
       <c r="G3" s="21">
-        <f>F3-D$49</f>
-        <v>2850</v>
+        <f t="shared" ref="G3:G9" si="0">F3-D$47</f>
+        <v>-1200</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="16">
         <v>45108</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
+      <c r="B4" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="19">
         <v>1.95</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>95</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="F4" s="21">
-        <f>C4*D$49</f>
-        <v>5850</v>
+        <f>C4*D$47</f>
+        <v>2340</v>
       </c>
       <c r="G4" s="21">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1140</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>23</v>
+        <v>88</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>45108</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="19">
-        <v>1.96</v>
-      </c>
+      <c r="A5" s="16">
+        <v>45109</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="19"/>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>94</v>
@@ -3464,627 +4039,592 @@
         <v>0</v>
       </c>
       <c r="G5" s="21">
-        <f t="shared" ref="G5:G12" si="0">F5-D$49</f>
-        <v>-3000</v>
+        <f t="shared" si="0"/>
+        <v>-1200</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>26</v>
+        <v>84</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C6" s="19">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" s="21">
-        <f>C6*D$49</f>
-        <v>6000</v>
+        <f>C6*D$47</f>
+        <v>2280</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>1080</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>28</v>
+        <v>89</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C7" s="19">
-        <v>1.98</v>
+        <v>1.61</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="21">
-        <f>C7*D$49</f>
-        <v>5940</v>
+        <f>C7*D$47</f>
+        <v>1932.0000000000002</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="0"/>
-        <v>2940</v>
+        <v>732.00000000000023</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C8" s="19">
         <v>1.95</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="21">
-        <f>C8*D$49</f>
-        <v>5850</v>
+        <f>C8*D$47</f>
+        <v>2340</v>
       </c>
       <c r="G8" s="21">
         <f t="shared" si="0"/>
-        <v>2850</v>
+        <v>1140</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C9" s="19">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F9" s="21">
         <v>0</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="0"/>
-        <v>-3000</v>
+        <v>-1200</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
-        <v>45109</v>
+        <v>45112</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C10" s="19">
-        <v>1.9</v>
+        <v>2.23</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="F10" s="21">
-        <f>C10*D$49</f>
-        <v>5700</v>
+        <f>C10*D$47</f>
+        <v>2676</v>
       </c>
       <c r="G10" s="21">
-        <f t="shared" si="0"/>
-        <v>2700</v>
+        <f>(F10-D$47)/2</f>
+        <v>738</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
-        <v>45109</v>
+        <v>45112</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C11" s="19">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="21">
-        <f>C11*D$49</f>
-        <v>4830</v>
+        <f>C11*D$47</f>
+        <v>2220</v>
       </c>
       <c r="G11" s="21">
-        <f t="shared" si="0"/>
-        <v>1830</v>
+        <f>F11-D$47</f>
+        <v>1020</v>
       </c>
       <c r="H11" s="49" t="s">
         <v>85</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
-        <v>45109</v>
+        <v>45112</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C12" s="19">
-        <v>1.95</v>
+        <v>1.51</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>95</v>
+        <v>19</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="F12" s="21">
-        <f>C12*D$49</f>
-        <v>5850</v>
+        <f>C12*D$47</f>
+        <v>1812</v>
       </c>
       <c r="G12" s="21">
-        <f t="shared" si="0"/>
-        <v>2850</v>
+        <f>F12-D$47</f>
+        <v>612</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>45110</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>47</v>
+      <c r="A13" s="3">
+        <v>45115</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="C13" s="19">
-        <v>1.96</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>95</v>
+        <v>19</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="F13" s="21">
         <v>0</v>
       </c>
       <c r="G13" s="21">
+        <f t="shared" ref="G13:G17" si="1">F13-D$47</f>
+        <v>-1200</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>45115</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="19">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="21">
         <v>0</v>
       </c>
-      <c r="H13" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>45110</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="19">
-        <v>1.95</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="21">
-        <f t="shared" ref="F14:F22" si="1">C14*D$49</f>
-        <v>5850</v>
-      </c>
       <c r="G14" s="21">
-        <f>F14-D$49</f>
-        <v>2850</v>
+        <f t="shared" si="1"/>
+        <v>-1200</v>
       </c>
       <c r="H14" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>45115</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="19">
+        <v>2.36</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="1"/>
+        <v>-1200</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>45115</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1.93</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" ref="F16:F18" si="2">C16*D$47</f>
+        <v>2316</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="1"/>
+        <v>1116</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>45115</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="2"/>
+        <v>2280</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>45115</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1.98</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="2"/>
+        <v>2376</v>
+      </c>
+      <c r="G18" s="21">
+        <f>(F18-D$470)/2</f>
+        <v>1188</v>
+      </c>
+      <c r="H18" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <v>45111</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="19">
-        <v>1.95</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="21">
-        <f t="shared" si="1"/>
-        <v>5850</v>
-      </c>
-      <c r="G15" s="21">
-        <f>F15-D$49</f>
-        <v>2850</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
-        <v>45112</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="19">
-        <v>1.95</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="21">
-        <f t="shared" si="1"/>
-        <v>5850</v>
-      </c>
-      <c r="G16" s="21">
-        <v>0</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
-        <v>45112</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="19">
-        <v>1.85</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="21">
-        <f t="shared" si="1"/>
-        <v>5550</v>
-      </c>
-      <c r="G17" s="21">
-        <f t="shared" ref="G17:G23" si="2">F17-D$49</f>
-        <v>2550</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
-        <v>45112</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="19">
-        <v>1.51</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="21">
-        <f t="shared" si="1"/>
-        <v>4530</v>
-      </c>
-      <c r="G18" s="21">
-        <f t="shared" si="2"/>
-        <v>1530</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>26</v>
+      <c r="I18" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>45115</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>60</v>
+        <v>45116</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C19" s="11">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F19" s="21">
-        <f t="shared" si="1"/>
-        <v>5040</v>
+        <f>C19*D$47</f>
+        <v>2100</v>
       </c>
       <c r="G19" s="21">
-        <f t="shared" si="2"/>
-        <v>2040</v>
+        <f>F19-D$47</f>
+        <v>900</v>
       </c>
       <c r="H19" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>45116</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2.17</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="21">
+        <f>C20*D$47</f>
+        <v>2604</v>
+      </c>
+      <c r="G20" s="21">
+        <f>F20-D$47</f>
+        <v>1404</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>45116</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>45115</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="11">
-        <v>1.77</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="21">
-        <f t="shared" si="1"/>
-        <v>5310</v>
-      </c>
-      <c r="G20" s="21">
-        <f t="shared" si="2"/>
-        <v>2310</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>45115</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="11">
-        <v>1.93</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="21">
-        <f t="shared" si="1"/>
-        <v>5790</v>
-      </c>
-      <c r="G21" s="21">
-        <f t="shared" si="2"/>
-        <v>2790</v>
-      </c>
-      <c r="H21" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>65</v>
+      <c r="I21" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="16">
         <v>45116</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>70</v>
+      <c r="B22" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="C22" s="11">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>94</v>
       </c>
       <c r="F22" s="21">
-        <f t="shared" si="1"/>
-        <v>5250</v>
+        <f>C22*D$47</f>
+        <v>2400</v>
       </c>
       <c r="G22" s="21">
-        <f t="shared" si="2"/>
-        <v>2250</v>
+        <f>F22-D$47</f>
+        <v>1200</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>26</v>
+      <c r="I22" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
-        <v>45116</v>
+        <v>45123</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="11">
-        <v>1.9</v>
+        <v>127</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="21">
-        <v>0</v>
-      </c>
-      <c r="G23" s="21">
-        <f t="shared" si="2"/>
-        <v>-3000</v>
-      </c>
-      <c r="H23" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
-        <v>45116</v>
+        <v>45123</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="11">
-        <v>1.65</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C24" s="11"/>
       <c r="D24" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="21">
-        <v>0</v>
-      </c>
-      <c r="G24" s="21">
-        <v>0</v>
-      </c>
-      <c r="H24" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>34</v>
+        <v>125</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="49"/>
+      <c r="I24" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
-        <v>45117</v>
+        <v>45123</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="11">
-        <v>1.92</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C25" s="11"/>
       <c r="D25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="21">
-        <f>C25*D$49</f>
-        <v>5760</v>
-      </c>
-      <c r="G25" s="21">
-        <f>F25-D$49</f>
-        <v>2760</v>
-      </c>
-      <c r="H25" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>117</v>
+        <v>19</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="49"/>
+      <c r="I25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4168,68 +4708,78 @@
       <c r="H33" s="49"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="11"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="45"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
-      <c r="H34" s="49"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="49"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="25"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="42">
+        <f>COUNT(C2:C22)</f>
+        <v>19</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D37" s="22">
+        <v>6</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="42">
-        <f>COUNT(C2:C25)</f>
-        <v>24</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="D38" s="25">
+        <f>D36-D37</f>
+        <v>13</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="27"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="22">
-        <v>3</v>
+      <c r="D39" s="6">
+        <f>D38/D36*100</f>
+        <v>68.421052631578945</v>
       </c>
       <c r="E39" s="27"/>
       <c r="F39" s="28"/>
@@ -4239,12 +4789,12 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="25">
-        <f>D38-D39</f>
-        <v>21</v>
+      <c r="D40" s="6">
+        <f>1/D41*100</f>
+        <v>49.492055222714257</v>
       </c>
       <c r="E40" s="27"/>
       <c r="F40" s="28"/>
@@ -4254,12 +4804,12 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6">
-        <f>D40/D38*100</f>
-        <v>87.5</v>
+        <f>SUM(C2:C22)/D36</f>
+        <v>2.0205263157894735</v>
       </c>
       <c r="E41" s="27"/>
       <c r="F41" s="28"/>
@@ -4269,12 +4819,12 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="D42" s="6">
-        <f>1/D43*100</f>
-        <v>53.309640159928925</v>
+      <c r="D42" s="25">
+        <f>D39-D40</f>
+        <v>18.928997408864689</v>
       </c>
       <c r="E42" s="27"/>
       <c r="F42" s="28"/>
@@ -4284,70 +4834,70 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="6">
-        <f>SUM(C2:C25)/D38</f>
-        <v>1.8758333333333332</v>
+      <c r="D43" s="25">
+        <f>D42/1</f>
+        <v>18.928997408864689</v>
       </c>
       <c r="E43" s="27"/>
       <c r="F43" s="28"/>
       <c r="G43" s="29"/>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
-      <c r="B44" s="6" t="s">
-        <v>102</v>
+      <c r="B44" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="25">
-        <f>D41-D42</f>
-        <v>34.190359840071075</v>
+      <c r="D44" s="31">
+        <v>30000</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="28"/>
       <c r="G44" s="29"/>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C45" s="6"/>
-      <c r="D45" s="25">
-        <f>D44/1</f>
-        <v>34.190359840071075</v>
+      <c r="D45" s="32">
+        <v>30000</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="28"/>
       <c r="G45" s="29"/>
       <c r="H45" s="27"/>
     </row>
-    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="30" t="s">
-        <v>104</v>
+      <c r="B46" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="31">
-        <v>100000</v>
+      <c r="D46" s="21">
+        <f>D45/100</f>
+        <v>300</v>
       </c>
       <c r="E46" s="27"/>
       <c r="F46" s="28"/>
       <c r="G46" s="29"/>
       <c r="H46" s="27"/>
     </row>
-    <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="6" t="s">
-        <v>105</v>
+      <c r="B47" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="32">
-        <v>100000</v>
+      <c r="D47" s="34">
+        <f>D46*4</f>
+        <v>1200</v>
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="28"/>
@@ -4360,9 +4910,9 @@
         <v>106</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="21">
-        <f>D47/100</f>
-        <v>1000</v>
+      <c r="D48" s="41">
+        <f>SUM(G2:G22)</f>
+        <v>7014</v>
       </c>
       <c r="E48" s="27"/>
       <c r="F48" s="28"/>
@@ -4371,13 +4921,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="33" t="s">
-        <v>110</v>
+      <c r="B49" s="35" t="s">
+        <v>107</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="34">
-        <f>D48*3</f>
-        <v>3000</v>
+      <c r="D49" s="10">
+        <f>D48/D44*100</f>
+        <v>23.380000000000003</v>
       </c>
       <c r="E49" s="27"/>
       <c r="F49" s="28"/>
@@ -4386,14 +4936,9 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="41">
-        <f>SUM(G2:G25)</f>
-        <v>35100</v>
-      </c>
+      <c r="D50" s="10"/>
       <c r="E50" s="27"/>
       <c r="F50" s="28"/>
       <c r="G50" s="29"/>
@@ -4401,14 +4946,9 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="35" t="s">
-        <v>108</v>
-      </c>
+      <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="10">
-        <f>D50/D46*100</f>
-        <v>35.099999999999994</v>
-      </c>
+      <c r="D51" s="10"/>
       <c r="E51" s="27"/>
       <c r="F51" s="28"/>
       <c r="G51" s="29"/>
@@ -4416,7 +4956,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="6"/>
       <c r="D52" s="10"/>
       <c r="E52" s="27"/>
@@ -4426,7 +4966,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="6"/>
       <c r="D53" s="10"/>
       <c r="E53" s="27"/>
@@ -4444,51 +4984,34 @@
       <c r="G54" s="29"/>
       <c r="H54" s="27"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="27"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="27"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:H35"/>
   </mergeCells>
-  <conditionalFormatting sqref="E39:E56 H39:H56">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="greaterThan">
+  <conditionalFormatting sqref="E37:E54 H37:H54">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G36">
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="lessThan">
+  <conditionalFormatting sqref="G24:G34 G2:G22">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G10 G18" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="mls" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="142">
   <si>
     <t>DATA</t>
   </si>
@@ -686,6 +686,21 @@
   </si>
   <si>
     <t> usa - usl league one</t>
+  </si>
+  <si>
+    <t>CHAPECOENSE vs ITUANO</t>
+  </si>
+  <si>
+    <t>MICHIGAN STARS vs ASC SAN DIEGO</t>
+  </si>
+  <si>
+    <t>usa - nisa</t>
+  </si>
+  <si>
+    <t> ONE KNOXVILLE vs UNION OMAHA</t>
+  </si>
+  <si>
+    <t>usa - usl league one</t>
   </si>
 </sst>
 </file>
@@ -893,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -1063,6 +1078,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1075,27 +1093,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1143,6 +1141,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1456,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,9 +1558,37 @@
         <v>136</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>45125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>45125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5">
+        <v>68</v>
+      </c>
+      <c r="N5" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2585,10 +2621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31:N32"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3870,9 +3906,26 @@
         <v>130</v>
       </c>
     </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>45125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="J33" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="6">
+        <v>61</v>
+      </c>
+      <c r="N33" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K14">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3885,8 +3938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4575,11 +4628,18 @@
       <c r="B23" s="6" t="s">
         <v>127</v>
       </c>
+      <c r="C23" s="11">
+        <v>1.86</v>
+      </c>
       <c r="D23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="45" t="s">
         <v>94</v>
+      </c>
+      <c r="F23" s="21">
+        <f>C23*D$47</f>
+        <v>2232</v>
       </c>
       <c r="I23" t="s">
         <v>35</v>
@@ -4592,14 +4652,19 @@
       <c r="B24" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="11">
+        <v>1.91</v>
+      </c>
       <c r="D24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21">
+        <f>C24*D$47</f>
+        <v>2292</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="49"/>
       <c r="I24" t="s">
@@ -4613,14 +4678,19 @@
       <c r="B25" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="11">
+        <v>1.92</v>
+      </c>
       <c r="D25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21">
+        <f>C25*D$47</f>
+        <v>2304</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="49"/>
       <c r="I25" t="s">
@@ -4721,11 +4791,11 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -4734,8 +4804,8 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="42">
-        <f>COUNT(C2:C22)</f>
-        <v>19</v>
+        <f>COUNT(C2:C25)</f>
+        <v>22</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="26"/>
@@ -4764,7 +4834,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="25">
         <f>D36-D37</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E38" s="27"/>
       <c r="F38" s="28"/>
@@ -4779,7 +4849,7 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6">
         <f>D38/D36*100</f>
-        <v>68.421052631578945</v>
+        <v>72.727272727272734</v>
       </c>
       <c r="E39" s="27"/>
       <c r="F39" s="28"/>
@@ -4794,7 +4864,7 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6">
         <f>1/D41*100</f>
-        <v>49.492055222714257</v>
+        <v>49.909255898366609</v>
       </c>
       <c r="E40" s="27"/>
       <c r="F40" s="28"/>
@@ -4808,8 +4878,8 @@
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6">
-        <f>SUM(C2:C22)/D36</f>
-        <v>2.0205263157894735</v>
+        <f>SUM(C2:C25)/D36</f>
+        <v>2.0036363636363634</v>
       </c>
       <c r="E41" s="27"/>
       <c r="F41" s="28"/>
@@ -4824,7 +4894,7 @@
       <c r="C42" s="6"/>
       <c r="D42" s="25">
         <f>D39-D40</f>
-        <v>18.928997408864689</v>
+        <v>22.818016828906124</v>
       </c>
       <c r="E42" s="27"/>
       <c r="F42" s="28"/>
@@ -4839,7 +4909,7 @@
       <c r="C43" s="6"/>
       <c r="D43" s="25">
         <f>D42/1</f>
-        <v>18.928997408864689</v>
+        <v>22.818016828906124</v>
       </c>
       <c r="E43" s="27"/>
       <c r="F43" s="28"/>
@@ -4911,7 +4981,7 @@
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="41">
-        <f>SUM(G2:G22)</f>
+        <f>SUM(G2:G34)</f>
         <v>7014</v>
       </c>
       <c r="E48" s="27"/>
@@ -4990,21 +5060,21 @@
     <mergeCell ref="G35:H35"/>
   </mergeCells>
   <conditionalFormatting sqref="E37:E54 H37:H54">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G34 G2:G22">
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mls" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="145">
   <si>
     <t>DATA</t>
   </si>
@@ -701,6 +701,15 @@
   </si>
   <si>
     <t>usa - usl league one</t>
+  </si>
+  <si>
+    <t>2--2</t>
+  </si>
+  <si>
+    <t> USA - NISA</t>
+  </si>
+  <si>
+    <t>USA - USL LEAGUE ONE</t>
   </si>
 </sst>
 </file>
@@ -908,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -1078,6 +1087,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1466,14 +1478,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="144" x14ac:dyDescent="0.25">
@@ -1527,16 +1540,32 @@
       <c r="B2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="C2" s="23">
+        <v>2.79</v>
+      </c>
+      <c r="D2" s="23">
+        <v>3.52</v>
+      </c>
+      <c r="E2" s="23">
+        <v>2.41</v>
+      </c>
+      <c r="F2" s="23">
+        <v>404</v>
+      </c>
+      <c r="G2" s="23">
+        <v>1.77</v>
+      </c>
+      <c r="H2" s="23">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I2" s="23">
+        <v>1.56</v>
+      </c>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="M2" s="6">
         <v>47</v>
       </c>
@@ -1550,6 +1579,30 @@
       </c>
       <c r="B3" t="s">
         <v>135</v>
+      </c>
+      <c r="C3">
+        <v>1.76</v>
+      </c>
+      <c r="D3">
+        <v>3.71</v>
+      </c>
+      <c r="E3">
+        <v>4.26</v>
+      </c>
+      <c r="F3">
+        <v>404</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1.83</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="M3">
         <v>30</v>
@@ -2621,10 +2674,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3922,6 +3975,43 @@
       <c r="N33" t="s">
         <v>48</v>
       </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>45125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="6">
+        <v>34</v>
+      </c>
+      <c r="N34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>45125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="6">
+        <v>68</v>
+      </c>
+      <c r="N35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M36" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K14">
@@ -4791,11 +4881,11 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="mls" sheetId="4" r:id="rId1"/>
-    <sheet name="julho1-5" sheetId="2" r:id="rId2"/>
-    <sheet name="julho" sheetId="1" r:id="rId3"/>
-    <sheet name="julhoInvest" sheetId="3" r:id="rId4"/>
+    <sheet name="janeiro" sheetId="5" r:id="rId1"/>
+    <sheet name="mls" sheetId="4" r:id="rId2"/>
+    <sheet name="julho1-5" sheetId="2" r:id="rId3"/>
+    <sheet name="julho" sheetId="1" r:id="rId4"/>
+    <sheet name="julhoInvest" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="345">
   <si>
     <t>DATA</t>
   </si>
@@ -710,6 +711,606 @@
   </si>
   <si>
     <t>USA - USL LEAGUE ONE</t>
+  </si>
+  <si>
+    <t>REAL SALT LAKE vs NEW YORK RB</t>
+  </si>
+  <si>
+    <t>USA - MLS</t>
+  </si>
+  <si>
+    <t>CHARLOTTE vs GREENVILLE</t>
+  </si>
+  <si>
+    <t> DETROIT CITY vs LOUISVILLE CITY</t>
+  </si>
+  <si>
+    <t>USA - USL CHAMPIONSHIP</t>
+  </si>
+  <si>
+    <t>COLCHESTER UTD vs SWINDON TOWN</t>
+  </si>
+  <si>
+    <t>LEAGUE TWO</t>
+  </si>
+  <si>
+    <t> COVENTRY CITY vs BRISTOL CITY</t>
+  </si>
+  <si>
+    <t>CHAMPIONSHIP</t>
+  </si>
+  <si>
+    <t>CREWE ALEXANDRA vs TRANMERE</t>
+  </si>
+  <si>
+    <t>PORTSMOUTH vs CHARLTON</t>
+  </si>
+  <si>
+    <t> LEAGUE ONE</t>
+  </si>
+  <si>
+    <t>SHREWSBURY vs FLEETWOOD</t>
+  </si>
+  <si>
+    <t>LEAGUE ONE</t>
+  </si>
+  <si>
+    <t>SUTTON UTD vs AFC WIMBLEDON</t>
+  </si>
+  <si>
+    <t> BIRMINGHAM CITY vs MIDDLESBROUGH</t>
+  </si>
+  <si>
+    <t> CHAMPIONSHIP</t>
+  </si>
+  <si>
+    <t> LINCOLN CITY vs IPSWICH TOWN</t>
+  </si>
+  <si>
+    <t> NEWPORT vs CRAWLEY TOWN</t>
+  </si>
+  <si>
+    <t> LEAGUE TWO</t>
+  </si>
+  <si>
+    <t>NORTHAMPTON vs LEYTON ORIENT</t>
+  </si>
+  <si>
+    <t> NORWICH CITY vs WATFORD</t>
+  </si>
+  <si>
+    <t>STOKE CITY vs PRESTON</t>
+  </si>
+  <si>
+    <t>SWANSEA CITY vs BURNLEY</t>
+  </si>
+  <si>
+    <t>ELCHE vs CELTA VIGO</t>
+  </si>
+  <si>
+    <t> LA LIGA</t>
+  </si>
+  <si>
+    <t> BOLTON vs PLYMOUTH</t>
+  </si>
+  <si>
+    <t> CREWE ALEXANDRA vs AFC WIMBLEDON</t>
+  </si>
+  <si>
+    <t> FOGGIA vs PICERNO</t>
+  </si>
+  <si>
+    <t> ITALY - SERIE C - GROUP C</t>
+  </si>
+  <si>
+    <t> GELBISON vs AVELLINO</t>
+  </si>
+  <si>
+    <t>ITALY - SERIE C - GROUP C</t>
+  </si>
+  <si>
+    <t>PDHAE vs CHIERI</t>
+  </si>
+  <si>
+    <t>ITALY - SERIE D - GROUP A</t>
+  </si>
+  <si>
+    <t>TURRIS vs JUVE STABIA</t>
+  </si>
+  <si>
+    <t>CASATESE vs BRUSAPORTO</t>
+  </si>
+  <si>
+    <t>ITALY - SERIE D - GROUP B</t>
+  </si>
+  <si>
+    <t> CASTELLANZESE vs CASALE</t>
+  </si>
+  <si>
+    <t> ITALY - SERIE D - GROUP A</t>
+  </si>
+  <si>
+    <t>CHISOLA vs LIGORNA</t>
+  </si>
+  <si>
+    <t>CREMA vs FANFULA</t>
+  </si>
+  <si>
+    <t>ITALY - SERIE D - GROUP D</t>
+  </si>
+  <si>
+    <t> LEGNANO vs BRA</t>
+  </si>
+  <si>
+    <t> PRATO vs RAVENNA</t>
+  </si>
+  <si>
+    <t> ITALY - SERIE D - GROUP D</t>
+  </si>
+  <si>
+    <t>SANT'ANGELO vs BAGNOLESE</t>
+  </si>
+  <si>
+    <t>SEVILLA FC vs GETAFE</t>
+  </si>
+  <si>
+    <t> UNITED RICCIONE vs PISTOIESE</t>
+  </si>
+  <si>
+    <t>VARESINA vs VILLA ALME</t>
+  </si>
+  <si>
+    <t>PARIS FC vs DIJON</t>
+  </si>
+  <si>
+    <t>FRANCE - LIGUE 2</t>
+  </si>
+  <si>
+    <t>PAU FC vs GRENOBLE</t>
+  </si>
+  <si>
+    <t>RODEZ AVEYRON vs NIORT</t>
+  </si>
+  <si>
+    <t>VALENCIENNES vs ANNECY</t>
+  </si>
+  <si>
+    <t>CASALE vs CHISOLA</t>
+  </si>
+  <si>
+    <t>FOSSANO vs CASTELLANZESE</t>
+  </si>
+  <si>
+    <t>PDHAE vs BORGOSESIA</t>
+  </si>
+  <si>
+    <t> ANNECY vs PARIS FC</t>
+  </si>
+  <si>
+    <t>BORDEAUX vs AMIENS</t>
+  </si>
+  <si>
+    <t> FRANCE - LIGUE 2</t>
+  </si>
+  <si>
+    <t> METZ vs QUEVILLY ROUEN</t>
+  </si>
+  <si>
+    <t> SC BASTIA vs PAU FC</t>
+  </si>
+  <si>
+    <t>BARI vs PARMA</t>
+  </si>
+  <si>
+    <t> ITALY - SERIE B</t>
+  </si>
+  <si>
+    <t> BOLTON vs PORTSMOUTH</t>
+  </si>
+  <si>
+    <t>FLEETWOOD vs OXFORD UTD</t>
+  </si>
+  <si>
+    <t>HARROGATE vs STEVENAGE</t>
+  </si>
+  <si>
+    <t> IPSWICH TOWN vs PLYMOUTH</t>
+  </si>
+  <si>
+    <t>MANSFIELD vs CREWE ALEXANDRA</t>
+  </si>
+  <si>
+    <t>MIDDLESBROUGH vs MILLWALL</t>
+  </si>
+  <si>
+    <t> PERUGIA vs PALERMO</t>
+  </si>
+  <si>
+    <t> PRESTON vs NORWICH CITY</t>
+  </si>
+  <si>
+    <t> PRISON LEOPARDS vs KANSANSHI DYNAM</t>
+  </si>
+  <si>
+    <t> ZAMBIA - SUPER LEAGUE</t>
+  </si>
+  <si>
+    <t>TRANMERE vs WALSALL</t>
+  </si>
+  <si>
+    <t>WATFORD vs BLACKPOOL</t>
+  </si>
+  <si>
+    <t>WYCOMBE vs SHEFFIELD WED</t>
+  </si>
+  <si>
+    <t>ARCONATESE vs CASATESE</t>
+  </si>
+  <si>
+    <t>AVELLINO vs MONOPOLI</t>
+  </si>
+  <si>
+    <t> BRENO vs VARESINA</t>
+  </si>
+  <si>
+    <t> ITALY - SERIE D - GROUP B</t>
+  </si>
+  <si>
+    <t>CALDIERO TERME vs MONTEBELLUNA</t>
+  </si>
+  <si>
+    <t> ITALY - SERIE D - GROUP C</t>
+  </si>
+  <si>
+    <t>CAMPODARSEGO vs TORVISCOSA</t>
+  </si>
+  <si>
+    <t>CHELSEA vs CRYSTAL PALACE</t>
+  </si>
+  <si>
+    <t>PREMIER LEAGUE</t>
+  </si>
+  <si>
+    <t> CHIERI vs CASTELLANZESE</t>
+  </si>
+  <si>
+    <t> FOSSANO vs PDHAE</t>
+  </si>
+  <si>
+    <t> LEVICO vs MONTECCHIO MAGG</t>
+  </si>
+  <si>
+    <t>ITALY - SERIE D - GROUP C</t>
+  </si>
+  <si>
+    <t> LIGORNA vs ASTI</t>
+  </si>
+  <si>
+    <t>NEWCASTLE UTD vs FULHAM</t>
+  </si>
+  <si>
+    <t>REAL FORTE Q. vs SAMMAURESE</t>
+  </si>
+  <si>
+    <t>VILLA ALME vs SEREGNO</t>
+  </si>
+  <si>
+    <t>GENOA vs VENEZIA</t>
+  </si>
+  <si>
+    <t>ITALY - SERIE B</t>
+  </si>
+  <si>
+    <t> SANREMESE vs STRESA</t>
+  </si>
+  <si>
+    <t>BENEVENTO vs GENOA</t>
+  </si>
+  <si>
+    <t>BUILDCON vs FOREST RANGERS</t>
+  </si>
+  <si>
+    <t>CARDIFF CITY vs MILLWALL</t>
+  </si>
+  <si>
+    <t>CITTADELLA vs CAGLIARI</t>
+  </si>
+  <si>
+    <t> COMO vs PISA</t>
+  </si>
+  <si>
+    <t> COVENTRY CITY vs NORWICH CITY</t>
+  </si>
+  <si>
+    <t> ESPANYOL vs REAL BETIS</t>
+  </si>
+  <si>
+    <t>LA LIGA</t>
+  </si>
+  <si>
+    <t> GRIMSBY vs HARROGATE</t>
+  </si>
+  <si>
+    <t>HARTLEPOOL vs ROCHDALE</t>
+  </si>
+  <si>
+    <t>MODENA vs COSENZA</t>
+  </si>
+  <si>
+    <t>OXFORD UTD vs IPSWICH TOWN</t>
+  </si>
+  <si>
+    <t>SPAL vs ASCOLI</t>
+  </si>
+  <si>
+    <t> VENEZIA vs SUDTIROL</t>
+  </si>
+  <si>
+    <t> WALSALL vs SWINDON TOWN</t>
+  </si>
+  <si>
+    <t>ZANACO vs NKANA</t>
+  </si>
+  <si>
+    <t>ZESCO UTD vs NKWAZI</t>
+  </si>
+  <si>
+    <t>CARTIGLIANO vs MESTRE</t>
+  </si>
+  <si>
+    <t>CASTANESE vs BRA</t>
+  </si>
+  <si>
+    <t> CASTELLANZESE vs LIGORNA</t>
+  </si>
+  <si>
+    <t>CLODIENSE vs LEVICO</t>
+  </si>
+  <si>
+    <t>FOGGIA vs POTENZA</t>
+  </si>
+  <si>
+    <t>PDHAE vs VADO</t>
+  </si>
+  <si>
+    <t>REAL CALEPINA vs ARCONATESE</t>
+  </si>
+  <si>
+    <t> SAMMAURESE vs BAGNOLESE</t>
+  </si>
+  <si>
+    <t>SANREMESE vs LEGNANO</t>
+  </si>
+  <si>
+    <t>SCANDICCI vs REAL FORTE Q.</t>
+  </si>
+  <si>
+    <t>TORVISCOSA vs DOLOMITI BELLUN</t>
+  </si>
+  <si>
+    <t>VARESINA vs BRUSAPORTO</t>
+  </si>
+  <si>
+    <t> VILLAFRANCA vs ESTE</t>
+  </si>
+  <si>
+    <t>AFC WIMBLEDON vs WALSALL</t>
+  </si>
+  <si>
+    <t> CARLISLE UTD vs HARTLEPOOL</t>
+  </si>
+  <si>
+    <t>HERTHA BERLIN vs WOLFSBURG</t>
+  </si>
+  <si>
+    <t> BUNDESLIGA</t>
+  </si>
+  <si>
+    <t>PORT VALE vs DERBY COUNTY</t>
+  </si>
+  <si>
+    <t>SWINDON TOWN vs STEVENAGE</t>
+  </si>
+  <si>
+    <t>FEZZANESE vs PINEROLO</t>
+  </si>
+  <si>
+    <t> GOZZANO vs ASTI</t>
+  </si>
+  <si>
+    <t>ALMERIA vs ESPANYOL</t>
+  </si>
+  <si>
+    <t> AFC WIMBLEDON vs STOCKPORT</t>
+  </si>
+  <si>
+    <t>AMIENS vs LE HAVRE</t>
+  </si>
+  <si>
+    <t>ASCOLI vs PALERMO</t>
+  </si>
+  <si>
+    <t> BURTON ALBION vs OXFORD UTD</t>
+  </si>
+  <si>
+    <t>COSENZA vs PARMA</t>
+  </si>
+  <si>
+    <t>COVENTRY CITY vs HUDDERSFIELD</t>
+  </si>
+  <si>
+    <t>GETAFE vs REAL BETIS</t>
+  </si>
+  <si>
+    <t>HANNOVER 96 vs KAISERSLAUTERN</t>
+  </si>
+  <si>
+    <t>germany - 2. bundesliga</t>
+  </si>
+  <si>
+    <t> L. RADIANTS vs ZESCO UTD</t>
+  </si>
+  <si>
+    <t>ZAMBIA - SUPER LEAGUE</t>
+  </si>
+  <si>
+    <t> MAN UTD ZAMBIA vs POWER DYNAMOS</t>
+  </si>
+  <si>
+    <t> NKANA vs GREEN BUFFALOES</t>
+  </si>
+  <si>
+    <t>NKWAZI vs KANSANSHI DYNAM</t>
+  </si>
+  <si>
+    <t> PAU FC vs ANNECY</t>
+  </si>
+  <si>
+    <t> PRISON LEOPARDS vs BUILDCON</t>
+  </si>
+  <si>
+    <t>QUEVILLY ROUEN vs PARIS FC</t>
+  </si>
+  <si>
+    <t> RODEZ AVEYRON vs GUINGAMP</t>
+  </si>
+  <si>
+    <t> SEVILLA FC vs ELCHE</t>
+  </si>
+  <si>
+    <t> SIVASSPOR vs ADANA DEMIRSPOR</t>
+  </si>
+  <si>
+    <t> turkey - super lig</t>
+  </si>
+  <si>
+    <t>SWINDON TOWN vs GILLINGHAM</t>
+  </si>
+  <si>
+    <t>TRANMERE vs LEYTON ORIENT</t>
+  </si>
+  <si>
+    <t>TROYES vs LENS</t>
+  </si>
+  <si>
+    <t>FRANCE - LIGUE 1</t>
+  </si>
+  <si>
+    <t>VALENCIENNES vs METZ</t>
+  </si>
+  <si>
+    <t>ASTI vs BRA</t>
+  </si>
+  <si>
+    <t> BRUSAPORTO vs SEREGNO</t>
+  </si>
+  <si>
+    <t> CALDIERO TERME vs TORVISCOSA</t>
+  </si>
+  <si>
+    <t>CHIERI vs VADO</t>
+  </si>
+  <si>
+    <t>CITTA DI VARESE vs CASATESE</t>
+  </si>
+  <si>
+    <t> CJARLINS MUZANE vs ADRIESE</t>
+  </si>
+  <si>
+    <t> DOLOMITI BELLUN vs VIRTUS BOLZANO</t>
+  </si>
+  <si>
+    <t>FOREST RANGERS vs ZANACO</t>
+  </si>
+  <si>
+    <t>FOSSANO vs LIGORNA</t>
+  </si>
+  <si>
+    <t>KECIORENGUCU vs ALTAY</t>
+  </si>
+  <si>
+    <t>turkey - 1. lig</t>
+  </si>
+  <si>
+    <t>MESTRE vs CAMPODARSEGO</t>
+  </si>
+  <si>
+    <t> MONTECCHIO MAGG vs CLODIENSE</t>
+  </si>
+  <si>
+    <t>NICE vs LILLE</t>
+  </si>
+  <si>
+    <t>PINEROLO vs LEGNANO</t>
+  </si>
+  <si>
+    <t>PISTOIESE vs GIANA ERMINIO</t>
+  </si>
+  <si>
+    <t> TURRIS vs GIUGLIANO</t>
+  </si>
+  <si>
+    <t>VITERBESE vs JUVE STABIA</t>
+  </si>
+  <si>
+    <t>A. CERIGNOLA vs MONOPOLI</t>
+  </si>
+  <si>
+    <t> VILLARREAL vs RAYO VALLECANO</t>
+  </si>
+  <si>
+    <t>ANNECY vs CAEN</t>
+  </si>
+  <si>
+    <t>BORDEAUX vs LE HAVRE</t>
+  </si>
+  <si>
+    <t>GRENOBLE vs QUEVILLY ROUEN</t>
+  </si>
+  <si>
+    <t>GUINGAMP vs NIMES</t>
+  </si>
+  <si>
+    <t>NIORT vs AMIENS</t>
+  </si>
+  <si>
+    <t>PARIS FC vs PAU FC</t>
+  </si>
+  <si>
+    <t>SC BASTIA vs SAINT-ETIENNE</t>
+  </si>
+  <si>
+    <t>ABC vs GUARANI</t>
+  </si>
+  <si>
+    <t>AVAI vs SAMPAIO CORREA</t>
+  </si>
+  <si>
+    <t>1--3</t>
+  </si>
+  <si>
+    <t>7--1</t>
+  </si>
+  <si>
+    <t>1--4</t>
+  </si>
+  <si>
+    <t>4--0</t>
+  </si>
+  <si>
+    <t>5--2</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>0--4</t>
+  </si>
+  <si>
+    <t>3--3</t>
+  </si>
+  <si>
+    <t>0--5</t>
   </si>
 </sst>
 </file>
@@ -834,7 +1435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -895,6 +1496,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -917,7 +1524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -1098,6 +1705,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1105,7 +1722,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1153,6 +1770,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1476,10 +2103,6314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N155"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="144" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44927</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="23">
+        <v>3.14</v>
+      </c>
+      <c r="D2" s="23">
+        <v>3.4</v>
+      </c>
+      <c r="E2" s="23">
+        <v>2.38</v>
+      </c>
+      <c r="F2" s="23">
+        <v>3.19</v>
+      </c>
+      <c r="G2" s="23">
+        <v>2.12</v>
+      </c>
+      <c r="H2" s="23">
+        <v>1.76</v>
+      </c>
+      <c r="I2" s="23">
+        <v>187</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="6">
+        <v>57</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44927</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="23">
+        <v>2.09</v>
+      </c>
+      <c r="D3" s="23">
+        <v>3.47</v>
+      </c>
+      <c r="E3" s="23">
+        <v>3.83</v>
+      </c>
+      <c r="F3" s="23">
+        <v>3.3</v>
+      </c>
+      <c r="G3" s="23">
+        <v>2.08</v>
+      </c>
+      <c r="H3" s="23">
+        <v>1.84</v>
+      </c>
+      <c r="I3" s="23">
+        <v>1.82</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23">
+        <v>1.57</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="6">
+        <v>40</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>44927</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3.31</v>
+      </c>
+      <c r="E4">
+        <v>2.08</v>
+      </c>
+      <c r="F4">
+        <v>2.88</v>
+      </c>
+      <c r="G4">
+        <v>2.31</v>
+      </c>
+      <c r="H4">
+        <v>1.65</v>
+      </c>
+      <c r="I4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>44927</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5">
+        <v>1.89</v>
+      </c>
+      <c r="D5">
+        <v>3.73</v>
+      </c>
+      <c r="E5">
+        <v>4.17</v>
+      </c>
+      <c r="F5">
+        <v>3.64</v>
+      </c>
+      <c r="G5">
+        <v>1.92</v>
+      </c>
+      <c r="H5">
+        <v>1.95</v>
+      </c>
+      <c r="I5">
+        <v>1.68</v>
+      </c>
+      <c r="K5">
+        <v>1.466</v>
+      </c>
+      <c r="L5" t="s">
+        <v>336</v>
+      </c>
+      <c r="M5">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>44927</v>
+      </c>
+      <c r="B6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6">
+        <v>2.31</v>
+      </c>
+      <c r="D6">
+        <v>3.18</v>
+      </c>
+      <c r="E6">
+        <v>3.5</v>
+      </c>
+      <c r="F6">
+        <v>2.67</v>
+      </c>
+      <c r="G6">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H6">
+        <v>1.56</v>
+      </c>
+      <c r="I6">
+        <v>2.21</v>
+      </c>
+      <c r="K6">
+        <v>1.88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>44927</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7">
+        <v>2.29</v>
+      </c>
+      <c r="D7">
+        <v>3.17</v>
+      </c>
+      <c r="E7">
+        <v>3.56</v>
+      </c>
+      <c r="F7">
+        <v>2.71</v>
+      </c>
+      <c r="G7">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H7">
+        <v>1.56</v>
+      </c>
+      <c r="I7">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7">
+        <v>57</v>
+      </c>
+      <c r="N7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>44928</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8">
+        <v>3.66</v>
+      </c>
+      <c r="D8">
+        <v>3.31</v>
+      </c>
+      <c r="E8">
+        <v>2.21</v>
+      </c>
+      <c r="F8">
+        <v>2.89</v>
+      </c>
+      <c r="G8">
+        <v>2.35</v>
+      </c>
+      <c r="H8">
+        <v>1.66</v>
+      </c>
+      <c r="I8">
+        <v>2.06</v>
+      </c>
+      <c r="K8">
+        <v>1.75</v>
+      </c>
+      <c r="L8" t="s">
+        <v>336</v>
+      </c>
+      <c r="M8">
+        <v>28</v>
+      </c>
+      <c r="N8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>44928</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9">
+        <v>6.03</v>
+      </c>
+      <c r="D9">
+        <v>3.56</v>
+      </c>
+      <c r="E9">
+        <v>1.69</v>
+      </c>
+      <c r="F9">
+        <v>2.89</v>
+      </c>
+      <c r="G9">
+        <v>2.33</v>
+      </c>
+      <c r="H9">
+        <v>1.64</v>
+      </c>
+      <c r="I9">
+        <v>2.04</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9">
+        <v>37</v>
+      </c>
+      <c r="N9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>44928</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10">
+        <v>1.55</v>
+      </c>
+      <c r="D10">
+        <v>4.09</v>
+      </c>
+      <c r="E10">
+        <v>6.7</v>
+      </c>
+      <c r="F10">
+        <v>3.35</v>
+      </c>
+      <c r="G10">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H10">
+        <v>1.82</v>
+      </c>
+      <c r="I10">
+        <v>1.8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M10">
+        <v>29</v>
+      </c>
+      <c r="N10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>44928</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11">
+        <v>2.62</v>
+      </c>
+      <c r="D11">
+        <v>3.11</v>
+      </c>
+      <c r="E11">
+        <v>3.03</v>
+      </c>
+      <c r="F11">
+        <v>2.68</v>
+      </c>
+      <c r="G11">
+        <v>2.5</v>
+      </c>
+      <c r="H11">
+        <v>1.57</v>
+      </c>
+      <c r="I11">
+        <v>1.87</v>
+      </c>
+      <c r="L11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>44928</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12">
+        <v>1.92</v>
+      </c>
+      <c r="D12">
+        <v>3.67</v>
+      </c>
+      <c r="E12">
+        <v>4.25</v>
+      </c>
+      <c r="F12">
+        <v>3.66</v>
+      </c>
+      <c r="G12">
+        <v>1.97</v>
+      </c>
+      <c r="H12">
+        <v>1.93</v>
+      </c>
+      <c r="I12">
+        <v>1.72</v>
+      </c>
+      <c r="K12">
+        <v>1.49</v>
+      </c>
+      <c r="L12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>44928</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13">
+        <v>2.1</v>
+      </c>
+      <c r="D13">
+        <v>3.33</v>
+      </c>
+      <c r="E13">
+        <v>3.96</v>
+      </c>
+      <c r="F13">
+        <v>2.81</v>
+      </c>
+      <c r="G13">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H13">
+        <v>1.61</v>
+      </c>
+      <c r="I13">
+        <v>2.13</v>
+      </c>
+      <c r="K13">
+        <v>1.83</v>
+      </c>
+      <c r="L13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>44928</v>
+      </c>
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14">
+        <v>3.28</v>
+      </c>
+      <c r="D14">
+        <v>3.36</v>
+      </c>
+      <c r="E14">
+        <v>2.35</v>
+      </c>
+      <c r="F14">
+        <v>3.11</v>
+      </c>
+      <c r="G14">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H14">
+        <v>1.72</v>
+      </c>
+      <c r="I14">
+        <v>1.95</v>
+      </c>
+      <c r="K14">
+        <v>1.66</v>
+      </c>
+      <c r="L14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14">
+        <v>40</v>
+      </c>
+      <c r="N14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>44932</v>
+      </c>
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D15">
+        <v>3.27</v>
+      </c>
+      <c r="E15">
+        <v>2.13</v>
+      </c>
+      <c r="F15">
+        <v>2.83</v>
+      </c>
+      <c r="G15">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H15">
+        <v>1.61</v>
+      </c>
+      <c r="I15">
+        <v>2.13</v>
+      </c>
+      <c r="K15">
+        <v>1.82</v>
+      </c>
+      <c r="L15" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>44933</v>
+      </c>
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16">
+        <v>1.83</v>
+      </c>
+      <c r="D16">
+        <v>3.79</v>
+      </c>
+      <c r="E16">
+        <v>4.45</v>
+      </c>
+      <c r="F16">
+        <v>3.78</v>
+      </c>
+      <c r="G16">
+        <v>1.88</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1.65</v>
+      </c>
+      <c r="K16">
+        <v>1.43</v>
+      </c>
+      <c r="L16" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16">
+        <v>56</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>44933</v>
+      </c>
+      <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17">
+        <v>3.08</v>
+      </c>
+      <c r="D17">
+        <v>3.1</v>
+      </c>
+      <c r="E17">
+        <v>2.59</v>
+      </c>
+      <c r="F17">
+        <v>2.65</v>
+      </c>
+      <c r="G17">
+        <v>2.54</v>
+      </c>
+      <c r="H17">
+        <v>1.55</v>
+      </c>
+      <c r="I17">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="L17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17">
+        <v>52</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>44933</v>
+      </c>
+      <c r="B18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18">
+        <v>1.81</v>
+      </c>
+      <c r="D18">
+        <v>3.14</v>
+      </c>
+      <c r="E18">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F18">
+        <v>2.64</v>
+      </c>
+      <c r="G18">
+        <v>2.33</v>
+      </c>
+      <c r="H18">
+        <v>1.55</v>
+      </c>
+      <c r="I18">
+        <v>2.06</v>
+      </c>
+      <c r="L18" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18">
+        <v>28</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>44933</v>
+      </c>
+      <c r="B19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19">
+        <v>3.19</v>
+      </c>
+      <c r="D19">
+        <v>2.99</v>
+      </c>
+      <c r="E19">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F19">
+        <v>2.23</v>
+      </c>
+      <c r="G19">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H19">
+        <v>1.4</v>
+      </c>
+      <c r="I19">
+        <v>2.27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19">
+        <v>71</v>
+      </c>
+      <c r="N19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>44933</v>
+      </c>
+      <c r="B20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20">
+        <v>2.95</v>
+      </c>
+      <c r="D20">
+        <v>3.23</v>
+      </c>
+      <c r="E20">
+        <v>12.19</v>
+      </c>
+      <c r="F20">
+        <v>404</v>
+      </c>
+      <c r="G20">
+        <v>2.12</v>
+      </c>
+      <c r="H20">
+        <v>1.65</v>
+      </c>
+      <c r="I20">
+        <v>1.88</v>
+      </c>
+      <c r="L20" t="s">
+        <v>88</v>
+      </c>
+      <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>44933</v>
+      </c>
+      <c r="B21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21">
+        <v>3.8</v>
+      </c>
+      <c r="D21">
+        <v>2.69</v>
+      </c>
+      <c r="E21">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F21">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G21">
+        <v>2.65</v>
+      </c>
+      <c r="H21">
+        <v>1.44</v>
+      </c>
+      <c r="I21">
+        <v>2.6</v>
+      </c>
+      <c r="L21" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21">
+        <v>23</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>44934</v>
+      </c>
+      <c r="B22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D22">
+        <v>2.97</v>
+      </c>
+      <c r="E22">
+        <v>3.11</v>
+      </c>
+      <c r="F22">
+        <v>404</v>
+      </c>
+      <c r="G22">
+        <v>2.09</v>
+      </c>
+      <c r="H22">
+        <v>1.67</v>
+      </c>
+      <c r="I22">
+        <v>1.85</v>
+      </c>
+      <c r="L22" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22">
+        <v>35</v>
+      </c>
+      <c r="N22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>44934</v>
+      </c>
+      <c r="B23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>337</v>
+      </c>
+      <c r="M23">
+        <v>28</v>
+      </c>
+      <c r="N23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>44934</v>
+      </c>
+      <c r="B24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24">
+        <v>3.32</v>
+      </c>
+      <c r="D24">
+        <v>3.09</v>
+      </c>
+      <c r="E24">
+        <v>2.08</v>
+      </c>
+      <c r="F24">
+        <v>2.57</v>
+      </c>
+      <c r="G24">
+        <v>2.33</v>
+      </c>
+      <c r="H24">
+        <v>1.52</v>
+      </c>
+      <c r="I24">
+        <v>2.06</v>
+      </c>
+      <c r="L24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M24">
+        <v>30</v>
+      </c>
+      <c r="N24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>44934</v>
+      </c>
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25">
+        <v>2.23</v>
+      </c>
+      <c r="D25">
+        <v>3.01</v>
+      </c>
+      <c r="E25">
+        <v>3.07</v>
+      </c>
+      <c r="F25">
+        <v>404</v>
+      </c>
+      <c r="G25">
+        <v>1.81</v>
+      </c>
+      <c r="H25">
+        <v>1.93</v>
+      </c>
+      <c r="I25">
+        <v>1.6</v>
+      </c>
+      <c r="L25" t="s">
+        <v>142</v>
+      </c>
+      <c r="M25">
+        <v>43</v>
+      </c>
+      <c r="N25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>44934</v>
+      </c>
+      <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26">
+        <v>2.39</v>
+      </c>
+      <c r="D26">
+        <v>2.81</v>
+      </c>
+      <c r="E26">
+        <v>2.97</v>
+      </c>
+      <c r="F26">
+        <v>2.61</v>
+      </c>
+      <c r="G26">
+        <v>2.27</v>
+      </c>
+      <c r="H26">
+        <v>1.53</v>
+      </c>
+      <c r="I26">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="L26" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26">
+        <v>31</v>
+      </c>
+      <c r="N26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>44934</v>
+      </c>
+      <c r="B27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27">
+        <v>2.69</v>
+      </c>
+      <c r="D27">
+        <v>3.1</v>
+      </c>
+      <c r="E27">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F27">
+        <v>404</v>
+      </c>
+      <c r="G27">
+        <v>1.78</v>
+      </c>
+      <c r="H27">
+        <v>1.97</v>
+      </c>
+      <c r="I27">
+        <v>1.56</v>
+      </c>
+      <c r="L27" t="s">
+        <v>132</v>
+      </c>
+      <c r="M27">
+        <v>30</v>
+      </c>
+      <c r="N27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>44934</v>
+      </c>
+      <c r="B28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28">
+        <v>1.75</v>
+      </c>
+      <c r="D28">
+        <v>3.5</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>404</v>
+      </c>
+      <c r="G28">
+        <v>1.86</v>
+      </c>
+      <c r="H28">
+        <v>1.88</v>
+      </c>
+      <c r="I28">
+        <v>1.65</v>
+      </c>
+      <c r="L28" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28">
+        <v>32</v>
+      </c>
+      <c r="N28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>44934</v>
+      </c>
+      <c r="B29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29">
+        <v>1.87</v>
+      </c>
+      <c r="D29">
+        <v>3.29</v>
+      </c>
+      <c r="E29">
+        <v>5.38</v>
+      </c>
+      <c r="F29">
+        <v>2.54</v>
+      </c>
+      <c r="G29">
+        <v>2.76</v>
+      </c>
+      <c r="H29">
+        <v>1.5</v>
+      </c>
+      <c r="I29">
+        <v>2.4</v>
+      </c>
+      <c r="K29">
+        <v>2.04</v>
+      </c>
+      <c r="L29" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29">
+        <v>38</v>
+      </c>
+      <c r="N29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>44934</v>
+      </c>
+      <c r="B30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30">
+        <v>2.56</v>
+      </c>
+      <c r="D30">
+        <v>3.2</v>
+      </c>
+      <c r="E30">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F30">
+        <v>404</v>
+      </c>
+      <c r="G30">
+        <v>1.85</v>
+      </c>
+      <c r="H30">
+        <v>1.88</v>
+      </c>
+      <c r="I30">
+        <v>1.63</v>
+      </c>
+      <c r="L30" t="s">
+        <v>338</v>
+      </c>
+      <c r="M30">
+        <v>15</v>
+      </c>
+      <c r="N30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>44934</v>
+      </c>
+      <c r="B31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31">
+        <v>2.66</v>
+      </c>
+      <c r="D31">
+        <v>2.93</v>
+      </c>
+      <c r="E31">
+        <v>2.58</v>
+      </c>
+      <c r="F31">
+        <v>2.64</v>
+      </c>
+      <c r="G31">
+        <v>2.29</v>
+      </c>
+      <c r="H31">
+        <v>1.54</v>
+      </c>
+      <c r="I31">
+        <v>2.02</v>
+      </c>
+      <c r="L31" t="s">
+        <v>132</v>
+      </c>
+      <c r="M31">
+        <v>19</v>
+      </c>
+      <c r="N31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>44936</v>
+      </c>
+      <c r="B32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32">
+        <v>2.19</v>
+      </c>
+      <c r="D32">
+        <v>3.07</v>
+      </c>
+      <c r="E32">
+        <v>3.98</v>
+      </c>
+      <c r="F32">
+        <v>2.84</v>
+      </c>
+      <c r="G32">
+        <v>2.4</v>
+      </c>
+      <c r="H32">
+        <v>1.61</v>
+      </c>
+      <c r="I32">
+        <v>2.1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32">
+        <v>32</v>
+      </c>
+      <c r="N32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>44936</v>
+      </c>
+      <c r="B33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33">
+        <v>2.84</v>
+      </c>
+      <c r="D33">
+        <v>2.78</v>
+      </c>
+      <c r="E33">
+        <v>3.12</v>
+      </c>
+      <c r="F33">
+        <v>2.25</v>
+      </c>
+      <c r="G33">
+        <v>3.05</v>
+      </c>
+      <c r="H33">
+        <v>1.4</v>
+      </c>
+      <c r="I33">
+        <v>2.68</v>
+      </c>
+      <c r="L33" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33">
+        <v>44</v>
+      </c>
+      <c r="N33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>44936</v>
+      </c>
+      <c r="B34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34">
+        <v>2.31</v>
+      </c>
+      <c r="D34">
+        <v>2.98</v>
+      </c>
+      <c r="E34">
+        <v>3.77</v>
+      </c>
+      <c r="F34">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G34">
+        <v>2.71</v>
+      </c>
+      <c r="H34">
+        <v>1.5</v>
+      </c>
+      <c r="I34">
+        <v>2.36</v>
+      </c>
+      <c r="L34" t="s">
+        <v>80</v>
+      </c>
+      <c r="M34">
+        <v>21</v>
+      </c>
+      <c r="N34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>44936</v>
+      </c>
+      <c r="B35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D35">
+        <v>3.06</v>
+      </c>
+      <c r="E35">
+        <v>3.28</v>
+      </c>
+      <c r="F35">
+        <v>2.96</v>
+      </c>
+      <c r="G35">
+        <v>2.34</v>
+      </c>
+      <c r="H35">
+        <v>1.64</v>
+      </c>
+      <c r="I35">
+        <v>2.04</v>
+      </c>
+      <c r="L35" t="s">
+        <v>142</v>
+      </c>
+      <c r="M35">
+        <v>54</v>
+      </c>
+      <c r="N35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>44937</v>
+      </c>
+      <c r="B36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>339</v>
+      </c>
+      <c r="M36">
+        <v>32</v>
+      </c>
+      <c r="N36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <v>44937</v>
+      </c>
+      <c r="B37" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37">
+        <v>2.68</v>
+      </c>
+      <c r="D37">
+        <v>3.35</v>
+      </c>
+      <c r="E37">
+        <v>2.31</v>
+      </c>
+      <c r="F37">
+        <v>404</v>
+      </c>
+      <c r="G37">
+        <v>1.85</v>
+      </c>
+      <c r="H37">
+        <v>1.88</v>
+      </c>
+      <c r="I37">
+        <v>1.63</v>
+      </c>
+      <c r="L37" t="s">
+        <v>142</v>
+      </c>
+      <c r="M37">
+        <v>50</v>
+      </c>
+      <c r="N37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>44937</v>
+      </c>
+      <c r="B38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38">
+        <v>2.5</v>
+      </c>
+      <c r="D38">
+        <v>3.07</v>
+      </c>
+      <c r="E38">
+        <v>2.64</v>
+      </c>
+      <c r="F38">
+        <v>404</v>
+      </c>
+      <c r="G38">
+        <v>1.91</v>
+      </c>
+      <c r="H38">
+        <v>1.93</v>
+      </c>
+      <c r="I38">
+        <v>1.66</v>
+      </c>
+      <c r="L38" t="s">
+        <v>340</v>
+      </c>
+      <c r="M38">
+        <v>56</v>
+      </c>
+      <c r="N38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>44939</v>
+      </c>
+      <c r="B39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39">
+        <v>3.01</v>
+      </c>
+      <c r="D39">
+        <v>3.02</v>
+      </c>
+      <c r="E39">
+        <v>2.76</v>
+      </c>
+      <c r="F39">
+        <v>2.71</v>
+      </c>
+      <c r="G39">
+        <v>2.48</v>
+      </c>
+      <c r="H39">
+        <v>1.57</v>
+      </c>
+      <c r="I39">
+        <v>2.17</v>
+      </c>
+      <c r="L39" t="s">
+        <v>81</v>
+      </c>
+      <c r="M39">
+        <v>59</v>
+      </c>
+      <c r="N39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <v>44939</v>
+      </c>
+      <c r="B40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D40">
+        <v>3.36</v>
+      </c>
+      <c r="E40">
+        <v>4.09</v>
+      </c>
+      <c r="F40">
+        <v>3.15</v>
+      </c>
+      <c r="G40">
+        <v>2.16</v>
+      </c>
+      <c r="H40">
+        <v>1.78</v>
+      </c>
+      <c r="I40">
+        <v>1.85</v>
+      </c>
+      <c r="K40">
+        <v>1.61</v>
+      </c>
+      <c r="L40" t="s">
+        <v>80</v>
+      </c>
+      <c r="M40">
+        <v>66</v>
+      </c>
+      <c r="N40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>44939</v>
+      </c>
+      <c r="B41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D41">
+        <v>3.17</v>
+      </c>
+      <c r="E41">
+        <v>3.8</v>
+      </c>
+      <c r="F41">
+        <v>2.89</v>
+      </c>
+      <c r="G41">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H41">
+        <v>1.65</v>
+      </c>
+      <c r="I41">
+        <v>2.04</v>
+      </c>
+      <c r="K41">
+        <v>1.73</v>
+      </c>
+      <c r="L41" t="s">
+        <v>81</v>
+      </c>
+      <c r="M41">
+        <v>17</v>
+      </c>
+      <c r="N41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <v>44939</v>
+      </c>
+      <c r="B42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42">
+        <v>1.95</v>
+      </c>
+      <c r="D42">
+        <v>3.13</v>
+      </c>
+      <c r="E42">
+        <v>4.92</v>
+      </c>
+      <c r="F42">
+        <v>2.56</v>
+      </c>
+      <c r="G42">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="H42">
+        <v>1.51</v>
+      </c>
+      <c r="I42">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K42">
+        <v>1.98</v>
+      </c>
+      <c r="L42" t="s">
+        <v>79</v>
+      </c>
+      <c r="M42">
+        <v>54</v>
+      </c>
+      <c r="N42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <v>44940</v>
+      </c>
+      <c r="B43" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43">
+        <v>2.62</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>3.2</v>
+      </c>
+      <c r="F43">
+        <v>2.93</v>
+      </c>
+      <c r="G43">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H43">
+        <v>1.66</v>
+      </c>
+      <c r="I43">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K43">
+        <v>1.72</v>
+      </c>
+      <c r="L43" t="s">
+        <v>341</v>
+      </c>
+      <c r="M43">
+        <v>31</v>
+      </c>
+      <c r="N43" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>44940</v>
+      </c>
+      <c r="B44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44">
+        <v>1.82</v>
+      </c>
+      <c r="D44">
+        <v>3.71</v>
+      </c>
+      <c r="E44">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F44">
+        <v>3.22</v>
+      </c>
+      <c r="G44">
+        <v>2.11</v>
+      </c>
+      <c r="H44">
+        <v>1.77</v>
+      </c>
+      <c r="I44">
+        <v>1.85</v>
+      </c>
+      <c r="K44">
+        <v>1.58</v>
+      </c>
+      <c r="L44" t="s">
+        <v>83</v>
+      </c>
+      <c r="M44">
+        <v>29</v>
+      </c>
+      <c r="N44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>44940</v>
+      </c>
+      <c r="B45" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45">
+        <v>3.07</v>
+      </c>
+      <c r="D45">
+        <v>3.44</v>
+      </c>
+      <c r="E45">
+        <v>2.4</v>
+      </c>
+      <c r="F45">
+        <v>3.42</v>
+      </c>
+      <c r="G45">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H45">
+        <v>1.85</v>
+      </c>
+      <c r="I45">
+        <v>1.78</v>
+      </c>
+      <c r="K45">
+        <v>1.52</v>
+      </c>
+      <c r="L45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M45">
+        <v>31</v>
+      </c>
+      <c r="N45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>44940</v>
+      </c>
+      <c r="B46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46">
+        <v>4.2</v>
+      </c>
+      <c r="D46">
+        <v>3.42</v>
+      </c>
+      <c r="E46">
+        <v>1.98</v>
+      </c>
+      <c r="F46">
+        <v>3.03</v>
+      </c>
+      <c r="G46">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H46">
+        <v>1.69</v>
+      </c>
+      <c r="I46">
+        <v>1.96</v>
+      </c>
+      <c r="K46">
+        <v>1.67</v>
+      </c>
+      <c r="L46" t="s">
+        <v>80</v>
+      </c>
+      <c r="M46">
+        <v>72</v>
+      </c>
+      <c r="N46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>44940</v>
+      </c>
+      <c r="B47" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47">
+        <v>1.5</v>
+      </c>
+      <c r="D47">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E47">
+        <v>6.61</v>
+      </c>
+      <c r="F47">
+        <v>4.22</v>
+      </c>
+      <c r="G47">
+        <v>1.75</v>
+      </c>
+      <c r="H47">
+        <v>2.14</v>
+      </c>
+      <c r="I47">
+        <v>1.55</v>
+      </c>
+      <c r="K47">
+        <v>1.41</v>
+      </c>
+      <c r="L47" t="s">
+        <v>80</v>
+      </c>
+      <c r="M47">
+        <v>43</v>
+      </c>
+      <c r="N47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>44940</v>
+      </c>
+      <c r="B48" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48">
+        <v>1.59</v>
+      </c>
+      <c r="D48">
+        <v>3.99</v>
+      </c>
+      <c r="E48">
+        <v>6.29</v>
+      </c>
+      <c r="F48">
+        <v>3.61</v>
+      </c>
+      <c r="G48">
+        <v>1.95</v>
+      </c>
+      <c r="H48">
+        <v>1.92</v>
+      </c>
+      <c r="I48">
+        <v>1.71</v>
+      </c>
+      <c r="K48">
+        <v>1.47</v>
+      </c>
+      <c r="L48" t="s">
+        <v>80</v>
+      </c>
+      <c r="M48">
+        <v>48</v>
+      </c>
+      <c r="N48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <v>44940</v>
+      </c>
+      <c r="B49" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49">
+        <v>2.15</v>
+      </c>
+      <c r="D49">
+        <v>3.32</v>
+      </c>
+      <c r="E49">
+        <v>3.82</v>
+      </c>
+      <c r="F49">
+        <v>2.97</v>
+      </c>
+      <c r="G49">
+        <v>2.33</v>
+      </c>
+      <c r="H49">
+        <v>1.67</v>
+      </c>
+      <c r="I49">
+        <v>2.04</v>
+      </c>
+      <c r="K49">
+        <v>1.72</v>
+      </c>
+      <c r="L49" t="s">
+        <v>79</v>
+      </c>
+      <c r="M49">
+        <v>56</v>
+      </c>
+      <c r="N49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <v>44940</v>
+      </c>
+      <c r="B50" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50">
+        <v>2.37</v>
+      </c>
+      <c r="D50">
+        <v>2.99</v>
+      </c>
+      <c r="E50">
+        <v>3.7</v>
+      </c>
+      <c r="F50">
+        <v>2.76</v>
+      </c>
+      <c r="G50">
+        <v>2.52</v>
+      </c>
+      <c r="H50">
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="I50">
+        <v>2.19</v>
+      </c>
+      <c r="K50">
+        <v>1.85</v>
+      </c>
+      <c r="L50" t="s">
+        <v>343</v>
+      </c>
+      <c r="M50">
+        <v>35</v>
+      </c>
+      <c r="N50" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <v>44940</v>
+      </c>
+      <c r="B51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51">
+        <v>3.17</v>
+      </c>
+      <c r="D51">
+        <v>3.41</v>
+      </c>
+      <c r="E51">
+        <v>2.39</v>
+      </c>
+      <c r="F51">
+        <v>3.27</v>
+      </c>
+      <c r="G51">
+        <v>2.12</v>
+      </c>
+      <c r="H51">
+        <v>1.79</v>
+      </c>
+      <c r="I51">
+        <v>1.87</v>
+      </c>
+      <c r="K51">
+        <v>1.6</v>
+      </c>
+      <c r="L51" t="s">
+        <v>342</v>
+      </c>
+      <c r="M51">
+        <v>29</v>
+      </c>
+      <c r="N51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>44940</v>
+      </c>
+      <c r="B52" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52">
+        <v>606</v>
+      </c>
+      <c r="D52">
+        <v>606</v>
+      </c>
+      <c r="E52">
+        <v>606</v>
+      </c>
+      <c r="F52">
+        <v>606</v>
+      </c>
+      <c r="G52">
+        <v>606</v>
+      </c>
+      <c r="H52">
+        <v>606</v>
+      </c>
+      <c r="I52">
+        <v>606</v>
+      </c>
+      <c r="K52">
+        <v>606</v>
+      </c>
+      <c r="L52">
+        <v>606</v>
+      </c>
+      <c r="M52">
+        <v>50</v>
+      </c>
+      <c r="N52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <v>44940</v>
+      </c>
+      <c r="B53" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53">
+        <v>2.61</v>
+      </c>
+      <c r="D53">
+        <v>2.95</v>
+      </c>
+      <c r="E53">
+        <v>3.22</v>
+      </c>
+      <c r="F53">
+        <v>2.54</v>
+      </c>
+      <c r="G53">
+        <v>2.68</v>
+      </c>
+      <c r="H53">
+        <v>1.5</v>
+      </c>
+      <c r="I53">
+        <v>2.33</v>
+      </c>
+      <c r="K53">
+        <v>1.99</v>
+      </c>
+      <c r="L53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M53">
+        <v>48</v>
+      </c>
+      <c r="N53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>44940</v>
+      </c>
+      <c r="B54" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54">
+        <v>1.86</v>
+      </c>
+      <c r="D54">
+        <v>3.7</v>
+      </c>
+      <c r="E54">
+        <v>4.51</v>
+      </c>
+      <c r="F54">
+        <v>3.52</v>
+      </c>
+      <c r="G54">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H54">
+        <v>1.88</v>
+      </c>
+      <c r="I54">
+        <v>1.77</v>
+      </c>
+      <c r="K54">
+        <v>1.52</v>
+      </c>
+      <c r="L54" t="s">
+        <v>81</v>
+      </c>
+      <c r="M54">
+        <v>16</v>
+      </c>
+      <c r="N54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>44940</v>
+      </c>
+      <c r="B55" t="s">
+        <v>221</v>
+      </c>
+      <c r="C55">
+        <v>3.3</v>
+      </c>
+      <c r="D55">
+        <v>3.37</v>
+      </c>
+      <c r="E55">
+        <v>2.31</v>
+      </c>
+      <c r="F55">
+        <v>3.37</v>
+      </c>
+      <c r="G55">
+        <v>2.04</v>
+      </c>
+      <c r="H55">
+        <v>1.84</v>
+      </c>
+      <c r="I55">
+        <v>1.78</v>
+      </c>
+      <c r="K55">
+        <v>1.53</v>
+      </c>
+      <c r="L55" t="s">
+        <v>87</v>
+      </c>
+      <c r="M55">
+        <v>41</v>
+      </c>
+      <c r="N55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
+        <v>44941</v>
+      </c>
+      <c r="B56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56">
+        <v>606</v>
+      </c>
+      <c r="D56">
+        <v>606</v>
+      </c>
+      <c r="E56">
+        <v>606</v>
+      </c>
+      <c r="F56">
+        <v>606</v>
+      </c>
+      <c r="G56">
+        <v>606</v>
+      </c>
+      <c r="H56">
+        <v>606</v>
+      </c>
+      <c r="I56">
+        <v>606</v>
+      </c>
+      <c r="K56">
+        <v>606</v>
+      </c>
+      <c r="L56">
+        <v>606</v>
+      </c>
+      <c r="M56">
+        <v>36</v>
+      </c>
+      <c r="N56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
+        <v>44941</v>
+      </c>
+      <c r="B57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57">
+        <v>606</v>
+      </c>
+      <c r="D57">
+        <v>606</v>
+      </c>
+      <c r="E57">
+        <v>606</v>
+      </c>
+      <c r="F57">
+        <v>606</v>
+      </c>
+      <c r="G57">
+        <v>606</v>
+      </c>
+      <c r="H57">
+        <v>606</v>
+      </c>
+      <c r="I57">
+        <v>606</v>
+      </c>
+      <c r="K57">
+        <v>606</v>
+      </c>
+      <c r="L57">
+        <v>606</v>
+      </c>
+      <c r="M57">
+        <v>60</v>
+      </c>
+      <c r="N57" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <v>44941</v>
+      </c>
+      <c r="B58" t="s">
+        <v>224</v>
+      </c>
+      <c r="C58">
+        <v>606</v>
+      </c>
+      <c r="D58">
+        <v>606</v>
+      </c>
+      <c r="E58">
+        <v>606</v>
+      </c>
+      <c r="F58">
+        <v>606</v>
+      </c>
+      <c r="G58">
+        <v>606</v>
+      </c>
+      <c r="H58">
+        <v>606</v>
+      </c>
+      <c r="I58">
+        <v>606</v>
+      </c>
+      <c r="K58">
+        <v>606</v>
+      </c>
+      <c r="L58">
+        <v>606</v>
+      </c>
+      <c r="M58">
+        <v>27</v>
+      </c>
+      <c r="N58" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
+        <v>44941</v>
+      </c>
+      <c r="B59" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59">
+        <v>606</v>
+      </c>
+      <c r="D59">
+        <v>606</v>
+      </c>
+      <c r="E59">
+        <v>606</v>
+      </c>
+      <c r="F59">
+        <v>606</v>
+      </c>
+      <c r="G59">
+        <v>606</v>
+      </c>
+      <c r="H59">
+        <v>606</v>
+      </c>
+      <c r="I59">
+        <v>606</v>
+      </c>
+      <c r="K59">
+        <v>606</v>
+      </c>
+      <c r="L59">
+        <v>606</v>
+      </c>
+      <c r="M59">
+        <v>53</v>
+      </c>
+      <c r="N59" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <v>44941</v>
+      </c>
+      <c r="B60" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60">
+        <v>606</v>
+      </c>
+      <c r="D60">
+        <v>606</v>
+      </c>
+      <c r="E60">
+        <v>606</v>
+      </c>
+      <c r="F60">
+        <v>606</v>
+      </c>
+      <c r="G60">
+        <v>606</v>
+      </c>
+      <c r="H60">
+        <v>606</v>
+      </c>
+      <c r="I60">
+        <v>606</v>
+      </c>
+      <c r="K60">
+        <v>606</v>
+      </c>
+      <c r="L60">
+        <v>606</v>
+      </c>
+      <c r="M60">
+        <v>30</v>
+      </c>
+      <c r="N60" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
+        <v>44941</v>
+      </c>
+      <c r="B61" t="s">
+        <v>229</v>
+      </c>
+      <c r="C61">
+        <v>1.88</v>
+      </c>
+      <c r="D61">
+        <v>3.5</v>
+      </c>
+      <c r="E61">
+        <v>4.8</v>
+      </c>
+      <c r="F61">
+        <v>2.98</v>
+      </c>
+      <c r="G61">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H61">
+        <v>1.69</v>
+      </c>
+      <c r="I61">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K61">
+        <v>1.71</v>
+      </c>
+      <c r="L61" t="s">
+        <v>79</v>
+      </c>
+      <c r="M61">
+        <v>38</v>
+      </c>
+      <c r="N61" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <v>44941</v>
+      </c>
+      <c r="B62" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62">
+        <v>606</v>
+      </c>
+      <c r="D62">
+        <v>606</v>
+      </c>
+      <c r="E62">
+        <v>606</v>
+      </c>
+      <c r="F62">
+        <v>606</v>
+      </c>
+      <c r="G62">
+        <v>606</v>
+      </c>
+      <c r="H62">
+        <v>606</v>
+      </c>
+      <c r="I62">
+        <v>606</v>
+      </c>
+      <c r="K62">
+        <v>606</v>
+      </c>
+      <c r="L62">
+        <v>606</v>
+      </c>
+      <c r="M62">
+        <v>40</v>
+      </c>
+      <c r="N62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
+        <v>44941</v>
+      </c>
+      <c r="B63" t="s">
+        <v>232</v>
+      </c>
+      <c r="C63">
+        <v>606</v>
+      </c>
+      <c r="D63">
+        <v>606</v>
+      </c>
+      <c r="E63">
+        <v>606</v>
+      </c>
+      <c r="F63">
+        <v>606</v>
+      </c>
+      <c r="G63">
+        <v>606</v>
+      </c>
+      <c r="H63">
+        <v>606</v>
+      </c>
+      <c r="I63">
+        <v>606</v>
+      </c>
+      <c r="K63">
+        <v>606</v>
+      </c>
+      <c r="L63">
+        <v>606</v>
+      </c>
+      <c r="M63">
+        <v>35</v>
+      </c>
+      <c r="N63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
+        <v>44941</v>
+      </c>
+      <c r="B64" t="s">
+        <v>233</v>
+      </c>
+      <c r="C64">
+        <v>606</v>
+      </c>
+      <c r="D64">
+        <v>606</v>
+      </c>
+      <c r="E64">
+        <v>606</v>
+      </c>
+      <c r="F64">
+        <v>606</v>
+      </c>
+      <c r="G64">
+        <v>606</v>
+      </c>
+      <c r="H64">
+        <v>606</v>
+      </c>
+      <c r="I64">
+        <v>606</v>
+      </c>
+      <c r="K64">
+        <v>606</v>
+      </c>
+      <c r="L64">
+        <v>606</v>
+      </c>
+      <c r="M64">
+        <v>38</v>
+      </c>
+      <c r="N64" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
+        <v>44941</v>
+      </c>
+      <c r="B65" t="s">
+        <v>235</v>
+      </c>
+      <c r="C65">
+        <v>606</v>
+      </c>
+      <c r="D65">
+        <v>606</v>
+      </c>
+      <c r="E65">
+        <v>606</v>
+      </c>
+      <c r="F65">
+        <v>606</v>
+      </c>
+      <c r="G65">
+        <v>606</v>
+      </c>
+      <c r="H65">
+        <v>606</v>
+      </c>
+      <c r="I65">
+        <v>606</v>
+      </c>
+      <c r="K65">
+        <v>606</v>
+      </c>
+      <c r="L65">
+        <v>606</v>
+      </c>
+      <c r="M65">
+        <v>16</v>
+      </c>
+      <c r="N65" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
+        <v>44941</v>
+      </c>
+      <c r="B66" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66">
+        <v>1.47</v>
+      </c>
+      <c r="D66">
+        <v>4.74</v>
+      </c>
+      <c r="E66">
+        <v>7.33</v>
+      </c>
+      <c r="F66">
+        <v>3.86</v>
+      </c>
+      <c r="G66">
+        <v>1.7</v>
+      </c>
+      <c r="H66">
+        <v>2.27</v>
+      </c>
+      <c r="I66">
+        <v>1.52</v>
+      </c>
+      <c r="K66">
+        <v>1.33</v>
+      </c>
+      <c r="L66" t="s">
+        <v>79</v>
+      </c>
+      <c r="M66">
+        <v>22</v>
+      </c>
+      <c r="N66" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
+        <v>44941</v>
+      </c>
+      <c r="B67" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67">
+        <v>606</v>
+      </c>
+      <c r="D67">
+        <v>606</v>
+      </c>
+      <c r="E67">
+        <v>606</v>
+      </c>
+      <c r="F67">
+        <v>606</v>
+      </c>
+      <c r="G67">
+        <v>606</v>
+      </c>
+      <c r="H67">
+        <v>606</v>
+      </c>
+      <c r="I67">
+        <v>606</v>
+      </c>
+      <c r="K67">
+        <v>606</v>
+      </c>
+      <c r="L67">
+        <v>606</v>
+      </c>
+      <c r="M67">
+        <v>35</v>
+      </c>
+      <c r="N67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <v>44941</v>
+      </c>
+      <c r="B68" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68">
+        <v>606</v>
+      </c>
+      <c r="D68">
+        <v>606</v>
+      </c>
+      <c r="E68">
+        <v>606</v>
+      </c>
+      <c r="F68">
+        <v>606</v>
+      </c>
+      <c r="G68">
+        <v>606</v>
+      </c>
+      <c r="H68">
+        <v>606</v>
+      </c>
+      <c r="I68">
+        <v>606</v>
+      </c>
+      <c r="K68">
+        <v>606</v>
+      </c>
+      <c r="L68">
+        <v>606</v>
+      </c>
+      <c r="M68">
+        <v>28</v>
+      </c>
+      <c r="N68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="16">
+        <v>44942</v>
+      </c>
+      <c r="B69" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69">
+        <v>1.79</v>
+      </c>
+      <c r="D69">
+        <v>3.48</v>
+      </c>
+      <c r="E69">
+        <v>5.37</v>
+      </c>
+      <c r="F69">
+        <v>3.09</v>
+      </c>
+      <c r="G69">
+        <v>2.25</v>
+      </c>
+      <c r="H69">
+        <v>1.69</v>
+      </c>
+      <c r="I69">
+        <v>1.97</v>
+      </c>
+      <c r="K69">
+        <v>1.66</v>
+      </c>
+      <c r="L69" t="s">
+        <v>79</v>
+      </c>
+      <c r="M69">
+        <v>31</v>
+      </c>
+      <c r="N69" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
+        <v>44944</v>
+      </c>
+      <c r="B70" t="s">
+        <v>241</v>
+      </c>
+      <c r="C70">
+        <v>606</v>
+      </c>
+      <c r="D70">
+        <v>606</v>
+      </c>
+      <c r="E70">
+        <v>606</v>
+      </c>
+      <c r="F70">
+        <v>606</v>
+      </c>
+      <c r="G70">
+        <v>606</v>
+      </c>
+      <c r="H70">
+        <v>606</v>
+      </c>
+      <c r="I70">
+        <v>606</v>
+      </c>
+      <c r="K70">
+        <v>606</v>
+      </c>
+      <c r="L70">
+        <v>606</v>
+      </c>
+      <c r="M70">
+        <v>34</v>
+      </c>
+      <c r="N70" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="16">
+        <v>44947</v>
+      </c>
+      <c r="B71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71">
+        <v>3.72</v>
+      </c>
+      <c r="D71">
+        <v>2.99</v>
+      </c>
+      <c r="E71">
+        <v>2.35</v>
+      </c>
+      <c r="F71">
+        <v>2.75</v>
+      </c>
+      <c r="G71">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H71">
+        <v>1.57</v>
+      </c>
+      <c r="I71">
+        <v>2.19</v>
+      </c>
+      <c r="K71">
+        <v>1.86</v>
+      </c>
+      <c r="L71" t="s">
+        <v>78</v>
+      </c>
+      <c r="M71">
+        <v>30</v>
+      </c>
+      <c r="N71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
+        <v>44947</v>
+      </c>
+      <c r="B72" t="s">
+        <v>243</v>
+      </c>
+      <c r="C72">
+        <v>606</v>
+      </c>
+      <c r="D72">
+        <v>606</v>
+      </c>
+      <c r="E72">
+        <v>606</v>
+      </c>
+      <c r="F72">
+        <v>606</v>
+      </c>
+      <c r="G72">
+        <v>606</v>
+      </c>
+      <c r="H72">
+        <v>606</v>
+      </c>
+      <c r="I72">
+        <v>606</v>
+      </c>
+      <c r="K72">
+        <v>606</v>
+      </c>
+      <c r="L72">
+        <v>606</v>
+      </c>
+      <c r="M72">
+        <v>31</v>
+      </c>
+      <c r="N72" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
+        <v>44947</v>
+      </c>
+      <c r="B73" t="s">
+        <v>244</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>3.12</v>
+      </c>
+      <c r="E73">
+        <v>2.68</v>
+      </c>
+      <c r="F73">
+        <v>2.65</v>
+      </c>
+      <c r="G73">
+        <v>2.59</v>
+      </c>
+      <c r="H73">
+        <v>1.56</v>
+      </c>
+      <c r="I73">
+        <v>2.25</v>
+      </c>
+      <c r="K73">
+        <v>1.93</v>
+      </c>
+      <c r="L73" t="s">
+        <v>87</v>
+      </c>
+      <c r="M73">
+        <v>72</v>
+      </c>
+      <c r="N73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
+        <v>44947</v>
+      </c>
+      <c r="B74" t="s">
+        <v>245</v>
+      </c>
+      <c r="C74">
+        <v>2.98</v>
+      </c>
+      <c r="D74">
+        <v>2.93</v>
+      </c>
+      <c r="E74">
+        <v>2.85</v>
+      </c>
+      <c r="F74">
+        <v>2.69</v>
+      </c>
+      <c r="G74">
+        <v>2.62</v>
+      </c>
+      <c r="H74">
+        <v>1.53</v>
+      </c>
+      <c r="I74">
+        <v>2.27</v>
+      </c>
+      <c r="K74">
+        <v>1.92</v>
+      </c>
+      <c r="L74" t="s">
+        <v>88</v>
+      </c>
+      <c r="M74">
+        <v>31</v>
+      </c>
+      <c r="N74" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="16">
+        <v>44947</v>
+      </c>
+      <c r="B75" t="s">
+        <v>246</v>
+      </c>
+      <c r="C75">
+        <v>2.84</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>2.92</v>
+      </c>
+      <c r="F75">
+        <v>3.01</v>
+      </c>
+      <c r="G75">
+        <v>2.29</v>
+      </c>
+      <c r="H75">
+        <v>1.68</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>1.69</v>
+      </c>
+      <c r="L75" t="s">
+        <v>142</v>
+      </c>
+      <c r="M75">
+        <v>56</v>
+      </c>
+      <c r="N75" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
+        <v>44947</v>
+      </c>
+      <c r="B76" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76">
+        <v>2.64</v>
+      </c>
+      <c r="D76">
+        <v>3.54</v>
+      </c>
+      <c r="E76">
+        <v>2.73</v>
+      </c>
+      <c r="F76">
+        <v>3.84</v>
+      </c>
+      <c r="G76">
+        <v>1.88</v>
+      </c>
+      <c r="H76">
+        <v>2.02</v>
+      </c>
+      <c r="I76">
+        <v>1.66</v>
+      </c>
+      <c r="K76">
+        <v>1.44</v>
+      </c>
+      <c r="L76" t="s">
+        <v>89</v>
+      </c>
+      <c r="M76">
+        <v>29</v>
+      </c>
+      <c r="N76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="16">
+        <v>44947</v>
+      </c>
+      <c r="B77" t="s">
+        <v>248</v>
+      </c>
+      <c r="C77">
+        <v>2.81</v>
+      </c>
+      <c r="D77">
+        <v>3.1</v>
+      </c>
+      <c r="E77">
+        <v>2.91</v>
+      </c>
+      <c r="F77">
+        <v>2.69</v>
+      </c>
+      <c r="G77">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H77">
+        <v>1.58</v>
+      </c>
+      <c r="I77">
+        <v>2.21</v>
+      </c>
+      <c r="K77">
+        <v>1.89</v>
+      </c>
+      <c r="L77" t="s">
+        <v>79</v>
+      </c>
+      <c r="M77">
+        <v>19</v>
+      </c>
+      <c r="N77" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="16">
+        <v>44947</v>
+      </c>
+      <c r="B78" t="s">
+        <v>250</v>
+      </c>
+      <c r="C78">
+        <v>404</v>
+      </c>
+      <c r="D78">
+        <v>404</v>
+      </c>
+      <c r="E78">
+        <v>404</v>
+      </c>
+      <c r="F78">
+        <v>404</v>
+      </c>
+      <c r="G78">
+        <v>404</v>
+      </c>
+      <c r="H78">
+        <v>404</v>
+      </c>
+      <c r="I78">
+        <v>404</v>
+      </c>
+      <c r="K78">
+        <v>404</v>
+      </c>
+      <c r="L78">
+        <v>404</v>
+      </c>
+      <c r="M78">
+        <v>23</v>
+      </c>
+      <c r="N78" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="16">
+        <v>44947</v>
+      </c>
+      <c r="B79" t="s">
+        <v>251</v>
+      </c>
+      <c r="C79">
+        <v>2.98</v>
+      </c>
+      <c r="D79">
+        <v>3.16</v>
+      </c>
+      <c r="E79">
+        <v>2.62</v>
+      </c>
+      <c r="F79">
+        <v>2.83</v>
+      </c>
+      <c r="G79">
+        <v>2.35</v>
+      </c>
+      <c r="H79">
+        <v>1.63</v>
+      </c>
+      <c r="I79">
+        <v>2.06</v>
+      </c>
+      <c r="K79">
+        <v>1.75</v>
+      </c>
+      <c r="L79" t="s">
+        <v>81</v>
+      </c>
+      <c r="M79">
+        <v>10</v>
+      </c>
+      <c r="N79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="16">
+        <v>44947</v>
+      </c>
+      <c r="B80" t="s">
+        <v>252</v>
+      </c>
+      <c r="C80">
+        <v>1.6</v>
+      </c>
+      <c r="D80">
+        <v>4.04</v>
+      </c>
+      <c r="E80">
+        <v>6.28</v>
+      </c>
+      <c r="F80">
+        <v>3.63</v>
+      </c>
+      <c r="G80">
+        <v>1.97</v>
+      </c>
+      <c r="H80">
+        <v>1.92</v>
+      </c>
+      <c r="I80">
+        <v>1.72</v>
+      </c>
+      <c r="K80">
+        <v>1.48</v>
+      </c>
+      <c r="L80" t="s">
+        <v>81</v>
+      </c>
+      <c r="M80">
+        <v>57</v>
+      </c>
+      <c r="N80" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="16">
+        <v>44947</v>
+      </c>
+      <c r="B81" t="s">
+        <v>253</v>
+      </c>
+      <c r="C81">
+        <v>4.82</v>
+      </c>
+      <c r="D81">
+        <v>3.81</v>
+      </c>
+      <c r="E81">
+        <v>1.76</v>
+      </c>
+      <c r="F81">
+        <v>3.6</v>
+      </c>
+      <c r="G81">
+        <v>1.93</v>
+      </c>
+      <c r="H81">
+        <v>1.93</v>
+      </c>
+      <c r="I81">
+        <v>1.7</v>
+      </c>
+      <c r="K81">
+        <v>1.47</v>
+      </c>
+      <c r="L81" t="s">
+        <v>84</v>
+      </c>
+      <c r="M81">
+        <v>18</v>
+      </c>
+      <c r="N81" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="16">
+        <v>44947</v>
+      </c>
+      <c r="B82" t="s">
+        <v>254</v>
+      </c>
+      <c r="C82">
+        <v>3.23</v>
+      </c>
+      <c r="D82">
+        <v>2.86</v>
+      </c>
+      <c r="E82">
+        <v>2.72</v>
+      </c>
+      <c r="F82">
+        <v>2.61</v>
+      </c>
+      <c r="G82">
+        <v>2.67</v>
+      </c>
+      <c r="H82">
+        <v>1.52</v>
+      </c>
+      <c r="I82">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K82">
+        <v>1.96</v>
+      </c>
+      <c r="L82" t="s">
+        <v>80</v>
+      </c>
+      <c r="M82">
+        <v>29</v>
+      </c>
+      <c r="N82" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="16">
+        <v>44947</v>
+      </c>
+      <c r="B83" t="s">
+        <v>255</v>
+      </c>
+      <c r="C83">
+        <v>2.04</v>
+      </c>
+      <c r="D83">
+        <v>3.23</v>
+      </c>
+      <c r="E83">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F83">
+        <v>2.89</v>
+      </c>
+      <c r="G83">
+        <v>2.34</v>
+      </c>
+      <c r="H83">
+        <v>1.65</v>
+      </c>
+      <c r="I83">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K83">
+        <v>1.75</v>
+      </c>
+      <c r="L83" t="s">
+        <v>87</v>
+      </c>
+      <c r="M83">
+        <v>20</v>
+      </c>
+      <c r="N83" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="16">
+        <v>44947</v>
+      </c>
+      <c r="B84" t="s">
+        <v>256</v>
+      </c>
+      <c r="C84">
+        <v>404</v>
+      </c>
+      <c r="D84">
+        <v>404</v>
+      </c>
+      <c r="E84">
+        <v>404</v>
+      </c>
+      <c r="F84">
+        <v>404</v>
+      </c>
+      <c r="G84">
+        <v>404</v>
+      </c>
+      <c r="H84">
+        <v>404</v>
+      </c>
+      <c r="I84">
+        <v>404</v>
+      </c>
+      <c r="K84">
+        <v>404</v>
+      </c>
+      <c r="L84">
+        <v>404</v>
+      </c>
+      <c r="M84">
+        <v>47</v>
+      </c>
+      <c r="N84" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="16">
+        <v>44947</v>
+      </c>
+      <c r="B85" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85">
+        <v>606</v>
+      </c>
+      <c r="D85">
+        <v>606</v>
+      </c>
+      <c r="E85">
+        <v>606</v>
+      </c>
+      <c r="F85">
+        <v>606</v>
+      </c>
+      <c r="G85">
+        <v>606</v>
+      </c>
+      <c r="H85">
+        <v>606</v>
+      </c>
+      <c r="I85">
+        <v>606</v>
+      </c>
+      <c r="K85">
+        <v>606</v>
+      </c>
+      <c r="L85">
+        <v>606</v>
+      </c>
+      <c r="M85">
+        <v>19</v>
+      </c>
+      <c r="N85" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="16">
+        <v>44947</v>
+      </c>
+      <c r="B86" t="s">
+        <v>258</v>
+      </c>
+      <c r="C86">
+        <v>606</v>
+      </c>
+      <c r="D86">
+        <v>606</v>
+      </c>
+      <c r="E86">
+        <v>606</v>
+      </c>
+      <c r="F86">
+        <v>606</v>
+      </c>
+      <c r="G86">
+        <v>606</v>
+      </c>
+      <c r="H86">
+        <v>606</v>
+      </c>
+      <c r="I86">
+        <v>606</v>
+      </c>
+      <c r="K86">
+        <v>606</v>
+      </c>
+      <c r="L86">
+        <v>606</v>
+      </c>
+      <c r="M86">
+        <v>39</v>
+      </c>
+      <c r="N86" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="16">
+        <v>44948</v>
+      </c>
+      <c r="B87" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87">
+        <v>606</v>
+      </c>
+      <c r="D87">
+        <v>606</v>
+      </c>
+      <c r="E87">
+        <v>606</v>
+      </c>
+      <c r="F87">
+        <v>606</v>
+      </c>
+      <c r="G87">
+        <v>606</v>
+      </c>
+      <c r="H87">
+        <v>606</v>
+      </c>
+      <c r="I87">
+        <v>606</v>
+      </c>
+      <c r="K87">
+        <v>606</v>
+      </c>
+      <c r="L87">
+        <v>606</v>
+      </c>
+      <c r="M87">
+        <v>10</v>
+      </c>
+      <c r="N87" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="16">
+        <v>44948</v>
+      </c>
+      <c r="B88" t="s">
+        <v>260</v>
+      </c>
+      <c r="C88">
+        <v>606</v>
+      </c>
+      <c r="D88">
+        <v>606</v>
+      </c>
+      <c r="E88">
+        <v>606</v>
+      </c>
+      <c r="F88">
+        <v>606</v>
+      </c>
+      <c r="G88">
+        <v>606</v>
+      </c>
+      <c r="H88">
+        <v>606</v>
+      </c>
+      <c r="I88">
+        <v>606</v>
+      </c>
+      <c r="K88">
+        <v>606</v>
+      </c>
+      <c r="L88">
+        <v>606</v>
+      </c>
+      <c r="M88">
+        <v>21</v>
+      </c>
+      <c r="N88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="16">
+        <v>44948</v>
+      </c>
+      <c r="B89" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89">
+        <v>606</v>
+      </c>
+      <c r="D89">
+        <v>606</v>
+      </c>
+      <c r="E89">
+        <v>606</v>
+      </c>
+      <c r="F89">
+        <v>606</v>
+      </c>
+      <c r="G89">
+        <v>606</v>
+      </c>
+      <c r="H89">
+        <v>606</v>
+      </c>
+      <c r="I89">
+        <v>606</v>
+      </c>
+      <c r="K89">
+        <v>606</v>
+      </c>
+      <c r="L89">
+        <v>606</v>
+      </c>
+      <c r="M89">
+        <v>20</v>
+      </c>
+      <c r="N89" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="16">
+        <v>44948</v>
+      </c>
+      <c r="B90" t="s">
+        <v>262</v>
+      </c>
+      <c r="C90">
+        <v>606</v>
+      </c>
+      <c r="D90">
+        <v>606</v>
+      </c>
+      <c r="E90">
+        <v>606</v>
+      </c>
+      <c r="F90">
+        <v>606</v>
+      </c>
+      <c r="G90">
+        <v>606</v>
+      </c>
+      <c r="H90">
+        <v>606</v>
+      </c>
+      <c r="I90">
+        <v>606</v>
+      </c>
+      <c r="K90">
+        <v>606</v>
+      </c>
+      <c r="L90">
+        <v>606</v>
+      </c>
+      <c r="M90">
+        <v>9</v>
+      </c>
+      <c r="N90" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="16">
+        <v>44948</v>
+      </c>
+      <c r="B91" t="s">
+        <v>263</v>
+      </c>
+      <c r="C91">
+        <v>606</v>
+      </c>
+      <c r="D91">
+        <v>606</v>
+      </c>
+      <c r="E91">
+        <v>606</v>
+      </c>
+      <c r="F91">
+        <v>606</v>
+      </c>
+      <c r="G91">
+        <v>606</v>
+      </c>
+      <c r="H91">
+        <v>606</v>
+      </c>
+      <c r="I91">
+        <v>606</v>
+      </c>
+      <c r="K91">
+        <v>606</v>
+      </c>
+      <c r="L91">
+        <v>606</v>
+      </c>
+      <c r="M91">
+        <v>29</v>
+      </c>
+      <c r="N91" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="16">
+        <v>44948</v>
+      </c>
+      <c r="B92" t="s">
+        <v>264</v>
+      </c>
+      <c r="C92">
+        <v>606</v>
+      </c>
+      <c r="D92">
+        <v>606</v>
+      </c>
+      <c r="E92">
+        <v>606</v>
+      </c>
+      <c r="F92">
+        <v>606</v>
+      </c>
+      <c r="G92">
+        <v>606</v>
+      </c>
+      <c r="H92">
+        <v>606</v>
+      </c>
+      <c r="I92">
+        <v>606</v>
+      </c>
+      <c r="K92">
+        <v>606</v>
+      </c>
+      <c r="L92">
+        <v>606</v>
+      </c>
+      <c r="M92">
+        <v>49</v>
+      </c>
+      <c r="N92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="16">
+        <v>44948</v>
+      </c>
+      <c r="B93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C93">
+        <v>606</v>
+      </c>
+      <c r="D93">
+        <v>606</v>
+      </c>
+      <c r="E93">
+        <v>606</v>
+      </c>
+      <c r="F93">
+        <v>606</v>
+      </c>
+      <c r="G93">
+        <v>606</v>
+      </c>
+      <c r="H93">
+        <v>606</v>
+      </c>
+      <c r="I93">
+        <v>606</v>
+      </c>
+      <c r="K93">
+        <v>606</v>
+      </c>
+      <c r="L93">
+        <v>606</v>
+      </c>
+      <c r="M93">
+        <v>48</v>
+      </c>
+      <c r="N93" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="16">
+        <v>44948</v>
+      </c>
+      <c r="B94" t="s">
+        <v>266</v>
+      </c>
+      <c r="C94">
+        <v>606</v>
+      </c>
+      <c r="D94">
+        <v>606</v>
+      </c>
+      <c r="E94">
+        <v>606</v>
+      </c>
+      <c r="F94">
+        <v>606</v>
+      </c>
+      <c r="G94">
+        <v>606</v>
+      </c>
+      <c r="H94">
+        <v>606</v>
+      </c>
+      <c r="I94">
+        <v>606</v>
+      </c>
+      <c r="K94">
+        <v>606</v>
+      </c>
+      <c r="L94">
+        <v>606</v>
+      </c>
+      <c r="M94">
+        <v>25</v>
+      </c>
+      <c r="N94" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="16">
+        <v>44948</v>
+      </c>
+      <c r="B95" t="s">
+        <v>267</v>
+      </c>
+      <c r="C95">
+        <v>606</v>
+      </c>
+      <c r="D95">
+        <v>606</v>
+      </c>
+      <c r="E95">
+        <v>606</v>
+      </c>
+      <c r="F95">
+        <v>606</v>
+      </c>
+      <c r="G95">
+        <v>606</v>
+      </c>
+      <c r="H95">
+        <v>606</v>
+      </c>
+      <c r="I95">
+        <v>606</v>
+      </c>
+      <c r="K95">
+        <v>606</v>
+      </c>
+      <c r="L95">
+        <v>606</v>
+      </c>
+      <c r="M95">
+        <v>21</v>
+      </c>
+      <c r="N95" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="16">
+        <v>44948</v>
+      </c>
+      <c r="B96" t="s">
+        <v>268</v>
+      </c>
+      <c r="C96">
+        <v>606</v>
+      </c>
+      <c r="D96">
+        <v>606</v>
+      </c>
+      <c r="E96">
+        <v>606</v>
+      </c>
+      <c r="F96">
+        <v>606</v>
+      </c>
+      <c r="G96">
+        <v>606</v>
+      </c>
+      <c r="H96">
+        <v>606</v>
+      </c>
+      <c r="I96">
+        <v>606</v>
+      </c>
+      <c r="K96">
+        <v>606</v>
+      </c>
+      <c r="L96">
+        <v>606</v>
+      </c>
+      <c r="M96">
+        <v>39</v>
+      </c>
+      <c r="N96" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="16">
+        <v>44948</v>
+      </c>
+      <c r="B97" t="s">
+        <v>269</v>
+      </c>
+      <c r="C97">
+        <v>606</v>
+      </c>
+      <c r="D97">
+        <v>606</v>
+      </c>
+      <c r="E97">
+        <v>606</v>
+      </c>
+      <c r="F97">
+        <v>606</v>
+      </c>
+      <c r="G97">
+        <v>606</v>
+      </c>
+      <c r="H97">
+        <v>606</v>
+      </c>
+      <c r="I97">
+        <v>606</v>
+      </c>
+      <c r="K97">
+        <v>606</v>
+      </c>
+      <c r="L97">
+        <v>606</v>
+      </c>
+      <c r="M97">
+        <v>52</v>
+      </c>
+      <c r="N97" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="16">
+        <v>44948</v>
+      </c>
+      <c r="B98" t="s">
+        <v>270</v>
+      </c>
+      <c r="C98">
+        <v>606</v>
+      </c>
+      <c r="D98">
+        <v>606</v>
+      </c>
+      <c r="E98">
+        <v>606</v>
+      </c>
+      <c r="F98">
+        <v>606</v>
+      </c>
+      <c r="G98">
+        <v>606</v>
+      </c>
+      <c r="H98">
+        <v>606</v>
+      </c>
+      <c r="I98">
+        <v>606</v>
+      </c>
+      <c r="K98">
+        <v>606</v>
+      </c>
+      <c r="L98">
+        <v>606</v>
+      </c>
+      <c r="M98">
+        <v>30</v>
+      </c>
+      <c r="N98" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="16">
+        <v>44948</v>
+      </c>
+      <c r="B99" t="s">
+        <v>271</v>
+      </c>
+      <c r="C99">
+        <v>606</v>
+      </c>
+      <c r="D99">
+        <v>606</v>
+      </c>
+      <c r="E99">
+        <v>606</v>
+      </c>
+      <c r="F99">
+        <v>606</v>
+      </c>
+      <c r="G99">
+        <v>606</v>
+      </c>
+      <c r="H99">
+        <v>606</v>
+      </c>
+      <c r="I99">
+        <v>606</v>
+      </c>
+      <c r="K99">
+        <v>606</v>
+      </c>
+      <c r="L99">
+        <v>606</v>
+      </c>
+      <c r="M99">
+        <v>47</v>
+      </c>
+      <c r="N99" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="16">
+        <v>44950</v>
+      </c>
+      <c r="B100" t="s">
+        <v>272</v>
+      </c>
+      <c r="C100">
+        <v>404</v>
+      </c>
+      <c r="D100">
+        <v>404</v>
+      </c>
+      <c r="E100">
+        <v>404</v>
+      </c>
+      <c r="F100">
+        <v>404</v>
+      </c>
+      <c r="G100">
+        <v>404</v>
+      </c>
+      <c r="H100">
+        <v>404</v>
+      </c>
+      <c r="I100">
+        <v>404</v>
+      </c>
+      <c r="K100">
+        <v>404</v>
+      </c>
+      <c r="L100">
+        <v>404</v>
+      </c>
+      <c r="M100">
+        <v>37</v>
+      </c>
+      <c r="N100" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="16">
+        <v>44950</v>
+      </c>
+      <c r="B101" t="s">
+        <v>273</v>
+      </c>
+      <c r="C101">
+        <v>1.6</v>
+      </c>
+      <c r="D101">
+        <v>3.89</v>
+      </c>
+      <c r="E101">
+        <v>6.51</v>
+      </c>
+      <c r="F101">
+        <v>3.39</v>
+      </c>
+      <c r="G101">
+        <v>2.04</v>
+      </c>
+      <c r="H101">
+        <v>1.84</v>
+      </c>
+      <c r="I101">
+        <v>1.78</v>
+      </c>
+      <c r="K101">
+        <v>1.53</v>
+      </c>
+      <c r="L101" t="s">
+        <v>132</v>
+      </c>
+      <c r="M101">
+        <v>44</v>
+      </c>
+      <c r="N101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="16">
+        <v>44950</v>
+      </c>
+      <c r="B102" t="s">
+        <v>274</v>
+      </c>
+      <c r="C102">
+        <v>3.12</v>
+      </c>
+      <c r="D102">
+        <v>3.41</v>
+      </c>
+      <c r="E102">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F102">
+        <v>3.64</v>
+      </c>
+      <c r="G102">
+        <v>1.99</v>
+      </c>
+      <c r="H102">
+        <v>1.92</v>
+      </c>
+      <c r="I102">
+        <v>1.74</v>
+      </c>
+      <c r="K102">
+        <v>1.49</v>
+      </c>
+      <c r="L102" t="s">
+        <v>344</v>
+      </c>
+      <c r="M102">
+        <v>65</v>
+      </c>
+      <c r="N102" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="16">
+        <v>44950</v>
+      </c>
+      <c r="B103" t="s">
+        <v>276</v>
+      </c>
+      <c r="C103">
+        <v>4.43</v>
+      </c>
+      <c r="D103">
+        <v>3.17</v>
+      </c>
+      <c r="E103">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F103">
+        <v>2.52</v>
+      </c>
+      <c r="G103">
+        <v>2.66</v>
+      </c>
+      <c r="H103">
+        <v>1.51</v>
+      </c>
+      <c r="I103">
+        <v>2.33</v>
+      </c>
+      <c r="K103">
+        <v>1.99</v>
+      </c>
+      <c r="L103" t="s">
+        <v>78</v>
+      </c>
+      <c r="M103">
+        <v>34</v>
+      </c>
+      <c r="N103" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="16">
+        <v>44950</v>
+      </c>
+      <c r="B104" t="s">
+        <v>277</v>
+      </c>
+      <c r="C104">
+        <v>404</v>
+      </c>
+      <c r="D104">
+        <v>404</v>
+      </c>
+      <c r="E104">
+        <v>404</v>
+      </c>
+      <c r="F104">
+        <v>404</v>
+      </c>
+      <c r="G104">
+        <v>404</v>
+      </c>
+      <c r="H104">
+        <v>404</v>
+      </c>
+      <c r="I104">
+        <v>404</v>
+      </c>
+      <c r="K104">
+        <v>404</v>
+      </c>
+      <c r="L104">
+        <v>404</v>
+      </c>
+      <c r="M104">
+        <v>75</v>
+      </c>
+      <c r="N104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="16">
+        <v>44951</v>
+      </c>
+      <c r="B105" t="s">
+        <v>278</v>
+      </c>
+      <c r="C105">
+        <v>606</v>
+      </c>
+      <c r="D105">
+        <v>606</v>
+      </c>
+      <c r="E105">
+        <v>606</v>
+      </c>
+      <c r="F105">
+        <v>606</v>
+      </c>
+      <c r="G105">
+        <v>606</v>
+      </c>
+      <c r="H105">
+        <v>606</v>
+      </c>
+      <c r="I105">
+        <v>606</v>
+      </c>
+      <c r="K105">
+        <v>606</v>
+      </c>
+      <c r="L105">
+        <v>606</v>
+      </c>
+      <c r="M105">
+        <v>31</v>
+      </c>
+      <c r="N105" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="16">
+        <v>44951</v>
+      </c>
+      <c r="B106" t="s">
+        <v>279</v>
+      </c>
+      <c r="C106">
+        <v>606</v>
+      </c>
+      <c r="D106">
+        <v>606</v>
+      </c>
+      <c r="E106">
+        <v>606</v>
+      </c>
+      <c r="F106">
+        <v>606</v>
+      </c>
+      <c r="G106">
+        <v>606</v>
+      </c>
+      <c r="H106">
+        <v>606</v>
+      </c>
+      <c r="I106">
+        <v>606</v>
+      </c>
+      <c r="K106">
+        <v>606</v>
+      </c>
+      <c r="L106">
+        <v>606</v>
+      </c>
+      <c r="M106">
+        <v>29</v>
+      </c>
+      <c r="N106" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="16">
+        <v>44953</v>
+      </c>
+      <c r="B107" t="s">
+        <v>280</v>
+      </c>
+      <c r="C107">
+        <v>2.38</v>
+      </c>
+      <c r="D107">
+        <v>3.2</v>
+      </c>
+      <c r="E107">
+        <v>3.44</v>
+      </c>
+      <c r="F107">
+        <v>3.21</v>
+      </c>
+      <c r="G107">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H107">
+        <v>1.75</v>
+      </c>
+      <c r="I107">
+        <v>1.91</v>
+      </c>
+      <c r="K107">
+        <v>1.63</v>
+      </c>
+      <c r="L107" t="s">
+        <v>132</v>
+      </c>
+      <c r="M107">
+        <v>52</v>
+      </c>
+      <c r="N107" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B108" t="s">
+        <v>281</v>
+      </c>
+      <c r="C108">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D108">
+        <v>3.35</v>
+      </c>
+      <c r="E108">
+        <v>1.93</v>
+      </c>
+      <c r="F108">
+        <v>2.61</v>
+      </c>
+      <c r="G108">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H108">
+        <v>1.55</v>
+      </c>
+      <c r="I108">
+        <v>2.23</v>
+      </c>
+      <c r="K108">
+        <v>1.91</v>
+      </c>
+      <c r="L108" t="s">
+        <v>79</v>
+      </c>
+      <c r="M108">
+        <v>32</v>
+      </c>
+      <c r="N108" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B109" t="s">
+        <v>282</v>
+      </c>
+      <c r="C109">
+        <v>2.82</v>
+      </c>
+      <c r="D109">
+        <v>2.96</v>
+      </c>
+      <c r="E109">
+        <v>2.94</v>
+      </c>
+      <c r="F109">
+        <v>2.6</v>
+      </c>
+      <c r="G109">
+        <v>2.58</v>
+      </c>
+      <c r="H109">
+        <v>1.54</v>
+      </c>
+      <c r="I109">
+        <v>2.25</v>
+      </c>
+      <c r="K109">
+        <v>1.93</v>
+      </c>
+      <c r="L109" t="s">
+        <v>80</v>
+      </c>
+      <c r="M109">
+        <v>34</v>
+      </c>
+      <c r="N109" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B110" t="s">
+        <v>283</v>
+      </c>
+      <c r="C110">
+        <v>2.48</v>
+      </c>
+      <c r="D110">
+        <v>3.04</v>
+      </c>
+      <c r="E110">
+        <v>3.39</v>
+      </c>
+      <c r="F110">
+        <v>2.79</v>
+      </c>
+      <c r="G110">
+        <v>2.44</v>
+      </c>
+      <c r="H110">
+        <v>1.6</v>
+      </c>
+      <c r="I110">
+        <v>2.13</v>
+      </c>
+      <c r="K110">
+        <v>1.82</v>
+      </c>
+      <c r="L110" t="s">
+        <v>78</v>
+      </c>
+      <c r="M110">
+        <v>22</v>
+      </c>
+      <c r="N110" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B111" t="s">
+        <v>284</v>
+      </c>
+      <c r="C111">
+        <v>3.3</v>
+      </c>
+      <c r="D111">
+        <v>3.6</v>
+      </c>
+      <c r="E111">
+        <v>2.21</v>
+      </c>
+      <c r="F111">
+        <v>3.67</v>
+      </c>
+      <c r="G111">
+        <v>1.94</v>
+      </c>
+      <c r="H111">
+        <v>1.93</v>
+      </c>
+      <c r="I111">
+        <v>1.7</v>
+      </c>
+      <c r="K111">
+        <v>1.46</v>
+      </c>
+      <c r="L111" t="s">
+        <v>80</v>
+      </c>
+      <c r="M111">
+        <v>23</v>
+      </c>
+      <c r="N111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B112" t="s">
+        <v>285</v>
+      </c>
+      <c r="C112">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D112">
+        <v>3.42</v>
+      </c>
+      <c r="E112">
+        <v>1.95</v>
+      </c>
+      <c r="F112">
+        <v>3.15</v>
+      </c>
+      <c r="G112">
+        <v>2.19</v>
+      </c>
+      <c r="H112">
+        <v>1.74</v>
+      </c>
+      <c r="I112">
+        <v>1.92</v>
+      </c>
+      <c r="K112">
+        <v>1.63</v>
+      </c>
+      <c r="L112" t="s">
+        <v>79</v>
+      </c>
+      <c r="M112">
+        <v>75</v>
+      </c>
+      <c r="N112" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B113" t="s">
+        <v>286</v>
+      </c>
+      <c r="C113">
+        <v>1.68</v>
+      </c>
+      <c r="D113">
+        <v>3.79</v>
+      </c>
+      <c r="E113">
+        <v>5.76</v>
+      </c>
+      <c r="F113">
+        <v>3.25</v>
+      </c>
+      <c r="G113">
+        <v>2.14</v>
+      </c>
+      <c r="H113">
+        <v>1.77</v>
+      </c>
+      <c r="I113">
+        <v>1.88</v>
+      </c>
+      <c r="K113">
+        <v>1.6</v>
+      </c>
+      <c r="L113" t="s">
+        <v>81</v>
+      </c>
+      <c r="M113">
+        <v>52</v>
+      </c>
+      <c r="N113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B114" t="s">
+        <v>287</v>
+      </c>
+      <c r="C114">
+        <v>3.11</v>
+      </c>
+      <c r="D114">
+        <v>2.82</v>
+      </c>
+      <c r="E114">
+        <v>2.89</v>
+      </c>
+      <c r="F114">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G114">
+        <v>3.18</v>
+      </c>
+      <c r="H114">
+        <v>1.39</v>
+      </c>
+      <c r="I114">
+        <v>2.79</v>
+      </c>
+      <c r="K114">
+        <v>2.38</v>
+      </c>
+      <c r="L114" t="s">
+        <v>87</v>
+      </c>
+      <c r="M114">
+        <v>49</v>
+      </c>
+      <c r="N114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B115" t="s">
+        <v>288</v>
+      </c>
+      <c r="C115">
+        <v>606</v>
+      </c>
+      <c r="D115">
+        <v>606</v>
+      </c>
+      <c r="E115">
+        <v>606</v>
+      </c>
+      <c r="F115">
+        <v>606</v>
+      </c>
+      <c r="G115">
+        <v>606</v>
+      </c>
+      <c r="H115">
+        <v>606</v>
+      </c>
+      <c r="I115">
+        <v>606</v>
+      </c>
+      <c r="K115">
+        <v>606</v>
+      </c>
+      <c r="L115">
+        <v>606</v>
+      </c>
+      <c r="M115">
+        <v>16</v>
+      </c>
+      <c r="N115" s="62" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B116" t="s">
+        <v>290</v>
+      </c>
+      <c r="C116">
+        <v>606</v>
+      </c>
+      <c r="D116">
+        <v>606</v>
+      </c>
+      <c r="E116">
+        <v>606</v>
+      </c>
+      <c r="F116">
+        <v>606</v>
+      </c>
+      <c r="G116">
+        <v>606</v>
+      </c>
+      <c r="H116">
+        <v>606</v>
+      </c>
+      <c r="I116">
+        <v>606</v>
+      </c>
+      <c r="K116">
+        <v>606</v>
+      </c>
+      <c r="L116">
+        <v>606</v>
+      </c>
+      <c r="M116">
+        <v>67</v>
+      </c>
+      <c r="N116" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B117" t="s">
+        <v>292</v>
+      </c>
+      <c r="C117">
+        <v>606</v>
+      </c>
+      <c r="D117">
+        <v>606</v>
+      </c>
+      <c r="E117">
+        <v>606</v>
+      </c>
+      <c r="F117">
+        <v>606</v>
+      </c>
+      <c r="G117">
+        <v>606</v>
+      </c>
+      <c r="H117">
+        <v>606</v>
+      </c>
+      <c r="I117">
+        <v>606</v>
+      </c>
+      <c r="K117">
+        <v>606</v>
+      </c>
+      <c r="L117">
+        <v>606</v>
+      </c>
+      <c r="M117">
+        <v>49</v>
+      </c>
+      <c r="N117" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B118" t="s">
+        <v>293</v>
+      </c>
+      <c r="C118">
+        <v>606</v>
+      </c>
+      <c r="D118">
+        <v>606</v>
+      </c>
+      <c r="E118">
+        <v>606</v>
+      </c>
+      <c r="F118">
+        <v>606</v>
+      </c>
+      <c r="G118">
+        <v>606</v>
+      </c>
+      <c r="H118">
+        <v>606</v>
+      </c>
+      <c r="I118">
+        <v>606</v>
+      </c>
+      <c r="K118">
+        <v>606</v>
+      </c>
+      <c r="L118">
+        <v>606</v>
+      </c>
+      <c r="M118">
+        <v>20</v>
+      </c>
+      <c r="N118" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B119" t="s">
+        <v>294</v>
+      </c>
+      <c r="C119">
+        <v>606</v>
+      </c>
+      <c r="D119">
+        <v>606</v>
+      </c>
+      <c r="E119">
+        <v>606</v>
+      </c>
+      <c r="F119">
+        <v>606</v>
+      </c>
+      <c r="G119">
+        <v>606</v>
+      </c>
+      <c r="H119">
+        <v>606</v>
+      </c>
+      <c r="I119">
+        <v>606</v>
+      </c>
+      <c r="K119">
+        <v>606</v>
+      </c>
+      <c r="L119">
+        <v>606</v>
+      </c>
+      <c r="M119">
+        <v>54</v>
+      </c>
+      <c r="N119" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B120" t="s">
+        <v>295</v>
+      </c>
+      <c r="C120">
+        <v>2.67</v>
+      </c>
+      <c r="D120">
+        <v>2.99</v>
+      </c>
+      <c r="E120">
+        <v>3.09</v>
+      </c>
+      <c r="F120">
+        <v>2.91</v>
+      </c>
+      <c r="G120">
+        <v>2.37</v>
+      </c>
+      <c r="H120">
+        <v>1.63</v>
+      </c>
+      <c r="I120">
+        <v>2.06</v>
+      </c>
+      <c r="K120">
+        <v>1.74</v>
+      </c>
+      <c r="L120" t="s">
+        <v>142</v>
+      </c>
+      <c r="M120">
+        <v>29</v>
+      </c>
+      <c r="N120" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B121" t="s">
+        <v>296</v>
+      </c>
+      <c r="C121">
+        <v>606</v>
+      </c>
+      <c r="D121">
+        <v>606</v>
+      </c>
+      <c r="E121">
+        <v>606</v>
+      </c>
+      <c r="F121">
+        <v>606</v>
+      </c>
+      <c r="G121">
+        <v>606</v>
+      </c>
+      <c r="H121">
+        <v>606</v>
+      </c>
+      <c r="I121">
+        <v>606</v>
+      </c>
+      <c r="K121">
+        <v>606</v>
+      </c>
+      <c r="L121">
+        <v>606</v>
+      </c>
+      <c r="M121">
+        <v>42</v>
+      </c>
+      <c r="N121" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B122" t="s">
+        <v>297</v>
+      </c>
+      <c r="C122">
+        <v>2.86</v>
+      </c>
+      <c r="D122">
+        <v>2.94</v>
+      </c>
+      <c r="E122">
+        <v>2.92</v>
+      </c>
+      <c r="F122">
+        <v>2.77</v>
+      </c>
+      <c r="G122">
+        <v>2.46</v>
+      </c>
+      <c r="H122">
+        <v>1.58</v>
+      </c>
+      <c r="I122">
+        <v>2.14</v>
+      </c>
+      <c r="K122">
+        <v>1.83</v>
+      </c>
+      <c r="L122" t="s">
+        <v>132</v>
+      </c>
+      <c r="M122">
+        <v>46</v>
+      </c>
+      <c r="N122" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B123" t="s">
+        <v>298</v>
+      </c>
+      <c r="C123">
+        <v>2.92</v>
+      </c>
+      <c r="D123">
+        <v>2.94</v>
+      </c>
+      <c r="E123">
+        <v>2.86</v>
+      </c>
+      <c r="F123">
+        <v>2.8</v>
+      </c>
+      <c r="G123">
+        <v>2.42</v>
+      </c>
+      <c r="H123">
+        <v>1.6</v>
+      </c>
+      <c r="I123">
+        <v>2.11</v>
+      </c>
+      <c r="K123">
+        <v>1.8</v>
+      </c>
+      <c r="L123" t="s">
+        <v>87</v>
+      </c>
+      <c r="M123">
+        <v>52</v>
+      </c>
+      <c r="N123" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B124" t="s">
+        <v>299</v>
+      </c>
+      <c r="C124">
+        <v>1.57</v>
+      </c>
+      <c r="D124">
+        <v>4.18</v>
+      </c>
+      <c r="E124">
+        <v>7.44</v>
+      </c>
+      <c r="F124">
+        <v>3.25</v>
+      </c>
+      <c r="G124">
+        <v>2.13</v>
+      </c>
+      <c r="H124">
+        <v>1.75</v>
+      </c>
+      <c r="I124">
+        <v>1.91</v>
+      </c>
+      <c r="K124">
+        <v>1.62</v>
+      </c>
+      <c r="L124" t="s">
+        <v>83</v>
+      </c>
+      <c r="M124">
+        <v>31</v>
+      </c>
+      <c r="N124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B125" t="s">
+        <v>300</v>
+      </c>
+      <c r="C125">
+        <v>606</v>
+      </c>
+      <c r="D125">
+        <v>606</v>
+      </c>
+      <c r="E125">
+        <v>606</v>
+      </c>
+      <c r="F125">
+        <v>606</v>
+      </c>
+      <c r="G125">
+        <v>606</v>
+      </c>
+      <c r="H125">
+        <v>606</v>
+      </c>
+      <c r="I125">
+        <v>606</v>
+      </c>
+      <c r="K125">
+        <v>606</v>
+      </c>
+      <c r="L125">
+        <v>606</v>
+      </c>
+      <c r="M125">
+        <v>40</v>
+      </c>
+      <c r="N125" s="62" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B126" t="s">
+        <v>302</v>
+      </c>
+      <c r="C126">
+        <v>1.9</v>
+      </c>
+      <c r="D126">
+        <v>3.39</v>
+      </c>
+      <c r="E126">
+        <v>4.68</v>
+      </c>
+      <c r="F126">
+        <v>2.9</v>
+      </c>
+      <c r="G126">
+        <v>2.29</v>
+      </c>
+      <c r="H126">
+        <v>1.66</v>
+      </c>
+      <c r="I126">
+        <v>2.02</v>
+      </c>
+      <c r="K126">
+        <v>1.72</v>
+      </c>
+      <c r="L126" t="s">
+        <v>343</v>
+      </c>
+      <c r="M126">
+        <v>49</v>
+      </c>
+      <c r="N126" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B127" t="s">
+        <v>303</v>
+      </c>
+      <c r="C127">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D127">
+        <v>2.99</v>
+      </c>
+      <c r="E127">
+        <v>3.37</v>
+      </c>
+      <c r="F127">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G127">
+        <v>2.73</v>
+      </c>
+      <c r="H127">
+        <v>1.49</v>
+      </c>
+      <c r="I127">
+        <v>2.39</v>
+      </c>
+      <c r="K127">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L127" t="s">
+        <v>79</v>
+      </c>
+      <c r="M127">
+        <v>55</v>
+      </c>
+      <c r="N127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B128" t="s">
+        <v>304</v>
+      </c>
+      <c r="C128">
+        <v>6.11</v>
+      </c>
+      <c r="D128">
+        <v>4.33</v>
+      </c>
+      <c r="E128">
+        <v>1.58</v>
+      </c>
+      <c r="F128">
+        <v>4.07</v>
+      </c>
+      <c r="G128">
+        <v>1.83</v>
+      </c>
+      <c r="H128">
+        <v>2.08</v>
+      </c>
+      <c r="I128">
+        <v>1.61</v>
+      </c>
+      <c r="K128">
+        <v>1.39</v>
+      </c>
+      <c r="L128" t="s">
+        <v>80</v>
+      </c>
+      <c r="M128">
+        <v>34</v>
+      </c>
+      <c r="N128" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" s="16">
+        <v>44954</v>
+      </c>
+      <c r="B129" t="s">
+        <v>306</v>
+      </c>
+      <c r="C129">
+        <v>4.67</v>
+      </c>
+      <c r="D129">
+        <v>3.36</v>
+      </c>
+      <c r="E129">
+        <v>1.91</v>
+      </c>
+      <c r="F129">
+        <v>3.12</v>
+      </c>
+      <c r="G129">
+        <v>2.16</v>
+      </c>
+      <c r="H129">
+        <v>1.74</v>
+      </c>
+      <c r="I129">
+        <v>1.9</v>
+      </c>
+      <c r="K129">
+        <v>1.62</v>
+      </c>
+      <c r="L129" t="s">
+        <v>80</v>
+      </c>
+      <c r="M129">
+        <v>55</v>
+      </c>
+      <c r="N129" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" s="16">
+        <v>44955</v>
+      </c>
+      <c r="B130" t="s">
+        <v>307</v>
+      </c>
+      <c r="C130">
+        <v>606</v>
+      </c>
+      <c r="D130">
+        <v>606</v>
+      </c>
+      <c r="E130">
+        <v>606</v>
+      </c>
+      <c r="F130">
+        <v>606</v>
+      </c>
+      <c r="G130">
+        <v>606</v>
+      </c>
+      <c r="H130">
+        <v>606</v>
+      </c>
+      <c r="I130">
+        <v>606</v>
+      </c>
+      <c r="K130">
+        <v>606</v>
+      </c>
+      <c r="L130">
+        <v>606</v>
+      </c>
+      <c r="M130">
+        <v>39</v>
+      </c>
+      <c r="N130" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="16">
+        <v>44955</v>
+      </c>
+      <c r="B131" t="s">
+        <v>308</v>
+      </c>
+      <c r="C131">
+        <v>606</v>
+      </c>
+      <c r="D131">
+        <v>606</v>
+      </c>
+      <c r="E131">
+        <v>606</v>
+      </c>
+      <c r="F131">
+        <v>606</v>
+      </c>
+      <c r="G131">
+        <v>606</v>
+      </c>
+      <c r="H131">
+        <v>606</v>
+      </c>
+      <c r="I131">
+        <v>606</v>
+      </c>
+      <c r="K131">
+        <v>606</v>
+      </c>
+      <c r="L131">
+        <v>606</v>
+      </c>
+      <c r="M131">
+        <v>23</v>
+      </c>
+      <c r="N131" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="16">
+        <v>44955</v>
+      </c>
+      <c r="B132" t="s">
+        <v>309</v>
+      </c>
+      <c r="C132">
+        <v>606</v>
+      </c>
+      <c r="D132">
+        <v>606</v>
+      </c>
+      <c r="E132">
+        <v>606</v>
+      </c>
+      <c r="F132">
+        <v>606</v>
+      </c>
+      <c r="G132">
+        <v>606</v>
+      </c>
+      <c r="H132">
+        <v>606</v>
+      </c>
+      <c r="I132">
+        <v>606</v>
+      </c>
+      <c r="K132">
+        <v>606</v>
+      </c>
+      <c r="L132">
+        <v>606</v>
+      </c>
+      <c r="M132">
+        <v>39</v>
+      </c>
+      <c r="N132" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="16">
+        <v>44955</v>
+      </c>
+      <c r="B133" t="s">
+        <v>310</v>
+      </c>
+      <c r="C133">
+        <v>606</v>
+      </c>
+      <c r="D133">
+        <v>606</v>
+      </c>
+      <c r="E133">
+        <v>606</v>
+      </c>
+      <c r="F133">
+        <v>606</v>
+      </c>
+      <c r="G133">
+        <v>606</v>
+      </c>
+      <c r="H133">
+        <v>606</v>
+      </c>
+      <c r="I133">
+        <v>606</v>
+      </c>
+      <c r="K133">
+        <v>606</v>
+      </c>
+      <c r="L133">
+        <v>606</v>
+      </c>
+      <c r="M133">
+        <v>34</v>
+      </c>
+      <c r="N133" s="63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="16">
+        <v>44955</v>
+      </c>
+      <c r="B134" t="s">
+        <v>311</v>
+      </c>
+      <c r="C134">
+        <v>606</v>
+      </c>
+      <c r="D134">
+        <v>606</v>
+      </c>
+      <c r="E134">
+        <v>606</v>
+      </c>
+      <c r="F134">
+        <v>606</v>
+      </c>
+      <c r="G134">
+        <v>606</v>
+      </c>
+      <c r="H134">
+        <v>606</v>
+      </c>
+      <c r="I134">
+        <v>606</v>
+      </c>
+      <c r="K134">
+        <v>606</v>
+      </c>
+      <c r="L134">
+        <v>606</v>
+      </c>
+      <c r="M134">
+        <v>48</v>
+      </c>
+      <c r="N134" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" s="16">
+        <v>44955</v>
+      </c>
+      <c r="B135" t="s">
+        <v>312</v>
+      </c>
+      <c r="C135">
+        <v>606</v>
+      </c>
+      <c r="D135">
+        <v>606</v>
+      </c>
+      <c r="E135">
+        <v>606</v>
+      </c>
+      <c r="F135">
+        <v>606</v>
+      </c>
+      <c r="G135">
+        <v>606</v>
+      </c>
+      <c r="H135">
+        <v>606</v>
+      </c>
+      <c r="I135">
+        <v>606</v>
+      </c>
+      <c r="K135">
+        <v>606</v>
+      </c>
+      <c r="L135">
+        <v>606</v>
+      </c>
+      <c r="M135">
+        <v>49</v>
+      </c>
+      <c r="N135" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="16">
+        <v>44955</v>
+      </c>
+      <c r="B136" t="s">
+        <v>313</v>
+      </c>
+      <c r="C136">
+        <v>606</v>
+      </c>
+      <c r="D136">
+        <v>606</v>
+      </c>
+      <c r="E136">
+        <v>606</v>
+      </c>
+      <c r="F136">
+        <v>606</v>
+      </c>
+      <c r="G136">
+        <v>606</v>
+      </c>
+      <c r="H136">
+        <v>606</v>
+      </c>
+      <c r="I136">
+        <v>606</v>
+      </c>
+      <c r="K136">
+        <v>606</v>
+      </c>
+      <c r="L136">
+        <v>606</v>
+      </c>
+      <c r="M136">
+        <v>26</v>
+      </c>
+      <c r="N136" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="16">
+        <v>44955</v>
+      </c>
+      <c r="B137" t="s">
+        <v>314</v>
+      </c>
+      <c r="C137">
+        <v>606</v>
+      </c>
+      <c r="D137">
+        <v>606</v>
+      </c>
+      <c r="E137">
+        <v>606</v>
+      </c>
+      <c r="F137">
+        <v>606</v>
+      </c>
+      <c r="G137">
+        <v>606</v>
+      </c>
+      <c r="H137">
+        <v>606</v>
+      </c>
+      <c r="I137">
+        <v>606</v>
+      </c>
+      <c r="K137">
+        <v>606</v>
+      </c>
+      <c r="L137">
+        <v>606</v>
+      </c>
+      <c r="M137">
+        <v>29</v>
+      </c>
+      <c r="N137" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="16">
+        <v>44955</v>
+      </c>
+      <c r="B138" t="s">
+        <v>315</v>
+      </c>
+      <c r="C138">
+        <v>606</v>
+      </c>
+      <c r="D138">
+        <v>606</v>
+      </c>
+      <c r="E138">
+        <v>606</v>
+      </c>
+      <c r="F138">
+        <v>606</v>
+      </c>
+      <c r="G138">
+        <v>606</v>
+      </c>
+      <c r="H138">
+        <v>606</v>
+      </c>
+      <c r="I138">
+        <v>606</v>
+      </c>
+      <c r="K138">
+        <v>606</v>
+      </c>
+      <c r="L138">
+        <v>606</v>
+      </c>
+      <c r="M138">
+        <v>48</v>
+      </c>
+      <c r="N138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="16">
+        <v>44955</v>
+      </c>
+      <c r="B139" t="s">
+        <v>316</v>
+      </c>
+      <c r="C139">
+        <v>606</v>
+      </c>
+      <c r="D139">
+        <v>606</v>
+      </c>
+      <c r="E139">
+        <v>606</v>
+      </c>
+      <c r="F139">
+        <v>606</v>
+      </c>
+      <c r="G139">
+        <v>606</v>
+      </c>
+      <c r="H139">
+        <v>606</v>
+      </c>
+      <c r="I139">
+        <v>606</v>
+      </c>
+      <c r="K139">
+        <v>606</v>
+      </c>
+      <c r="L139">
+        <v>606</v>
+      </c>
+      <c r="M139">
+        <v>19</v>
+      </c>
+      <c r="N139" s="62" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="16">
+        <v>44955</v>
+      </c>
+      <c r="B140" t="s">
+        <v>318</v>
+      </c>
+      <c r="C140">
+        <v>606</v>
+      </c>
+      <c r="D140">
+        <v>606</v>
+      </c>
+      <c r="E140">
+        <v>606</v>
+      </c>
+      <c r="F140">
+        <v>606</v>
+      </c>
+      <c r="G140">
+        <v>606</v>
+      </c>
+      <c r="H140">
+        <v>606</v>
+      </c>
+      <c r="I140">
+        <v>606</v>
+      </c>
+      <c r="K140">
+        <v>606</v>
+      </c>
+      <c r="L140">
+        <v>606</v>
+      </c>
+      <c r="M140">
+        <v>47</v>
+      </c>
+      <c r="N140" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="16">
+        <v>44955</v>
+      </c>
+      <c r="B141" t="s">
+        <v>319</v>
+      </c>
+      <c r="C141">
+        <v>606</v>
+      </c>
+      <c r="D141">
+        <v>606</v>
+      </c>
+      <c r="E141">
+        <v>606</v>
+      </c>
+      <c r="F141">
+        <v>606</v>
+      </c>
+      <c r="G141">
+        <v>606</v>
+      </c>
+      <c r="H141">
+        <v>606</v>
+      </c>
+      <c r="I141">
+        <v>606</v>
+      </c>
+      <c r="K141">
+        <v>606</v>
+      </c>
+      <c r="L141">
+        <v>606</v>
+      </c>
+      <c r="M141">
+        <v>28</v>
+      </c>
+      <c r="N141" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="16">
+        <v>44955</v>
+      </c>
+      <c r="B142" t="s">
+        <v>320</v>
+      </c>
+      <c r="C142">
+        <v>3.16</v>
+      </c>
+      <c r="D142">
+        <v>3.29</v>
+      </c>
+      <c r="E142">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F142">
+        <v>3.21</v>
+      </c>
+      <c r="G142">
+        <v>2.17</v>
+      </c>
+      <c r="H142">
+        <v>1.76</v>
+      </c>
+      <c r="I142">
+        <v>1.9</v>
+      </c>
+      <c r="K142">
+        <v>1.62</v>
+      </c>
+      <c r="L142" t="s">
+        <v>79</v>
+      </c>
+      <c r="M142">
+        <v>40</v>
+      </c>
+      <c r="N142" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="16">
+        <v>44955</v>
+      </c>
+      <c r="B143" t="s">
+        <v>321</v>
+      </c>
+      <c r="C143">
+        <v>606</v>
+      </c>
+      <c r="D143">
+        <v>606</v>
+      </c>
+      <c r="E143">
+        <v>606</v>
+      </c>
+      <c r="F143">
+        <v>606</v>
+      </c>
+      <c r="G143">
+        <v>606</v>
+      </c>
+      <c r="H143">
+        <v>606</v>
+      </c>
+      <c r="I143">
+        <v>606</v>
+      </c>
+      <c r="K143">
+        <v>606</v>
+      </c>
+      <c r="L143">
+        <v>606</v>
+      </c>
+      <c r="M143">
+        <v>15</v>
+      </c>
+      <c r="N143" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="16">
+        <v>44955</v>
+      </c>
+      <c r="B144" t="s">
+        <v>322</v>
+      </c>
+      <c r="C144">
+        <v>606</v>
+      </c>
+      <c r="D144">
+        <v>606</v>
+      </c>
+      <c r="E144">
+        <v>606</v>
+      </c>
+      <c r="F144">
+        <v>606</v>
+      </c>
+      <c r="G144">
+        <v>606</v>
+      </c>
+      <c r="H144">
+        <v>606</v>
+      </c>
+      <c r="I144">
+        <v>606</v>
+      </c>
+      <c r="K144">
+        <v>606</v>
+      </c>
+      <c r="L144">
+        <v>606</v>
+      </c>
+      <c r="M144">
+        <v>17</v>
+      </c>
+      <c r="N144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="16">
+        <v>44955</v>
+      </c>
+      <c r="B145" t="s">
+        <v>323</v>
+      </c>
+      <c r="C145">
+        <v>606</v>
+      </c>
+      <c r="D145">
+        <v>606</v>
+      </c>
+      <c r="E145">
+        <v>606</v>
+      </c>
+      <c r="F145">
+        <v>606</v>
+      </c>
+      <c r="G145">
+        <v>606</v>
+      </c>
+      <c r="H145">
+        <v>606</v>
+      </c>
+      <c r="I145">
+        <v>606</v>
+      </c>
+      <c r="K145">
+        <v>606</v>
+      </c>
+      <c r="L145">
+        <v>606</v>
+      </c>
+      <c r="M145">
+        <v>33</v>
+      </c>
+      <c r="N145" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="16">
+        <v>44955</v>
+      </c>
+      <c r="B146" t="s">
+        <v>324</v>
+      </c>
+      <c r="C146">
+        <v>606</v>
+      </c>
+      <c r="D146">
+        <v>606</v>
+      </c>
+      <c r="E146">
+        <v>606</v>
+      </c>
+      <c r="F146">
+        <v>606</v>
+      </c>
+      <c r="G146">
+        <v>606</v>
+      </c>
+      <c r="H146">
+        <v>606</v>
+      </c>
+      <c r="I146">
+        <v>606</v>
+      </c>
+      <c r="K146">
+        <v>606</v>
+      </c>
+      <c r="L146">
+        <v>606</v>
+      </c>
+      <c r="M146">
+        <v>38</v>
+      </c>
+      <c r="N146" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="16">
+        <v>44956</v>
+      </c>
+      <c r="B147" t="s">
+        <v>325</v>
+      </c>
+      <c r="C147">
+        <v>606</v>
+      </c>
+      <c r="D147">
+        <v>606</v>
+      </c>
+      <c r="E147">
+        <v>606</v>
+      </c>
+      <c r="F147">
+        <v>606</v>
+      </c>
+      <c r="G147">
+        <v>606</v>
+      </c>
+      <c r="H147">
+        <v>606</v>
+      </c>
+      <c r="I147">
+        <v>606</v>
+      </c>
+      <c r="K147">
+        <v>606</v>
+      </c>
+      <c r="L147">
+        <v>606</v>
+      </c>
+      <c r="M147">
+        <v>73</v>
+      </c>
+      <c r="N147" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="16">
+        <v>44956</v>
+      </c>
+      <c r="B148" t="s">
+        <v>326</v>
+      </c>
+      <c r="C148">
+        <v>1.81</v>
+      </c>
+      <c r="D148">
+        <v>3.71</v>
+      </c>
+      <c r="E148">
+        <v>4.92</v>
+      </c>
+      <c r="F148">
+        <v>3.63</v>
+      </c>
+      <c r="G148">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H148">
+        <v>1.89</v>
+      </c>
+      <c r="I148">
+        <v>1.75</v>
+      </c>
+      <c r="K148">
+        <v>1.5</v>
+      </c>
+      <c r="L148" t="s">
+        <v>87</v>
+      </c>
+      <c r="M148">
+        <v>40</v>
+      </c>
+      <c r="N148" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" s="16">
+        <v>44957</v>
+      </c>
+      <c r="B149" t="s">
+        <v>327</v>
+      </c>
+      <c r="C149">
+        <v>3.74</v>
+      </c>
+      <c r="D149">
+        <v>3.1</v>
+      </c>
+      <c r="E149">
+        <v>2.25</v>
+      </c>
+      <c r="F149">
+        <v>2.65</v>
+      </c>
+      <c r="G149">
+        <v>2.52</v>
+      </c>
+      <c r="H149">
+        <v>1.56</v>
+      </c>
+      <c r="I149">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K149">
+        <v>1.88</v>
+      </c>
+      <c r="L149" t="s">
+        <v>81</v>
+      </c>
+      <c r="M149">
+        <v>46</v>
+      </c>
+      <c r="N149" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="16">
+        <v>44957</v>
+      </c>
+      <c r="B150" t="s">
+        <v>328</v>
+      </c>
+      <c r="C150">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D150">
+        <v>2.87</v>
+      </c>
+      <c r="E150">
+        <v>3.35</v>
+      </c>
+      <c r="F150">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G150">
+        <v>2.66</v>
+      </c>
+      <c r="H150">
+        <v>1.51</v>
+      </c>
+      <c r="I150">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K150">
+        <v>1.98</v>
+      </c>
+      <c r="L150" t="s">
+        <v>78</v>
+      </c>
+      <c r="M150">
+        <v>31</v>
+      </c>
+      <c r="N150" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="16">
+        <v>44957</v>
+      </c>
+      <c r="B151" t="s">
+        <v>329</v>
+      </c>
+      <c r="C151">
+        <v>2.86</v>
+      </c>
+      <c r="D151">
+        <v>2.83</v>
+      </c>
+      <c r="E151">
+        <v>3.04</v>
+      </c>
+      <c r="F151">
+        <v>2.4</v>
+      </c>
+      <c r="G151">
+        <v>2.85</v>
+      </c>
+      <c r="H151">
+        <v>1.44</v>
+      </c>
+      <c r="I151">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="K151">
+        <v>2.12</v>
+      </c>
+      <c r="L151" t="s">
+        <v>79</v>
+      </c>
+      <c r="M151">
+        <v>34</v>
+      </c>
+      <c r="N151" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="16">
+        <v>44957</v>
+      </c>
+      <c r="B152" t="s">
+        <v>330</v>
+      </c>
+      <c r="C152">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D152">
+        <v>3.32</v>
+      </c>
+      <c r="E152">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F152">
+        <v>3.01</v>
+      </c>
+      <c r="G152">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H152">
+        <v>1.69</v>
+      </c>
+      <c r="I152">
+        <v>1.97</v>
+      </c>
+      <c r="K152">
+        <v>1.67</v>
+      </c>
+      <c r="L152" t="s">
+        <v>78</v>
+      </c>
+      <c r="M152">
+        <v>38</v>
+      </c>
+      <c r="N152" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="16">
+        <v>44957</v>
+      </c>
+      <c r="B153" t="s">
+        <v>331</v>
+      </c>
+      <c r="C153">
+        <v>3.08</v>
+      </c>
+      <c r="D153">
+        <v>3.13</v>
+      </c>
+      <c r="E153">
+        <v>2.57</v>
+      </c>
+      <c r="F153">
+        <v>3.17</v>
+      </c>
+      <c r="G153">
+        <v>2.19</v>
+      </c>
+      <c r="H153">
+        <v>1.72</v>
+      </c>
+      <c r="I153">
+        <v>1.91</v>
+      </c>
+      <c r="K153">
+        <v>1.62</v>
+      </c>
+      <c r="L153" t="s">
+        <v>336</v>
+      </c>
+      <c r="M153">
+        <v>47</v>
+      </c>
+      <c r="N153" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="16">
+        <v>44957</v>
+      </c>
+      <c r="B154" t="s">
+        <v>332</v>
+      </c>
+      <c r="C154">
+        <v>1.83</v>
+      </c>
+      <c r="D154">
+        <v>3.48</v>
+      </c>
+      <c r="E154">
+        <v>4.93</v>
+      </c>
+      <c r="F154">
+        <v>3.01</v>
+      </c>
+      <c r="G154">
+        <v>2.25</v>
+      </c>
+      <c r="H154">
+        <v>1.68</v>
+      </c>
+      <c r="I154">
+        <v>1.97</v>
+      </c>
+      <c r="K154">
+        <v>1.68</v>
+      </c>
+      <c r="L154" t="s">
+        <v>87</v>
+      </c>
+      <c r="M154">
+        <v>11</v>
+      </c>
+      <c r="N154" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="16">
+        <v>44957</v>
+      </c>
+      <c r="B155" t="s">
+        <v>333</v>
+      </c>
+      <c r="C155">
+        <v>2.84</v>
+      </c>
+      <c r="D155">
+        <v>3.17</v>
+      </c>
+      <c r="E155">
+        <v>2.74</v>
+      </c>
+      <c r="F155">
+        <v>3.19</v>
+      </c>
+      <c r="G155">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H155">
+        <v>1.72</v>
+      </c>
+      <c r="I155">
+        <v>1.91</v>
+      </c>
+      <c r="K155">
+        <v>1.61</v>
+      </c>
+      <c r="L155" t="s">
+        <v>81</v>
+      </c>
+      <c r="M155">
+        <v>42</v>
+      </c>
+      <c r="N155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K1:K3">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"NOT INVEST"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,16 +8544,20 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
-        <v>45125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
+        <v>45123</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="M4">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1630,12 +8565,26 @@
         <v>45125</v>
       </c>
       <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5">
+        <v>34</v>
+      </c>
+      <c r="N5" s="62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>45125</v>
+      </c>
+      <c r="B6" t="s">
         <v>140</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>68</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N6" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1650,12 +8599,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2672,12 +9621,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3966,6 +10915,27 @@
       <c r="B33" t="s">
         <v>137</v>
       </c>
+      <c r="C33" s="61">
+        <v>1.97</v>
+      </c>
+      <c r="D33" s="61">
+        <v>3.24</v>
+      </c>
+      <c r="E33" s="61">
+        <v>4.41</v>
+      </c>
+      <c r="F33" s="61">
+        <v>2.7</v>
+      </c>
+      <c r="G33" s="61">
+        <v>2.52</v>
+      </c>
+      <c r="H33" s="61">
+        <v>1.5369999999999999</v>
+      </c>
+      <c r="I33" s="61">
+        <v>2.19</v>
+      </c>
       <c r="J33" s="59" t="s">
         <v>19</v>
       </c>
@@ -3978,11 +10948,32 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B34" t="s">
         <v>138</v>
       </c>
+      <c r="C34" s="61">
+        <v>505</v>
+      </c>
+      <c r="D34" s="61">
+        <v>505</v>
+      </c>
+      <c r="E34" s="61">
+        <v>505</v>
+      </c>
+      <c r="F34" s="61">
+        <v>505</v>
+      </c>
+      <c r="G34" s="61">
+        <v>505</v>
+      </c>
+      <c r="H34" s="61">
+        <v>505</v>
+      </c>
+      <c r="I34" s="61">
+        <v>505</v>
+      </c>
       <c r="J34" s="60" t="s">
         <v>19</v>
       </c>
@@ -3995,11 +10986,32 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B35" t="s">
         <v>140</v>
       </c>
+      <c r="C35" s="61">
+        <v>3.18</v>
+      </c>
+      <c r="D35" s="61">
+        <v>2.95</v>
+      </c>
+      <c r="E35" s="61">
+        <v>2.36</v>
+      </c>
+      <c r="F35" s="61">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G35" s="61">
+        <v>2.56</v>
+      </c>
+      <c r="H35" s="61">
+        <v>1.47</v>
+      </c>
+      <c r="I35" s="61">
+        <v>2.27</v>
+      </c>
       <c r="J35" s="60" t="s">
         <v>19</v>
       </c>
@@ -4011,7 +11023,156 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M36" s="6"/>
+      <c r="A36" s="16">
+        <v>45127</v>
+      </c>
+      <c r="B36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="64">
+        <v>2.38</v>
+      </c>
+      <c r="D36" s="64">
+        <v>3.33</v>
+      </c>
+      <c r="E36" s="64">
+        <v>2.79</v>
+      </c>
+      <c r="F36" s="64">
+        <v>404</v>
+      </c>
+      <c r="G36" s="64">
+        <v>1.819</v>
+      </c>
+      <c r="H36" s="64">
+        <v>1.99</v>
+      </c>
+      <c r="I36" s="64">
+        <v>1.591</v>
+      </c>
+      <c r="J36" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="6">
+        <v>60</v>
+      </c>
+      <c r="N36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <v>45127</v>
+      </c>
+      <c r="B37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="64">
+        <v>3.48</v>
+      </c>
+      <c r="D37" s="64">
+        <v>3.22</v>
+      </c>
+      <c r="E37" s="64">
+        <v>2.1</v>
+      </c>
+      <c r="F37" s="64">
+        <v>404</v>
+      </c>
+      <c r="G37" s="64">
+        <v>2.09</v>
+      </c>
+      <c r="H37" s="64">
+        <v>1.704</v>
+      </c>
+      <c r="I37" s="64">
+        <v>1.869</v>
+      </c>
+      <c r="J37" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" s="6">
+        <v>37</v>
+      </c>
+      <c r="N37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>45127</v>
+      </c>
+      <c r="B38" t="s">
+        <v>334</v>
+      </c>
+      <c r="C38" s="64">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D38" s="64">
+        <v>2.96</v>
+      </c>
+      <c r="E38" s="64">
+        <v>3.3</v>
+      </c>
+      <c r="F38" s="64">
+        <v>2.56</v>
+      </c>
+      <c r="G38" s="64">
+        <v>2.78</v>
+      </c>
+      <c r="H38" s="64">
+        <v>1.4710000000000001</v>
+      </c>
+      <c r="I38" s="64">
+        <v>2.4</v>
+      </c>
+      <c r="J38" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" s="6">
+        <v>42</v>
+      </c>
+      <c r="N38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>45127</v>
+      </c>
+      <c r="B39" t="s">
+        <v>335</v>
+      </c>
+      <c r="C39" s="64">
+        <v>2.21</v>
+      </c>
+      <c r="D39" s="64">
+        <v>3.04</v>
+      </c>
+      <c r="E39" s="64">
+        <v>3.95</v>
+      </c>
+      <c r="F39" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="G39" s="64">
+        <v>2.76</v>
+      </c>
+      <c r="H39" s="64">
+        <v>1.478</v>
+      </c>
+      <c r="I39" s="64">
+        <v>2.4</v>
+      </c>
+      <c r="J39" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="6">
+        <v>44</v>
+      </c>
+      <c r="N39" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K14">
@@ -4024,12 +11185,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4089,11 +11250,11 @@
         <v>125</v>
       </c>
       <c r="F2" s="57">
-        <f>C2*D$47</f>
+        <f>C2*D$48</f>
         <v>2928</v>
       </c>
       <c r="G2" s="57">
-        <f>(F2-D$47)/2</f>
+        <f>(F2-D$48)/2</f>
         <v>864</v>
       </c>
       <c r="H2" s="56" t="s">
@@ -4123,7 +11284,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="21">
-        <f t="shared" ref="G3:G9" si="0">F3-D$47</f>
+        <f t="shared" ref="G3:G9" si="0">F3-D$48</f>
         <v>-1200</v>
       </c>
       <c r="H3" s="49" t="s">
@@ -4150,7 +11311,7 @@
         <v>94</v>
       </c>
       <c r="F4" s="21">
-        <f>C4*D$47</f>
+        <f>C4*D$48</f>
         <v>2340</v>
       </c>
       <c r="G4" s="21">
@@ -4209,7 +11370,7 @@
         <v>93</v>
       </c>
       <c r="F6" s="21">
-        <f>C6*D$47</f>
+        <f>C6*D$48</f>
         <v>2280</v>
       </c>
       <c r="G6" s="21">
@@ -4240,7 +11401,7 @@
         <v>93</v>
       </c>
       <c r="F7" s="21">
-        <f>C7*D$47</f>
+        <f>C7*D$48</f>
         <v>1932.0000000000002</v>
       </c>
       <c r="G7" s="21">
@@ -4271,7 +11432,7 @@
         <v>94</v>
       </c>
       <c r="F8" s="21">
-        <f>C8*D$47</f>
+        <f>C8*D$48</f>
         <v>2340</v>
       </c>
       <c r="G8" s="21">
@@ -4332,11 +11493,11 @@
         <v>125</v>
       </c>
       <c r="F10" s="21">
-        <f>C10*D$47</f>
+        <f>C10*D$48</f>
         <v>2676</v>
       </c>
       <c r="G10" s="21">
-        <f>(F10-D$47)/2</f>
+        <f>(F10-D$48)/2</f>
         <v>738</v>
       </c>
       <c r="H10" s="49" t="s">
@@ -4363,11 +11524,11 @@
         <v>93</v>
       </c>
       <c r="F11" s="21">
-        <f>C11*D$47</f>
+        <f>C11*D$48</f>
         <v>2220</v>
       </c>
       <c r="G11" s="21">
-        <f>F11-D$47</f>
+        <f>F11-D$48</f>
         <v>1020</v>
       </c>
       <c r="H11" s="49" t="s">
@@ -4394,11 +11555,11 @@
         <v>93</v>
       </c>
       <c r="F12" s="21">
-        <f>C12*D$47</f>
+        <f>C12*D$48</f>
         <v>1812</v>
       </c>
       <c r="G12" s="21">
-        <f>F12-D$47</f>
+        <f>F12-D$48</f>
         <v>612</v>
       </c>
       <c r="H12" s="49" t="s">
@@ -4428,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="21">
-        <f t="shared" ref="G13:G17" si="1">F13-D$47</f>
+        <f t="shared" ref="G13:G17" si="1">F13-D$48</f>
         <v>-1200</v>
       </c>
       <c r="H13" s="49" t="s">
@@ -4515,7 +11676,7 @@
         <v>93</v>
       </c>
       <c r="F16" s="21">
-        <f t="shared" ref="F16:F18" si="2">C16*D$47</f>
+        <f t="shared" ref="F16:F18" si="2">C16*D$48</f>
         <v>2316</v>
       </c>
       <c r="G16" s="21">
@@ -4581,7 +11742,7 @@
         <v>2376</v>
       </c>
       <c r="G18" s="21">
-        <f>(F18-D$470)/2</f>
+        <f>(F18-D$471)/2</f>
         <v>1188</v>
       </c>
       <c r="H18" s="49" t="s">
@@ -4608,11 +11769,11 @@
         <v>93</v>
       </c>
       <c r="F19" s="21">
-        <f>C19*D$47</f>
+        <f>C19*D$48</f>
         <v>2100</v>
       </c>
       <c r="G19" s="21">
-        <f>F19-D$47</f>
+        <f>F19-D$48</f>
         <v>900</v>
       </c>
       <c r="H19" s="49" t="s">
@@ -4639,11 +11800,11 @@
         <v>125</v>
       </c>
       <c r="F20" s="21">
-        <f>C20*D$47</f>
+        <f>C20*D$48</f>
         <v>2604</v>
       </c>
       <c r="G20" s="21">
-        <f>F20-D$47</f>
+        <f>F20-D$48</f>
         <v>1404</v>
       </c>
       <c r="H20" s="49" t="s">
@@ -4697,11 +11858,11 @@
         <v>94</v>
       </c>
       <c r="F22" s="21">
-        <f>C22*D$47</f>
+        <f>C22*D$48</f>
         <v>2400</v>
       </c>
       <c r="G22" s="21">
-        <f>F22-D$47</f>
+        <f>F22-D$48</f>
         <v>1200</v>
       </c>
       <c r="H22" s="49" t="s">
@@ -4718,18 +11879,22 @@
       <c r="B23" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="11">
-        <v>1.86</v>
-      </c>
+      <c r="C23" s="11"/>
       <c r="D23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="53" t="s">
         <v>94</v>
       </c>
       <c r="F23" s="21">
-        <f>C23*D$47</f>
-        <v>2232</v>
+        <f t="shared" ref="F23:F29" si="3">C23*D$48</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="21">
+        <v>0</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>81</v>
       </c>
       <c r="I23" t="s">
         <v>35</v>
@@ -4748,15 +11913,19 @@
       <c r="D24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="20" t="s">
         <v>125</v>
       </c>
       <c r="F24" s="21">
-        <f>C24*D$47</f>
-        <v>2292</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="49"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="21">
+        <f t="shared" ref="G24:G29" si="4">F24-D$48</f>
+        <v>-1200</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>87</v>
+      </c>
       <c r="I24" t="s">
         <v>130</v>
       </c>
@@ -4774,62 +11943,140 @@
       <c r="D25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="20" t="s">
         <v>125</v>
       </c>
       <c r="F25" s="21">
-        <f>C25*D$47</f>
-        <v>2304</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="49"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
+        <f t="shared" si="4"/>
+        <v>-1200</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>88</v>
+      </c>
       <c r="I25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="49"/>
+      <c r="A26" s="16">
+        <v>45125</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" si="4"/>
+        <v>-1200</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="49"/>
+      <c r="A27" s="16">
+        <v>45127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1.55</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21">
+        <f t="shared" si="4"/>
+        <v>-1200</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="16">
+        <v>45127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>334</v>
+      </c>
+      <c r="C28" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="4"/>
+        <v>-1200</v>
+      </c>
       <c r="H28" s="49"/>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="16">
+        <v>45127</v>
+      </c>
+      <c r="B29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0</v>
+      </c>
+      <c r="G29" s="21">
+        <f>(F29-D$48)/2</f>
+        <v>-600</v>
+      </c>
       <c r="H29" s="49"/>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="6"/>
       <c r="C30" s="11"/>
       <c r="D30" s="6"/>
       <c r="E30" s="45"/>
@@ -4868,63 +12115,58 @@
       <c r="H33" s="49"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="11"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="24"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
-      <c r="H34" s="25"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="42">
-        <f>COUNT(C2:C25)</f>
-        <v>22</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="22">
-        <v>6</v>
-      </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="27"/>
+      <c r="D37" s="42">
+        <f>COUNT(C2:C29)</f>
+        <v>25</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="25">
-        <f>D36-D37</f>
-        <v>16</v>
+      <c r="D38" s="22">
+        <v>9</v>
       </c>
       <c r="E38" s="27"/>
       <c r="F38" s="28"/>
@@ -4934,12 +12176,12 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="6">
-        <f>D38/D36*100</f>
-        <v>72.727272727272734</v>
+      <c r="D39" s="25">
+        <f>D37-D38</f>
+        <v>16</v>
       </c>
       <c r="E39" s="27"/>
       <c r="F39" s="28"/>
@@ -4949,12 +12191,12 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6">
-        <f>1/D41*100</f>
-        <v>49.909255898366609</v>
+        <f>D39/D37*100</f>
+        <v>64</v>
       </c>
       <c r="E40" s="27"/>
       <c r="F40" s="28"/>
@@ -4964,12 +12206,12 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6">
-        <f>SUM(C2:C25)/D36</f>
-        <v>2.0036363636363634</v>
+        <f>1/D42*100</f>
+        <v>49.800796812749006</v>
       </c>
       <c r="E41" s="27"/>
       <c r="F41" s="28"/>
@@ -4979,12 +12221,12 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="D42" s="25">
-        <f>D39-D40</f>
-        <v>22.818016828906124</v>
+      <c r="D42" s="6">
+        <f>SUM(C2:C29)/D37</f>
+        <v>2.008</v>
       </c>
       <c r="E42" s="27"/>
       <c r="F42" s="28"/>
@@ -4994,26 +12236,27 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="25">
-        <f>D42/1</f>
-        <v>22.818016828906124</v>
+        <f>D40-D41</f>
+        <v>14.199203187250994</v>
       </c>
       <c r="E43" s="27"/>
       <c r="F43" s="28"/>
       <c r="G43" s="29"/>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="30" t="s">
-        <v>103</v>
+      <c r="B44" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="31">
-        <v>30000</v>
+      <c r="D44" s="25">
+        <f>D43/1</f>
+        <v>14.199203187250994</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="28"/>
@@ -5022,11 +12265,11 @@
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
-        <v>104</v>
+      <c r="B45" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="C45" s="6"/>
-      <c r="D45" s="32">
+      <c r="D45" s="31">
         <v>30000</v>
       </c>
       <c r="E45" s="27"/>
@@ -5034,15 +12277,14 @@
       <c r="G45" s="29"/>
       <c r="H45" s="27"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="21">
-        <f>D45/100</f>
-        <v>300</v>
+      <c r="D46" s="32">
+        <v>30000</v>
       </c>
       <c r="E46" s="27"/>
       <c r="F46" s="28"/>
@@ -5051,13 +12293,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="33" t="s">
-        <v>124</v>
+      <c r="B47" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="34">
-        <f>D46*4</f>
-        <v>1200</v>
+      <c r="D47" s="21">
+        <f>D46/100</f>
+        <v>300</v>
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="28"/>
@@ -5066,13 +12308,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="6" t="s">
-        <v>106</v>
+      <c r="B48" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="41">
-        <f>SUM(G2:G34)</f>
-        <v>7014</v>
+      <c r="D48" s="34">
+        <f>D47*4</f>
+        <v>1200</v>
       </c>
       <c r="E48" s="27"/>
       <c r="F48" s="28"/>
@@ -5081,13 +12323,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="35" t="s">
-        <v>107</v>
+      <c r="B49" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="10">
-        <f>D48/D44*100</f>
-        <v>23.380000000000003</v>
+      <c r="D49" s="41">
+        <f>SUM(G2:G35)</f>
+        <v>414</v>
       </c>
       <c r="E49" s="27"/>
       <c r="F49" s="28"/>
@@ -5096,9 +12338,14 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+      <c r="B50" s="35" t="s">
+        <v>107</v>
+      </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="10"/>
+      <c r="D50" s="10">
+        <f>D49/D45*100</f>
+        <v>1.38</v>
+      </c>
       <c r="E50" s="27"/>
       <c r="F50" s="28"/>
       <c r="G50" s="29"/>
@@ -5116,7 +12363,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="36"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="10"/>
       <c r="E52" s="27"/>
@@ -5144,12 +12391,22 @@
       <c r="G54" s="29"/>
       <c r="H54" s="27"/>
     </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
   </mergeCells>
-  <conditionalFormatting sqref="E37:E54 H37:H54">
+  <conditionalFormatting sqref="E38:E55 H38:H55">
     <cfRule type="cellIs" dxfId="4" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -5160,7 +12417,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G34 G2:G22">
+  <conditionalFormatting sqref="G2:G35">
     <cfRule type="cellIs" dxfId="1" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -19448,8 +19448,32 @@
       <c r="B6" t="s">
         <v>817</v>
       </c>
+      <c r="C6">
+        <v>1.97</v>
+      </c>
+      <c r="D6">
+        <v>3.05</v>
+      </c>
+      <c r="E6">
+        <v>4.37</v>
+      </c>
+      <c r="F6">
+        <v>2.56</v>
+      </c>
+      <c r="G6">
+        <v>2.52</v>
+      </c>
+      <c r="H6">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="I6">
+        <v>2.2200000000000002</v>
+      </c>
       <c r="J6" t="s">
         <v>18</v>
+      </c>
+      <c r="K6">
+        <v>1.8919999999999999</v>
       </c>
       <c r="M6">
         <v>49</v>
@@ -19459,6 +19483,9 @@
       </c>
       <c r="O6">
         <v>2.57</v>
+      </c>
+      <c r="P6">
+        <v>1.6319999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -19468,8 +19495,32 @@
       <c r="B7" t="s">
         <v>818</v>
       </c>
+      <c r="C7">
+        <v>2.02</v>
+      </c>
+      <c r="D7">
+        <v>3.12</v>
+      </c>
+      <c r="E7">
+        <v>4.03</v>
+      </c>
+      <c r="F7">
+        <v>2.48</v>
+      </c>
+      <c r="G7">
+        <v>2.6</v>
+      </c>
+      <c r="H7">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="I7">
+        <v>2.29</v>
+      </c>
       <c r="J7" t="s">
         <v>18</v>
+      </c>
+      <c r="K7">
+        <v>1.9610000000000001</v>
       </c>
       <c r="M7">
         <v>64</v>
@@ -19479,6 +19530,9 @@
       </c>
       <c r="O7">
         <v>2.0299999999999998</v>
+      </c>
+      <c r="P7">
+        <v>1.671</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -19488,8 +19542,32 @@
       <c r="B8" t="s">
         <v>819</v>
       </c>
+      <c r="C8">
+        <v>3.36</v>
+      </c>
+      <c r="D8">
+        <v>3.32</v>
+      </c>
+      <c r="E8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F8">
+        <v>2.84</v>
+      </c>
+      <c r="G8">
+        <v>2.41</v>
+      </c>
+      <c r="H8">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="I8">
+        <v>2.1</v>
+      </c>
       <c r="J8" t="s">
         <v>18</v>
+      </c>
+      <c r="K8">
+        <v>1.7749999999999999</v>
       </c>
       <c r="M8">
         <v>41</v>
@@ -19499,6 +19577,9 @@
       </c>
       <c r="O8">
         <v>2.3199999999999998</v>
+      </c>
+      <c r="P8">
+        <v>1.446</v>
       </c>
     </row>
   </sheetData>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="janeiro" sheetId="5" r:id="rId1"/>
@@ -11015,7 +11015,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14034,7 +14034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="Q1" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -17972,7 +17972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -19188,7 +19188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -19597,8 +19597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26727,8 +26727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32745,8 +32745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42019,8 +42019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="janeiro" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3765" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3783" uniqueCount="826">
   <si>
     <t>DATA</t>
   </si>
@@ -2506,6 +2506,24 @@
   </si>
   <si>
     <t>TOKUSHIMA V. vs JEF UTD CHIBA</t>
+  </si>
+  <si>
+    <t>DETROIT CITY vs CHARLESTON</t>
+  </si>
+  <si>
+    <t>MIAMI FC vs INDY ELEVEN</t>
+  </si>
+  <si>
+    <t>SAO BERNARDO vs AMAZONAS</t>
+  </si>
+  <si>
+    <t>CSA vs BOTAFOGO PB</t>
+  </si>
+  <si>
+    <t> EC SAO JOSE vs FIGUEIRENSE</t>
+  </si>
+  <si>
+    <t>LOUISVILLE CITY vs RIO GRANDE</t>
   </si>
 </sst>
 </file>
@@ -19186,10 +19204,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19580,6 +19598,288 @@
       </c>
       <c r="P8">
         <v>1.446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>45150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>822</v>
+      </c>
+      <c r="C9">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D9">
+        <v>2.94</v>
+      </c>
+      <c r="E9">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F9">
+        <v>2.4</v>
+      </c>
+      <c r="G9">
+        <v>2.64</v>
+      </c>
+      <c r="H9">
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="I9">
+        <v>2.33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>1.99</v>
+      </c>
+      <c r="M9">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9">
+        <v>2.5</v>
+      </c>
+      <c r="P9">
+        <v>1.6890000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>45151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>820</v>
+      </c>
+      <c r="C10">
+        <v>2.61</v>
+      </c>
+      <c r="D10">
+        <v>3.22</v>
+      </c>
+      <c r="E10">
+        <v>2.7</v>
+      </c>
+      <c r="F10">
+        <v>404</v>
+      </c>
+      <c r="G10">
+        <v>2.13</v>
+      </c>
+      <c r="H10">
+        <v>1.704</v>
+      </c>
+      <c r="I10">
+        <v>1.8620000000000001</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="M10">
+        <v>37</v>
+      </c>
+      <c r="N10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="P10">
+        <v>1.427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>45151</v>
+      </c>
+      <c r="B11" t="s">
+        <v>821</v>
+      </c>
+      <c r="C11">
+        <v>1.9</v>
+      </c>
+      <c r="D11">
+        <v>3.49</v>
+      </c>
+      <c r="E11">
+        <v>3.97</v>
+      </c>
+      <c r="F11">
+        <v>404</v>
+      </c>
+      <c r="G11">
+        <v>2.02</v>
+      </c>
+      <c r="H11">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="I11">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="M11">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11">
+        <v>2.59</v>
+      </c>
+      <c r="P11">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>45151</v>
+      </c>
+      <c r="B12" t="s">
+        <v>823</v>
+      </c>
+      <c r="C12" s="49">
+        <v>2.14</v>
+      </c>
+      <c r="D12" s="49">
+        <v>2.84</v>
+      </c>
+      <c r="E12" s="49">
+        <v>4.07</v>
+      </c>
+      <c r="F12" s="49">
+        <v>2.39</v>
+      </c>
+      <c r="G12" s="49">
+        <v>2.75</v>
+      </c>
+      <c r="H12" s="49">
+        <v>1.423</v>
+      </c>
+      <c r="I12" s="49">
+        <v>2.42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>2.06</v>
+      </c>
+      <c r="M12">
+        <v>57</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12">
+        <v>1.67</v>
+      </c>
+      <c r="P12">
+        <v>1.724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>45151</v>
+      </c>
+      <c r="B13" t="s">
+        <v>824</v>
+      </c>
+      <c r="C13" s="49">
+        <v>2.06</v>
+      </c>
+      <c r="D13" s="49">
+        <v>3.08</v>
+      </c>
+      <c r="E13" s="49">
+        <v>3.94</v>
+      </c>
+      <c r="F13" s="49">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G13" s="49">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H13" s="49">
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="I13" s="49">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>1.917</v>
+      </c>
+      <c r="M13">
+        <v>76</v>
+      </c>
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13">
+        <v>2.15</v>
+      </c>
+      <c r="P13">
+        <v>1.645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>45151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>825</v>
+      </c>
+      <c r="C14">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="D14">
+        <v>3.62</v>
+      </c>
+      <c r="E14">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F14">
+        <v>404</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>1.833</v>
+      </c>
+      <c r="I14">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>1.4710000000000001</v>
+      </c>
+      <c r="M14">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14">
+        <v>2.27</v>
+      </c>
+      <c r="P14">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -19597,7 +19897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3783" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3795" uniqueCount="830">
   <si>
     <t>DATA</t>
   </si>
@@ -2524,6 +2524,18 @@
   </si>
   <si>
     <t>LOUISVILLE CITY vs RIO GRANDE</t>
+  </si>
+  <si>
+    <t>CARLISLE UTD vs EXETER CITY</t>
+  </si>
+  <si>
+    <t>FAGIANO OKAYAMA vs OITA TRINITA</t>
+  </si>
+  <si>
+    <t>FC TULSA vs TAMPA BAY</t>
+  </si>
+  <si>
+    <t>SHIMIZU S-PULSE vs MACHIDA ZELVIA</t>
   </si>
 </sst>
 </file>
@@ -19204,10 +19216,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19879,6 +19891,194 @@
         <v>2.27</v>
       </c>
       <c r="P14">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>45157</v>
+      </c>
+      <c r="B15" t="s">
+        <v>826</v>
+      </c>
+      <c r="C15">
+        <v>2.72</v>
+      </c>
+      <c r="D15">
+        <v>3.31</v>
+      </c>
+      <c r="E15">
+        <v>2.75</v>
+      </c>
+      <c r="F15">
+        <v>3.37</v>
+      </c>
+      <c r="G15">
+        <v>2.1</v>
+      </c>
+      <c r="H15">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="I15">
+        <v>1.833</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>1.552</v>
+      </c>
+      <c r="M15">
+        <v>58</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>45157</v>
+      </c>
+      <c r="B16" t="s">
+        <v>827</v>
+      </c>
+      <c r="C16">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D16">
+        <v>3.29</v>
+      </c>
+      <c r="E16">
+        <v>2.97</v>
+      </c>
+      <c r="F16">
+        <v>3.17</v>
+      </c>
+      <c r="G16">
+        <v>2.19</v>
+      </c>
+      <c r="H16">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="I16">
+        <v>1.909</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>1.617</v>
+      </c>
+      <c r="M16">
+        <v>30</v>
+      </c>
+      <c r="N16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16">
+        <v>2.52</v>
+      </c>
+      <c r="P16">
+        <v>1.4710000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>45157</v>
+      </c>
+      <c r="B17" t="s">
+        <v>828</v>
+      </c>
+      <c r="C17">
+        <v>3.22</v>
+      </c>
+      <c r="D17">
+        <v>3.43</v>
+      </c>
+      <c r="E17">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="F17">
+        <v>404</v>
+      </c>
+      <c r="G17">
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="I17">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="M17">
+        <v>58</v>
+      </c>
+      <c r="N17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="P17">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>45157</v>
+      </c>
+      <c r="B18" t="s">
+        <v>829</v>
+      </c>
+      <c r="C18">
+        <v>2.09</v>
+      </c>
+      <c r="D18">
+        <v>3.41</v>
+      </c>
+      <c r="E18">
+        <v>3.8</v>
+      </c>
+      <c r="F18">
+        <v>3.51</v>
+      </c>
+      <c r="G18">
+        <v>2.04</v>
+      </c>
+      <c r="H18">
+        <v>1.84</v>
+      </c>
+      <c r="I18">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>1.512</v>
+      </c>
+      <c r="M18">
+        <v>38</v>
+      </c>
+      <c r="N18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18">
+        <v>2.54</v>
+      </c>
+      <c r="P18">
         <v>404</v>
       </c>
     </row>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="janeiro" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3795" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="840">
   <si>
     <t>DATA</t>
   </si>
@@ -2536,6 +2536,36 @@
   </si>
   <si>
     <t>SHIMIZU S-PULSE vs MACHIDA ZELVIA</t>
+  </si>
+  <si>
+    <t>CSA vs REMO</t>
+  </si>
+  <si>
+    <t>NEW YORK CITY vs MINNESOTA UTD</t>
+  </si>
+  <si>
+    <t>AMAZONAS vs CSA</t>
+  </si>
+  <si>
+    <t>BARROW vs WREXHAM</t>
+  </si>
+  <si>
+    <t>CHARLESTON vs MEMPHIS</t>
+  </si>
+  <si>
+    <t>CHARLOTTE vs LOS ANGELES FC</t>
+  </si>
+  <si>
+    <t>OPERARIO PR vs BRUSQUE</t>
+  </si>
+  <si>
+    <t>SALFORD CITY vs ACCRINGTON</t>
+  </si>
+  <si>
+    <t>TOKYO VERDY vs FAGIANO OKAYAMA</t>
+  </si>
+  <si>
+    <t>WIGAN ATHLETIC vs BARNSLEY</t>
   </si>
 </sst>
 </file>
@@ -2743,7 +2773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -2953,9 +2983,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -18914,11 +18941,11 @@
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
@@ -19216,21 +19243,19 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="151.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="152.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19287,7 +19312,7 @@
       <c r="A2" s="9">
         <v>45143</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>813</v>
       </c>
       <c r="C2">
@@ -19320,7 +19345,7 @@
       <c r="M2">
         <v>34</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="4" t="s">
         <v>134</v>
       </c>
       <c r="O2">
@@ -19334,7 +19359,7 @@
       <c r="A3" s="9">
         <v>45144</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>814</v>
       </c>
       <c r="C3">
@@ -19367,7 +19392,7 @@
       <c r="M3">
         <v>36</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="4" t="s">
         <v>134</v>
       </c>
       <c r="O3">
@@ -19381,7 +19406,7 @@
       <c r="A4" s="9">
         <v>45144</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>815</v>
       </c>
       <c r="C4">
@@ -19414,7 +19439,7 @@
       <c r="M4">
         <v>62</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="O4">
@@ -19428,7 +19453,7 @@
       <c r="A5" s="9">
         <v>45144</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>816</v>
       </c>
       <c r="C5">
@@ -19461,7 +19486,7 @@
       <c r="M5">
         <v>21</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O5">
@@ -19475,7 +19500,7 @@
       <c r="A6" s="9">
         <v>45145</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>817</v>
       </c>
       <c r="C6">
@@ -19508,7 +19533,7 @@
       <c r="M6">
         <v>49</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="O6">
@@ -19522,7 +19547,7 @@
       <c r="A7" s="9">
         <v>45145</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>818</v>
       </c>
       <c r="C7">
@@ -19555,7 +19580,7 @@
       <c r="M7">
         <v>64</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="O7">
@@ -19569,7 +19594,7 @@
       <c r="A8" s="9">
         <v>45144</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>819</v>
       </c>
       <c r="C8">
@@ -19602,7 +19627,7 @@
       <c r="M8">
         <v>41</v>
       </c>
-      <c r="N8" s="74" t="s">
+      <c r="N8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="O8">
@@ -19616,7 +19641,7 @@
       <c r="A9" s="9">
         <v>45150</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>822</v>
       </c>
       <c r="C9">
@@ -19649,7 +19674,7 @@
       <c r="M9">
         <v>32</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="O9">
@@ -19663,7 +19688,7 @@
       <c r="A10" s="9">
         <v>45151</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>820</v>
       </c>
       <c r="C10">
@@ -19696,7 +19721,7 @@
       <c r="M10">
         <v>37</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="4" t="s">
         <v>134</v>
       </c>
       <c r="O10">
@@ -19710,7 +19735,7 @@
       <c r="A11" s="9">
         <v>45151</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>821</v>
       </c>
       <c r="C11">
@@ -19743,7 +19768,7 @@
       <c r="M11">
         <v>25</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="4" t="s">
         <v>134</v>
       </c>
       <c r="O11">
@@ -19757,7 +19782,7 @@
       <c r="A12" s="9">
         <v>45151</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>823</v>
       </c>
       <c r="C12" s="49">
@@ -19790,7 +19815,7 @@
       <c r="M12">
         <v>57</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="O12">
@@ -19804,7 +19829,7 @@
       <c r="A13" s="9">
         <v>45151</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>824</v>
       </c>
       <c r="C13" s="49">
@@ -19837,7 +19862,7 @@
       <c r="M13">
         <v>76</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="4" t="s">
         <v>34</v>
       </c>
       <c r="O13">
@@ -19851,7 +19876,7 @@
       <c r="A14" s="9">
         <v>45151</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>825</v>
       </c>
       <c r="C14">
@@ -19884,7 +19909,7 @@
       <c r="M14">
         <v>26</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="4" t="s">
         <v>134</v>
       </c>
       <c r="O14">
@@ -19898,7 +19923,7 @@
       <c r="A15" s="9">
         <v>45157</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>826</v>
       </c>
       <c r="C15">
@@ -19931,7 +19956,7 @@
       <c r="M15">
         <v>58</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="4" t="s">
         <v>143</v>
       </c>
       <c r="O15">
@@ -19945,7 +19970,7 @@
       <c r="A16" s="9">
         <v>45157</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>827</v>
       </c>
       <c r="C16">
@@ -19978,7 +20003,7 @@
       <c r="M16">
         <v>30</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O16">
@@ -19992,7 +20017,7 @@
       <c r="A17" s="9">
         <v>45157</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>828</v>
       </c>
       <c r="C17">
@@ -20025,7 +20050,7 @@
       <c r="M17">
         <v>58</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="4" t="s">
         <v>134</v>
       </c>
       <c r="O17">
@@ -20039,7 +20064,7 @@
       <c r="A18" s="9">
         <v>45157</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>829</v>
       </c>
       <c r="C18">
@@ -20072,13 +20097,483 @@
       <c r="M18">
         <v>38</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O18">
         <v>2.54</v>
       </c>
       <c r="P18">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>45158</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="C19">
+        <v>2.13</v>
+      </c>
+      <c r="D19">
+        <v>2.89</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G19">
+        <v>2.61</v>
+      </c>
+      <c r="H19">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="I19">
+        <v>2.29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>1.952</v>
+      </c>
+      <c r="M19">
+        <v>33</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19">
+        <v>1.73</v>
+      </c>
+      <c r="P19">
+        <v>1.6659999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>45158</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="C20">
+        <v>1.98</v>
+      </c>
+      <c r="D20">
+        <v>3.67</v>
+      </c>
+      <c r="E20">
+        <v>3.98</v>
+      </c>
+      <c r="F20">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="G20">
+        <v>1.84</v>
+      </c>
+      <c r="H20">
+        <v>2.06</v>
+      </c>
+      <c r="I20">
+        <v>1.617</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>1.617</v>
+      </c>
+      <c r="M20">
+        <v>24</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O20">
+        <v>2.69</v>
+      </c>
+      <c r="P20">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>45164</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="C21">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="D21">
+        <v>3.12</v>
+      </c>
+      <c r="E21">
+        <v>4.34</v>
+      </c>
+      <c r="F21">
+        <v>2.56</v>
+      </c>
+      <c r="G21">
+        <v>2.52</v>
+      </c>
+      <c r="H21">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="I21">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="M21">
+        <v>38</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21">
+        <v>1.63</v>
+      </c>
+      <c r="P21">
+        <v>1.6319999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>45164</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="C22">
+        <v>3.38</v>
+      </c>
+      <c r="D22">
+        <v>3.52</v>
+      </c>
+      <c r="E22">
+        <v>2.21</v>
+      </c>
+      <c r="F22">
+        <v>3.88</v>
+      </c>
+      <c r="G22">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="H22">
+        <v>1.98</v>
+      </c>
+      <c r="I22">
+        <v>1.653</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <v>1.421</v>
+      </c>
+      <c r="M22">
+        <v>72</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O22">
+        <v>2.5</v>
+      </c>
+      <c r="P22">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>45164</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C23">
+        <v>2.09</v>
+      </c>
+      <c r="D23">
+        <v>3.51</v>
+      </c>
+      <c r="E23">
+        <v>3.32</v>
+      </c>
+      <c r="F23">
+        <v>404</v>
+      </c>
+      <c r="G23">
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="M23">
+        <v>26</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O23">
+        <v>2.79</v>
+      </c>
+      <c r="P23">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>45164</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C24">
+        <v>3.07</v>
+      </c>
+      <c r="D24">
+        <v>3.68</v>
+      </c>
+      <c r="E24">
+        <v>2.33</v>
+      </c>
+      <c r="F24">
+        <v>4.45</v>
+      </c>
+      <c r="G24">
+        <v>1.746</v>
+      </c>
+      <c r="H24">
+        <v>2.17</v>
+      </c>
+      <c r="I24">
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <v>2.59</v>
+      </c>
+      <c r="M24">
+        <v>52</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O24">
+        <v>2.68</v>
+      </c>
+      <c r="P24">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>45164</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C25">
+        <v>1.952</v>
+      </c>
+      <c r="D25">
+        <v>3.06</v>
+      </c>
+      <c r="E25">
+        <v>4.41</v>
+      </c>
+      <c r="F25">
+        <v>2.58</v>
+      </c>
+      <c r="G25">
+        <v>2.48</v>
+      </c>
+      <c r="H25">
+        <v>1.51</v>
+      </c>
+      <c r="I25">
+        <v>2.19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25">
+        <v>1.869</v>
+      </c>
+      <c r="M25">
+        <v>62</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25">
+        <v>1.55</v>
+      </c>
+      <c r="P25">
+        <v>1.621</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>45164</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="C26">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="D26">
+        <v>3.84</v>
+      </c>
+      <c r="E26">
+        <v>4.59</v>
+      </c>
+      <c r="F26">
+        <v>3.88</v>
+      </c>
+      <c r="G26">
+        <v>1.847</v>
+      </c>
+      <c r="H26">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I26">
+        <v>1.609</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="M26">
+        <v>44</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O26">
+        <v>1.5</v>
+      </c>
+      <c r="P26">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>45164</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C27">
+        <v>1.952</v>
+      </c>
+      <c r="D27">
+        <v>3.45</v>
+      </c>
+      <c r="E27">
+        <v>4.17</v>
+      </c>
+      <c r="F27">
+        <v>2.78</v>
+      </c>
+      <c r="G27">
+        <v>2.4</v>
+      </c>
+      <c r="H27">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="I27">
+        <v>2.09</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <v>1.8</v>
+      </c>
+      <c r="M27">
+        <v>25</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27">
+        <v>1.74</v>
+      </c>
+      <c r="P27">
+        <v>1.5740000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>45164</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C28">
+        <v>2.34</v>
+      </c>
+      <c r="D28">
+        <v>3.54</v>
+      </c>
+      <c r="E28">
+        <v>3.09</v>
+      </c>
+      <c r="F28">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="G28">
+        <v>1.84</v>
+      </c>
+      <c r="H28">
+        <v>2.04</v>
+      </c>
+      <c r="I28">
+        <v>1.609</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28">
+        <v>1.387</v>
+      </c>
+      <c r="M28">
+        <v>36</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O28">
+        <v>2.5</v>
+      </c>
+      <c r="P28">
         <v>404</v>
       </c>
     </row>
@@ -20965,12 +21460,12 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3831" uniqueCount="842">
   <si>
     <t>DATA</t>
   </si>
@@ -2566,6 +2566,12 @@
   </si>
   <si>
     <t>WIGAN ATHLETIC vs BARNSLEY</t>
+  </si>
+  <si>
+    <t>LAS VEGAS L. vs PHOENIX RISING</t>
+  </si>
+  <si>
+    <t>SAN ANTONIO vs PITTSBURGH</t>
   </si>
 </sst>
 </file>
@@ -19243,9 +19249,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20574,6 +20582,100 @@
         <v>2.5</v>
       </c>
       <c r="P28">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>45165</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="C29">
+        <v>2.95</v>
+      </c>
+      <c r="D29">
+        <v>3.46</v>
+      </c>
+      <c r="E29">
+        <v>2.29</v>
+      </c>
+      <c r="F29">
+        <v>404</v>
+      </c>
+      <c r="G29">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="H29">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I29">
+        <v>1.571</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29">
+        <v>404</v>
+      </c>
+      <c r="M29">
+        <v>35</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O29">
+        <v>2.66</v>
+      </c>
+      <c r="P29">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>45165</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="C30">
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="D30">
+        <v>3.66</v>
+      </c>
+      <c r="E30">
+        <v>4.09</v>
+      </c>
+      <c r="F30">
+        <v>404</v>
+      </c>
+      <c r="G30">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H30">
+        <v>1.806</v>
+      </c>
+      <c r="I30">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="M30">
+        <v>35</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O30">
+        <v>2.54</v>
+      </c>
+      <c r="P30">
         <v>404</v>
       </c>
     </row>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="janeiro" sheetId="5" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="julho" sheetId="17" r:id="rId13"/>
     <sheet name="julhoInvest" sheetId="3" r:id="rId14"/>
     <sheet name="agosto" sheetId="20" r:id="rId15"/>
+    <sheet name="setembro" sheetId="21" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3831" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3875" uniqueCount="851">
   <si>
     <t>DATA</t>
   </si>
@@ -2572,6 +2573,33 @@
   </si>
   <si>
     <t>SAN ANTONIO vs PITTSBURGH</t>
+  </si>
+  <si>
+    <t>DETROIT CITY vs MEMPHIS</t>
+  </si>
+  <si>
+    <t>EC SAO JOSE vs BRUSQUE</t>
+  </si>
+  <si>
+    <t>INDY ELEVEN vs MIAMI FC</t>
+  </si>
+  <si>
+    <t>LE HAVRE vs LORIENT</t>
+  </si>
+  <si>
+    <t>SWANSEA CITY vs BRISTOL CITY</t>
+  </si>
+  <si>
+    <t>KUSATSU vs MACHIDA ZELVIA</t>
+  </si>
+  <si>
+    <t>OAKLAND ROOTS vs SACRAMENTO R.</t>
+  </si>
+  <si>
+    <t>R. YAMAGUCHI vs MITO HOLLYHOCK</t>
+  </si>
+  <si>
+    <t>V-V. NAGASAKI vs OITA TRINITA</t>
   </si>
 </sst>
 </file>
@@ -3000,7 +3028,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11064,7 +11102,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11077,8 +11115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12352,29 +12390,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E37:E49 I37:I49">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H35">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H49">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13420,7 +13458,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14063,29 +14101,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E32 I20:I32">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H18">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H32">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18012,17 +18050,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:K37">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75 K77:K79">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19224,21 +19262,21 @@
     <mergeCell ref="G36:H36"/>
   </mergeCells>
   <conditionalFormatting sqref="E38:E55 H38:H55">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G35">
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19251,8 +19289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20676,6 +20714,512 @@
         <v>2.54</v>
       </c>
       <c r="P30">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"NOT INVEST"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9.140625" style="4"/>
+    <col min="10" max="10" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="4"/>
+    <col min="14" max="14" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="151.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>45171</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.64</v>
+      </c>
+      <c r="F2" s="4">
+        <v>404</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.609</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.381</v>
+      </c>
+      <c r="M2" s="4">
+        <v>26</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1.97</v>
+      </c>
+      <c r="P2" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>45171</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.99</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.94</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.58</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="M3" s="4">
+        <v>50</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="4">
+        <v>2.39</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1.621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>45171</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.46</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.29</v>
+      </c>
+      <c r="F4" s="4">
+        <v>404</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.909</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.909</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.6279999999999999</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.401</v>
+      </c>
+      <c r="M4" s="4">
+        <v>8</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="P4" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>45171</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.86</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.15</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.78</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.694</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.97</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="M5" s="4">
+        <v>73</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1.5049999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>45171</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.58</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.46</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3.54</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.8620000000000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.512</v>
+      </c>
+      <c r="M6" s="4">
+        <v>51</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" s="4">
+        <v>404</v>
+      </c>
+      <c r="P6" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>45172</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.73</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.724</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.16</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.7239</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.909</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.617</v>
+      </c>
+      <c r="M7" s="4">
+        <v>30</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1.4710000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>45172</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3.32</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F8" s="4">
+        <v>404</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="M8" s="4">
+        <v>29</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" s="4">
+        <v>2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>45172</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.87</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3.51</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.46</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3.48</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.746</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="M9" s="4">
+        <v>47</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="P9" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>45172</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.57</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.45</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.909</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1.7090000000000001</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="M10" s="4">
+        <v>37</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="P10" s="4">
         <v>404</v>
       </c>
     </row>
@@ -21807,29 +22351,29 @@
     <mergeCell ref="G29:I29"/>
   </mergeCells>
   <conditionalFormatting sqref="E31:E44 I31:I44">
-    <cfRule type="cellIs" dxfId="55" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H28">
-    <cfRule type="cellIs" dxfId="52" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27812,7 +28356,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29024,29 +29568,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E39:E51 I39:I51">
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H37">
-    <cfRule type="cellIs" dxfId="44" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H51">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33829,7 +34373,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35297,29 +35841,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E33:E45 I33:I45">
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H31">
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H45">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43103,7 +43647,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44784,29 +45328,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E51:E63 I51:I63">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H63">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47506,7 +48050,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K2">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="janeiro" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3875" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="869">
   <si>
     <t>DATA</t>
   </si>
@@ -2600,6 +2600,60 @@
   </si>
   <si>
     <t>V-V. NAGASAKI vs OITA TRINITA</t>
+  </si>
+  <si>
+    <t>PARIS SG vs NICE</t>
+  </si>
+  <si>
+    <t>BRISTOL CITY vs WEST BROM</t>
+  </si>
+  <si>
+    <t>BLAUBLITZ AKITA vs V-V. NAGASAKI</t>
+  </si>
+  <si>
+    <t>OITA TRINITA vs TOKUSHIMA V.</t>
+  </si>
+  <si>
+    <t>VEGALTA SENDAI vs MITO HOLLYHOCK</t>
+  </si>
+  <si>
+    <t>KUSATSU vs IWAKI</t>
+  </si>
+  <si>
+    <t>BREST vs LYON</t>
+  </si>
+  <si>
+    <t>EC SAO JOSE vs SAO BERNARDO</t>
+  </si>
+  <si>
+    <t>LEEDS UTD vs WATFORD</t>
+  </si>
+  <si>
+    <t>STOCKPORT vs WREXHAM</t>
+  </si>
+  <si>
+    <t>SWANSEA CITY vs SHEFFIELD WED</t>
+  </si>
+  <si>
+    <t>V-V. NAGASAKI vs MACHIDA ZELVIA</t>
+  </si>
+  <si>
+    <t>WALSALL vs AFC WIMBLEDON</t>
+  </si>
+  <si>
+    <t>FAGIANO OKAYAMA vs JUBILO IWATA</t>
+  </si>
+  <si>
+    <t>LENS vs TOULOUSE</t>
+  </si>
+  <si>
+    <t>TOKYO VERDY vs FUJIEDA MYFC</t>
+  </si>
+  <si>
+    <t>PARMA vs BARI</t>
+  </si>
+  <si>
+    <t>VENEZIA vs PALERMO</t>
   </si>
 </sst>
 </file>
@@ -3875,8 +3929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q155"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11115,7 +11169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -20730,10 +20784,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21223,6 +21277,852 @@
         <v>404</v>
       </c>
     </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>45184</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6.42</v>
+      </c>
+      <c r="F11" s="4">
+        <v>404</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="M11" s="4">
+        <v>63</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="O11" s="4">
+        <v>2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>45185</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3.43</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.01</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.61</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.909</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="M12" s="4">
+        <v>29</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="P12" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>45185</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.92</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.89</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="M13" s="4">
+        <v>22</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1.5680000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>45185</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3.55</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="M14" s="4">
+        <v>23</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1.4359999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>45185</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.66</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3.49</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1.925</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1.446</v>
+      </c>
+      <c r="M15" s="4">
+        <v>23</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="4">
+        <v>2.42</v>
+      </c>
+      <c r="P15" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>45186</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3.55</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3.32</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1.5309999999999999</v>
+      </c>
+      <c r="M16" s="4">
+        <v>34</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="P16" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>45192</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2.57</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.73</v>
+      </c>
+      <c r="F17" s="4">
+        <v>404</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2.27</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="M17" s="4">
+        <v>33</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="O17" s="4">
+        <v>2</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1.2470000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>45192</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2.99</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3.99</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1.4690000000000001</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1.9652000000000001</v>
+      </c>
+      <c r="M18" s="4">
+        <v>59</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="4">
+        <v>2.41</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1.671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>45192</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4.04</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4.63</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4.12</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1.591</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="4">
+        <v>404</v>
+      </c>
+      <c r="M19" s="4">
+        <v>36</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O19" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="P19" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>45192</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3.73</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4.22</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2.11</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="4">
+        <v>404</v>
+      </c>
+      <c r="M20" s="4">
+        <v>68</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O20" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="P20" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>45192</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3.56</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4.04</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3.53</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1.8620000000000001</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="M21" s="4">
+        <v>56</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O21" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="P21" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>45192</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3.44</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3.42</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1.819</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1.5309999999999999</v>
+      </c>
+      <c r="M22" s="4">
+        <v>32</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="4">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="P22" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>45192</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2.64</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3.43</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2.76</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3.23</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2.14</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1.877</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1.591</v>
+      </c>
+      <c r="M23" s="4">
+        <v>41</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O23" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1.454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>45193</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.56</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3.61</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1.99</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1.653</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1.427</v>
+      </c>
+      <c r="M24" s="4">
+        <v>23</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="4">
+        <v>2.35</v>
+      </c>
+      <c r="P24" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>45193</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4.08</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5.23</v>
+      </c>
+      <c r="F25" s="4">
+        <v>404</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1.617</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="M25" s="4">
+        <v>80</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1.59</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1.3220000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>45193</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4.45</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1.51</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="4">
+        <v>404</v>
+      </c>
+      <c r="M26" s="4">
+        <v>55</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="P26" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>45196</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1.952</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="E27" s="4">
+        <v>4.13</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3.14</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1.724</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1.847</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="M27" s="4">
+        <v>32</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1.4339999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>45195</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2.42</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3.34</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3.19</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3.53</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1.8620000000000001</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1.512</v>
+      </c>
+      <c r="M28" s="4">
+        <v>26</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="P28" s="4">
+        <v>404</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -21238,8 +22138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="873">
   <si>
     <t>DATA</t>
   </si>
@@ -2654,6 +2654,18 @@
   </si>
   <si>
     <t>VENEZIA vs PALERMO</t>
+  </si>
+  <si>
+    <t>PETERBOROUGH vs BRISTOL ROVERS</t>
+  </si>
+  <si>
+    <t>QP RANGERS vs COVENTRY CITY</t>
+  </si>
+  <si>
+    <t>MODENA vs VENEZIA</t>
+  </si>
+  <si>
+    <t>TERNANA vs REGGIANA</t>
   </si>
 </sst>
 </file>
@@ -20784,10 +20796,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22121,6 +22133,86 @@
       </c>
       <c r="P28" s="4">
         <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>45199</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="4">
+        <v>21</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O29" s="4">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>45199</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="4">
+        <v>48</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O30" s="4">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>45199</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="4">
+        <v>61</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>45199</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="4">
+        <v>40</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O32" s="4">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -20798,8 +20798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22142,8 +22142,32 @@
       <c r="B29" s="4" t="s">
         <v>869</v>
       </c>
+      <c r="C29" s="4">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="D29" s="4">
+        <v>3.71</v>
+      </c>
+      <c r="E29" s="4">
+        <v>4.21</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3.47</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1.8540000000000001</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1.7629999999999999</v>
+      </c>
       <c r="J29" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1.512</v>
       </c>
       <c r="M29" s="4">
         <v>21</v>
@@ -22153,6 +22177,9 @@
       </c>
       <c r="O29" s="4">
         <v>2.63</v>
+      </c>
+      <c r="P29" s="4">
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -22162,8 +22189,32 @@
       <c r="B30" s="4" t="s">
         <v>870</v>
       </c>
+      <c r="C30" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3.39</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2.35</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3.55</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1.877</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1.7569999999999999</v>
+      </c>
       <c r="J30" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1.5049999999999999</v>
       </c>
       <c r="M30" s="4">
         <v>48</v>
@@ -22173,6 +22224,9 @@
       </c>
       <c r="O30" s="4">
         <v>2.67</v>
+      </c>
+      <c r="P30" s="4">
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -22182,8 +22236,32 @@
       <c r="B31" s="4" t="s">
         <v>871</v>
       </c>
+      <c r="C31" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3.32</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3.03</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3.49</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1.833</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1.7929999999999999</v>
+      </c>
       <c r="J31" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1.5289999999999999</v>
       </c>
       <c r="M31" s="4">
         <v>61</v>
@@ -22193,6 +22271,9 @@
       </c>
       <c r="O31" s="4">
         <v>1</v>
+      </c>
+      <c r="P31" s="4">
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -22202,8 +22283,32 @@
       <c r="B32" s="3" t="s">
         <v>872</v>
       </c>
+      <c r="C32" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3.37</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3.17</v>
+      </c>
+      <c r="G32" s="4">
+        <v>2.23</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1.7090000000000001</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1.9430000000000001</v>
+      </c>
       <c r="J32" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1.641</v>
       </c>
       <c r="M32" s="4">
         <v>40</v>
@@ -22213,6 +22318,9 @@
       </c>
       <c r="O32" s="4">
         <v>1.75</v>
+      </c>
+      <c r="P32" s="4">
+        <v>1.4830000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="janeiro" sheetId="5" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="julhoInvest" sheetId="3" r:id="rId14"/>
     <sheet name="agosto" sheetId="20" r:id="rId15"/>
     <sheet name="setembro" sheetId="21" r:id="rId16"/>
+    <sheet name="outubro" sheetId="22" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="881">
   <si>
     <t>DATA</t>
   </si>
@@ -2666,6 +2667,30 @@
   </si>
   <si>
     <t>TERNANA vs REGGIANA</t>
+  </si>
+  <si>
+    <t>BIRMINGHAM CITY vs HUDDERSFIELD</t>
+  </si>
+  <si>
+    <t>BLACKPOOL vs DERBY COUNTY</t>
+  </si>
+  <si>
+    <t>CARLISLE UTD vs PETERBOROUGH</t>
+  </si>
+  <si>
+    <t>GRIMSBY vs BARROW</t>
+  </si>
+  <si>
+    <t>MANSFIELD vs AFC WIMBLEDON</t>
+  </si>
+  <si>
+    <t>REGGIANA vs BARI</t>
+  </si>
+  <si>
+    <t>SHEFFIELD WED vs HUDDERSFIELD</t>
+  </si>
+  <si>
+    <t>COMO vs CREMONESE</t>
   </si>
 </sst>
 </file>
@@ -3094,7 +3119,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11168,7 +11203,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12456,29 +12491,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E37:E49 I37:I49">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H35">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H49">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13524,7 +13559,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14167,29 +14202,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E32 I20:I32">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H18">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H32">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18116,17 +18151,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:K37">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75 K77:K79">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19328,21 +19363,21 @@
     <mergeCell ref="G36:H36"/>
   </mergeCells>
   <conditionalFormatting sqref="E38:E55 H38:H55">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G35">
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20785,7 +20820,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20796,10 +20831,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="C28" workbookViewId="0">
+      <selection sqref="A1:S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22322,6 +22357,554 @@
       <c r="P32" s="4">
         <v>1.4830000000000001</v>
       </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="4">
+        <v>38</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O33" s="4">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="4">
+        <v>36</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O34" s="4">
+        <v>2.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"NOT INVEST"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="151.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>45202</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2.21</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.36</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3.29</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2.14</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.869</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4">
+        <v>38</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>45202</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.39</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.06</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3.68</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.925</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4">
+        <v>36</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O3" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="P3" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>45202</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.56</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.55</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="4">
+        <v>404</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
+        <v>56</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P4" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>45202</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.53</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.16</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.714</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.917</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.621</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
+        <v>67</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1.478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>45206</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.63</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.92</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3.69</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.925</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.454</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>34</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="P6" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>45206</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.74</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.21</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.85</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.08</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.99</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.675</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <v>28</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O7" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1.5069999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>45206</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.77</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3.46</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.833</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.534</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O8" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="P8" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>45207</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
+        <v>36</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O9" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
@@ -23451,29 +24034,29 @@
     <mergeCell ref="G29:I29"/>
   </mergeCells>
   <conditionalFormatting sqref="E31:E44 I31:I44">
-    <cfRule type="cellIs" dxfId="56" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H28">
-    <cfRule type="cellIs" dxfId="53" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29456,7 +30039,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30668,29 +31251,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E39:E51 I39:I51">
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H37">
-    <cfRule type="cellIs" dxfId="45" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H51">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35473,7 +36056,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36941,29 +37524,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E33:E45 I33:I45">
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H31">
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H45">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44747,7 +45330,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46428,29 +47011,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E51:E63 I51:I63">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H63">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49150,7 +49733,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K2">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="janeiro" sheetId="5" r:id="rId1"/>
@@ -29,13 +29,14 @@
     <sheet name="agosto" sheetId="20" r:id="rId15"/>
     <sheet name="setembro" sheetId="21" r:id="rId16"/>
     <sheet name="outubro" sheetId="22" r:id="rId17"/>
+    <sheet name="outubronew" sheetId="23" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4112" uniqueCount="894">
   <si>
     <t>DATA</t>
   </si>
@@ -2691,6 +2692,45 @@
   </si>
   <si>
     <t>COMO vs CREMONESE</t>
+  </si>
+  <si>
+    <t>BURTON ALBION vs CAMBRIDGE UTD</t>
+  </si>
+  <si>
+    <t>AFC WIMBLEDON vs BRADFORD</t>
+  </si>
+  <si>
+    <t>FUJIEDA MYFC vs KUSATSU</t>
+  </si>
+  <si>
+    <t>MILTON KEYNES vs BARROW</t>
+  </si>
+  <si>
+    <t>PARMA vs COMO</t>
+  </si>
+  <si>
+    <t>VENTFORET KOFU vs V-V. NAGASAKI</t>
+  </si>
+  <si>
+    <t>BARI vs MODENA</t>
+  </si>
+  <si>
+    <t>BARROW vs AFC WIMBLEDON</t>
+  </si>
+  <si>
+    <t>BURTON ALBION vs BRISTOL ROVERS</t>
+  </si>
+  <si>
+    <t>CREMONESE vs SUDTIROL</t>
+  </si>
+  <si>
+    <t>PISA vs CITTADELLA</t>
+  </si>
+  <si>
+    <t>nnn</t>
+  </si>
+  <si>
+    <t>CARLISLE UTD vs BURTON ALBION</t>
   </si>
 </sst>
 </file>
@@ -3119,7 +3159,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11203,7 +11253,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11216,8 +11266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12491,29 +12541,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E37:E49 I37:I49">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H35">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H49">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13559,7 +13609,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13570,10 +13620,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13586,7 +13636,7 @@
     <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="117" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -13618,7 +13668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45080</v>
       </c>
@@ -13648,7 +13698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45080</v>
       </c>
@@ -13679,8 +13729,11 @@
       <c r="J3" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>45080</v>
       </c>
@@ -13711,8 +13764,11 @@
       <c r="J4" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>45080</v>
       </c>
@@ -13742,8 +13798,11 @@
       <c r="J5" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>45081</v>
       </c>
@@ -13775,7 +13834,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>45081</v>
       </c>
@@ -13807,7 +13866,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>45088</v>
       </c>
@@ -13839,7 +13898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>45094</v>
       </c>
@@ -13869,7 +13928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="69"/>
       <c r="B10" s="49"/>
       <c r="C10" s="71"/>
@@ -13881,7 +13940,7 @@
       <c r="I10" s="71"/>
       <c r="J10" s="71"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="69"/>
       <c r="B11" s="49"/>
       <c r="C11" s="71"/>
@@ -13893,7 +13952,7 @@
       <c r="I11" s="71"/>
       <c r="J11" s="71"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="69"/>
       <c r="B12" s="49"/>
       <c r="C12" s="71"/>
@@ -13905,7 +13964,7 @@
       <c r="I12" s="71"/>
       <c r="J12" s="71"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="69"/>
       <c r="B13" s="49"/>
       <c r="C13" s="71"/>
@@ -13917,7 +13976,7 @@
       <c r="I13" s="71"/>
       <c r="J13" s="71"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="4"/>
       <c r="C14" s="71"/>
@@ -13929,7 +13988,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="4"/>
       <c r="C15" s="71"/>
@@ -13941,7 +14000,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="4"/>
       <c r="C16" s="71"/>
@@ -14002,7 +14061,7 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="15">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E20" s="45"/>
       <c r="F20" s="21"/>
@@ -14018,7 +14077,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="18">
         <f>D19-D20</f>
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="E21" s="45"/>
       <c r="F21" s="21"/>
@@ -14034,7 +14093,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4">
         <f>D21/D19*100</f>
-        <v>-62.5</v>
+        <v>87.5</v>
       </c>
       <c r="E22" s="45"/>
       <c r="F22" s="21"/>
@@ -14082,7 +14141,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="18">
         <f>D22-D23</f>
-        <v>-119.68370264474625</v>
+        <v>30.316297355253752</v>
       </c>
       <c r="E25" s="45"/>
       <c r="F25" s="21"/>
@@ -14098,7 +14157,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="18">
         <f>D25/1</f>
-        <v>-119.68370264474625</v>
+        <v>30.316297355253752</v>
       </c>
       <c r="E26" s="45"/>
       <c r="F26" s="21"/>
@@ -14202,29 +14261,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E32 I20:I32">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H18">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H32">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14236,8 +14295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="Q1" sqref="A1:Q1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18151,17 +18210,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:K37">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75 K77:K79">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18175,7 +18234,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19363,21 +19422,21 @@
     <mergeCell ref="G36:H36"/>
   </mergeCells>
   <conditionalFormatting sqref="E38:E55 H38:H55">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G35">
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19391,7 +19450,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20820,7 +20879,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22394,7 +22453,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22405,10 +22464,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22815,17 +22874,33 @@
       <c r="B9" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="C9" s="4">
+        <v>2.82</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3.26</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.73</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3.44</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.8260000000000001</v>
+      </c>
       <c r="J9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4">
+        <v>1.546</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4">
         <v>36</v>
@@ -22836,75 +22911,1633 @@
       <c r="O9" s="4">
         <v>2.67</v>
       </c>
-      <c r="P9" s="4"/>
+      <c r="P9" s="4">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="A10" s="9">
+        <v>45208</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.99</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.28</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.552</v>
+      </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="M10" s="4">
+        <v>52</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1.423</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="A11" s="9">
+        <v>45213</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3.48</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3.77</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3.34</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1.8260000000000001</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1.546</v>
+      </c>
       <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="M11" s="4">
+        <v>16</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" s="4">
+        <v>2.77</v>
+      </c>
+      <c r="P11" s="4">
+        <v>404</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="A12" s="9">
+        <v>45213</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.19</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3.59</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.36</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.49</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.925</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.714</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.4870000000000001</v>
+      </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="M12" s="4">
+        <v>53</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="4">
+        <v>2.59</v>
+      </c>
+      <c r="P12" s="4">
+        <v>404</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="A13" s="9">
+        <v>45213</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3.48</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3.62</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.5289999999999999</v>
+      </c>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="M13" s="4">
+        <v>50</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="P13" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>45219</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3.34</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.17</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="M14" s="4">
+        <v>22</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O14" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>45219</v>
+      </c>
+      <c r="B15" t="s">
+        <v>886</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.91</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3.59</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.54</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="4">
+        <v>404</v>
+      </c>
+      <c r="M15" s="4">
+        <v>37</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="P15" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>45220</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3.58</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1.83</v>
+      </c>
+      <c r="M16" s="4">
+        <v>30</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>45220</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3.32</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.62</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2.14</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1.8560000000000001</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1.58</v>
+      </c>
+      <c r="M17" s="4">
+        <v>41</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1.43</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>45220</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2.81</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3.48</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.57</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3.77</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1.92</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="M18" s="4">
+        <v>32</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O18" s="4">
+        <v>2.33</v>
+      </c>
+      <c r="P18" s="4">
+        <v>404</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>45220</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.59</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3.97</v>
+      </c>
+      <c r="E19" s="4">
+        <v>6.62</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3.35</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="M19" s="4">
+        <v>54</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O19" s="4">
+        <v>2.38</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>45220</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2.91</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2.35</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1.99</v>
+      </c>
+      <c r="M20" s="4">
+        <v>59</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O20" s="4">
+        <v>2.46</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>45223</v>
+      </c>
+      <c r="B21" t="s">
+        <v>893</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.46</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3.17</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2.19</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1.72</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1.91</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="M21" s="4">
+        <v>25</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" s="4">
+        <v>1.86</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"NOT INVEST"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="151.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>45202</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.27</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.83</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2.36</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4">
+        <v>38</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>45202</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.57</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.24</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3.14</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2.19</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.72</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.92</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4">
+        <v>36</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O3" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>45202</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.66</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.62</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.87</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.99</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
+        <v>56</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P4" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>45202</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.32</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.84</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
+        <v>67</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>45206</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.56</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.91</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3.67</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4">
+        <v>34</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="P6" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>45206</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.81</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.87</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2.35</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
+        <v>28</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O7" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>45206</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.76</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3.27</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.78</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3.02</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O8" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>45207</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3.04</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3.23</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.58</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3.43</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.83</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
+        <v>36</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O9" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>45208</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.39</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.34</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1.83</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
+        <v>52</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>45213</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3.48</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3.19</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1.77</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1.86</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <v>16</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" s="4">
+        <v>2.77</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>45213</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3.53</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.39</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.54</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
+        <v>53</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="4">
+        <v>2.59</v>
+      </c>
+      <c r="P12" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>45213</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3.37</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3.21</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2.16</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
+        <v>50</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>45219</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3.34</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.17</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="M14" s="4">
+        <v>22</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O14" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>45219</v>
+      </c>
+      <c r="B15" t="s">
+        <v>886</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.91</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3.59</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.54</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="4">
+        <v>404</v>
+      </c>
+      <c r="M15" s="4">
+        <v>37</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="P15" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>45220</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3.58</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1.83</v>
+      </c>
+      <c r="M16" s="4">
+        <v>30</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>45220</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3.32</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.62</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2.14</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1.8560000000000001</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1.58</v>
+      </c>
+      <c r="M17" s="4">
+        <v>41</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1.43</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>45220</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2.81</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3.48</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.57</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3.77</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1.92</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="M18" s="4">
+        <v>32</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O18" s="4">
+        <v>2.33</v>
+      </c>
+      <c r="P18" s="4">
+        <v>404</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>45220</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.59</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3.97</v>
+      </c>
+      <c r="E19" s="4">
+        <v>6.62</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3.35</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="M19" s="4">
+        <v>54</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O19" s="4">
+        <v>2.38</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>45220</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2.91</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2.35</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1.99</v>
+      </c>
+      <c r="M20" s="4">
+        <v>59</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O20" s="4">
+        <v>2.46</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>45223</v>
+      </c>
+      <c r="B21" t="s">
+        <v>893</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.46</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3.17</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2.19</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1.72</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1.91</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="M21" s="4">
+        <v>25</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" s="4">
+        <v>1.86</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1.45</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
@@ -22913,7 +24546,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24034,29 +25666,29 @@
     <mergeCell ref="G29:I29"/>
   </mergeCells>
   <conditionalFormatting sqref="E31:E44 I31:I44">
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H28">
-    <cfRule type="cellIs" dxfId="54" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30039,7 +31671,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31251,29 +32883,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E39:E51 I39:I51">
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H37">
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H51">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36056,7 +37688,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37524,29 +39156,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E33:E45 I33:I45">
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H31">
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H45">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45330,7 +46962,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47011,29 +48643,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E51:E63 I51:I63">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H63">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49733,7 +51365,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K2">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4112" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4139" uniqueCount="903">
   <si>
     <t>DATA</t>
   </si>
@@ -2731,6 +2731,33 @@
   </si>
   <si>
     <t>CARLISLE UTD vs BURTON ALBION</t>
+  </si>
+  <si>
+    <t>FERALPISALO vs REGGIANA</t>
+  </si>
+  <si>
+    <t>FUJIEDA MYFC vs MITO HOLLYHOCK</t>
+  </si>
+  <si>
+    <t>JUBILO IWATA vs TOKYO VERDY</t>
+  </si>
+  <si>
+    <t>LENS vs NANTES</t>
+  </si>
+  <si>
+    <t>SHIMIZU S-PULSE vs R. KUMAMOTO</t>
+  </si>
+  <si>
+    <t>SPEZIA vs COSENZA</t>
+  </si>
+  <si>
+    <t>STEVENAGE vs DERBY COUNTY</t>
+  </si>
+  <si>
+    <t>SUDTIROL vs SAMPDORIA</t>
+  </si>
+  <si>
+    <t>WATFORD vs MILLWALL</t>
   </si>
 </sst>
 </file>
@@ -23508,17 +23535,17 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24202,7 +24229,7 @@
       <c r="A15" s="9">
         <v>45219</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>886</v>
       </c>
       <c r="C15" s="4">
@@ -24496,7 +24523,7 @@
       <c r="A21" s="9">
         <v>45223</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>893</v>
       </c>
       <c r="C21" s="4">
@@ -24537,6 +24564,186 @@
       </c>
       <c r="P21" s="4">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="4">
+        <v>51</v>
+      </c>
+      <c r="N22" t="s">
+        <v>225</v>
+      </c>
+      <c r="O22" s="4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="4">
+        <v>12</v>
+      </c>
+      <c r="N23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="4">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="4">
+        <v>30</v>
+      </c>
+      <c r="N24" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="4">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="4">
+        <v>47</v>
+      </c>
+      <c r="N25" t="s">
+        <v>290</v>
+      </c>
+      <c r="O25" s="4">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="4">
+        <v>10</v>
+      </c>
+      <c r="N26" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="4">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="4">
+        <v>60</v>
+      </c>
+      <c r="N27" t="s">
+        <v>225</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="4">
+        <v>72</v>
+      </c>
+      <c r="N28" t="s">
+        <v>143</v>
+      </c>
+      <c r="O28" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="4">
+        <v>45</v>
+      </c>
+      <c r="N29" t="s">
+        <v>225</v>
+      </c>
+      <c r="O29" s="4">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="4">
+        <v>43</v>
+      </c>
+      <c r="N30" t="s">
+        <v>138</v>
+      </c>
+      <c r="O30" s="4">
+        <v>2.13</v>
       </c>
     </row>
   </sheetData>
@@ -24546,6 +24753,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBXBILLIONS\Documents\JBX COMPANY\automationbet-matriz\tecnica_analise\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borge Pc\Documents\GitHub\automationbet-matriz\tecnica_analise\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="janeiro" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4139" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4166" uniqueCount="903">
   <si>
     <t>DATA</t>
   </si>
@@ -22491,10 +22491,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23520,6 +23520,429 @@
       </c>
       <c r="P21" s="4">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3.03</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3.06</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2.96</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="M22" s="4">
+        <v>51</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O22" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2.59</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3.51</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2.76</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4.41</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2.16</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="4">
+        <v>404</v>
+      </c>
+      <c r="M23" s="4">
+        <v>12</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="4">
+        <v>2.61</v>
+      </c>
+      <c r="P23" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3.57</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3.55</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3.47</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="M24" s="4">
+        <v>30</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="4">
+        <v>2.77</v>
+      </c>
+      <c r="P24" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4.24</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5.47</v>
+      </c>
+      <c r="F25" s="4">
+        <v>404</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1.59</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="M25" s="4">
+        <v>47</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="O25" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="P25" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="E26" s="4">
+        <v>6.82</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4.62</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2.34</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="4">
+        <v>404</v>
+      </c>
+      <c r="M26" s="4">
+        <v>10</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="4">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="P26" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1.97</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E27" s="4">
+        <v>4.22</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3.56</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1.87</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1.51</v>
+      </c>
+      <c r="M27" s="4">
+        <v>60</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2.73</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3.26</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2.78</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3.36</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2.11</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1.56</v>
+      </c>
+      <c r="M28" s="4">
+        <v>72</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O28" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="D29" s="4">
+        <v>3.12</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2.86</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3.08</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2.36</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="I29" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="M29" s="4">
+        <v>45</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O29" s="4">
+        <v>2.38</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>45227</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3.34</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3.86</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3.04</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="I30" s="4">
+        <v>2</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="M30" s="4">
+        <v>43</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O30" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>
@@ -23537,8 +23960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24573,17 +24996,44 @@
       <c r="B22" s="4" t="s">
         <v>894</v>
       </c>
+      <c r="C22" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3.03</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3.06</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2.96</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2.08</v>
+      </c>
       <c r="J22" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1.74</v>
       </c>
       <c r="M22" s="4">
         <v>51</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="4" t="s">
         <v>225</v>
       </c>
       <c r="O22" s="4">
         <v>2.1</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1.55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -24593,17 +25043,44 @@
       <c r="B23" s="4" t="s">
         <v>895</v>
       </c>
+      <c r="C23" s="4">
+        <v>2.59</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3.51</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2.76</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4.41</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2.16</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1.53</v>
+      </c>
       <c r="J23" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K23" s="4">
+        <v>404</v>
       </c>
       <c r="M23" s="4">
         <v>12</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O23" s="4">
         <v>2.61</v>
+      </c>
+      <c r="P23" s="4">
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -24613,17 +25090,44 @@
       <c r="B24" s="4" t="s">
         <v>896</v>
       </c>
+      <c r="C24" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3.57</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3.55</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3.47</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1.74</v>
+      </c>
       <c r="J24" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1.5</v>
       </c>
       <c r="M24" s="4">
         <v>30</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O24" s="4">
         <v>2.77</v>
+      </c>
+      <c r="P24" s="4">
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -24633,17 +25137,44 @@
       <c r="B25" s="4" t="s">
         <v>897</v>
       </c>
+      <c r="C25" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4.24</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5.47</v>
+      </c>
+      <c r="F25" s="4">
+        <v>404</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1.59</v>
+      </c>
       <c r="J25" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1.38</v>
       </c>
       <c r="M25" s="4">
         <v>47</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="4" t="s">
         <v>290</v>
       </c>
       <c r="O25" s="4">
         <v>2.25</v>
+      </c>
+      <c r="P25" s="4">
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -24653,17 +25184,44 @@
       <c r="B26" s="4" t="s">
         <v>898</v>
       </c>
+      <c r="C26" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4.79</v>
+      </c>
+      <c r="E26" s="4">
+        <v>6.82</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4.62</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2.34</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1.49</v>
+      </c>
       <c r="J26" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K26" s="4">
+        <v>404</v>
       </c>
       <c r="M26" s="4">
         <v>10</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O26" s="4">
         <v>2.5299999999999998</v>
+      </c>
+      <c r="P26" s="4">
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -24673,17 +25231,44 @@
       <c r="B27" s="4" t="s">
         <v>899</v>
       </c>
+      <c r="C27" s="4">
+        <v>1.97</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E27" s="4">
+        <v>4.22</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3.56</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1.87</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1.76</v>
+      </c>
       <c r="J27" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1.51</v>
       </c>
       <c r="M27" s="4">
         <v>60</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="4" t="s">
         <v>225</v>
       </c>
       <c r="O27" s="4">
         <v>1.4</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1.44</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -24693,17 +25278,44 @@
       <c r="B28" s="4" t="s">
         <v>900</v>
       </c>
+      <c r="C28" s="4">
+        <v>2.73</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3.26</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2.78</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3.36</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2.11</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1.84</v>
+      </c>
       <c r="J28" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1.56</v>
       </c>
       <c r="M28" s="4">
         <v>72</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="4" t="s">
         <v>143</v>
       </c>
       <c r="O28" s="4">
         <v>2.4300000000000002</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1.43</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -24713,17 +25325,44 @@
       <c r="B29" s="4" t="s">
         <v>901</v>
       </c>
+      <c r="C29" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="D29" s="4">
+        <v>3.12</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2.86</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3.08</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2.36</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="I29" s="4">
+        <v>2.04</v>
+      </c>
       <c r="J29" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1.7</v>
       </c>
       <c r="M29" s="4">
         <v>45</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="4" t="s">
         <v>225</v>
       </c>
       <c r="O29" s="4">
         <v>2.38</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1.52</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -24733,17 +25372,44 @@
       <c r="B30" s="4" t="s">
         <v>902</v>
       </c>
+      <c r="C30" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3.34</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3.86</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3.04</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="I30" s="4">
+        <v>2</v>
+      </c>
       <c r="J30" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1.69</v>
       </c>
       <c r="M30" s="4">
         <v>43</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="4" t="s">
         <v>138</v>
       </c>
       <c r="O30" s="4">
         <v>2.13</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>
@@ -24777,7 +25443,7 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="118.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borge Pc\Documents\GitHub\automationbet-matriz\tecnica_analise\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBXBILLIONS\Documents\JBX COMPANY\automationbet-matriz\tecnica_analise\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4166" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4187" uniqueCount="910">
   <si>
     <t>DATA</t>
   </si>
@@ -2758,6 +2758,27 @@
   </si>
   <si>
     <t>WATFORD vs MILLWALL</t>
+  </si>
+  <si>
+    <t>BREST vs PARIS SG</t>
+  </si>
+  <si>
+    <t>E. FRANKFURT vs DORTMUND</t>
+  </si>
+  <si>
+    <t>FAGIANO OKAYAMA vs TOCHIGI SC</t>
+  </si>
+  <si>
+    <t>JEF UTD CHIBA vs IWAKI</t>
+  </si>
+  <si>
+    <t>METZ vs LE HAVRE</t>
+  </si>
+  <si>
+    <t>MODENA vs TERNANA</t>
+  </si>
+  <si>
+    <t>MONTPELLIER vs TOULOUSE</t>
   </si>
 </sst>
 </file>
@@ -22491,10 +22512,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23943,6 +23964,146 @@
       </c>
       <c r="P30" s="4">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>45228</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="4">
+        <v>30</v>
+      </c>
+      <c r="N31" t="s">
+        <v>290</v>
+      </c>
+      <c r="O31" s="4">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>45228</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="4">
+        <v>63</v>
+      </c>
+      <c r="N32" t="s">
+        <v>689</v>
+      </c>
+      <c r="O32" s="4">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>45228</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="4">
+        <v>55</v>
+      </c>
+      <c r="N33" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" s="4">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>45228</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="4">
+        <v>27</v>
+      </c>
+      <c r="N34" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34" s="4">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>45228</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="4">
+        <v>35</v>
+      </c>
+      <c r="N35" t="s">
+        <v>290</v>
+      </c>
+      <c r="O35" s="4">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>45228</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="4">
+        <v>27</v>
+      </c>
+      <c r="N36" t="s">
+        <v>225</v>
+      </c>
+      <c r="O36" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>45228</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="4">
+        <v>49</v>
+      </c>
+      <c r="N37" t="s">
+        <v>290</v>
+      </c>
+      <c r="O37" s="4">
+        <v>2.34</v>
       </c>
     </row>
   </sheetData>
@@ -25443,7 +25604,7 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="118.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -22494,7 +22494,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23586,10 +23586,10 @@
         <v>2.76</v>
       </c>
       <c r="F23" s="4">
-        <v>4.41</v>
+        <v>4.49</v>
       </c>
       <c r="G23" s="4">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="H23" s="4">
         <v>2.16</v>
@@ -23636,7 +23636,7 @@
         <v>3.47</v>
       </c>
       <c r="G24" s="4">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H24" s="4">
         <v>1.89</v>
@@ -23727,10 +23727,10 @@
         <v>6.82</v>
       </c>
       <c r="F26" s="4">
-        <v>4.62</v>
+        <v>4.84</v>
       </c>
       <c r="G26" s="4">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="H26" s="4">
         <v>2.34</v>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBXBILLIONS\Documents\JBX COMPANY\automationbet-matriz\tecnica_analise\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borge Pc\Documents\GitHub\automationbet-matriz\tecnica_analise\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22514,8 +22514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23973,8 +23973,32 @@
       <c r="B31" s="4" t="s">
         <v>903</v>
       </c>
+      <c r="C31" s="4">
+        <v>6.41</v>
+      </c>
+      <c r="D31" s="4">
+        <v>4.75</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="F31" s="4">
+        <v>404</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2.37</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1.45</v>
+      </c>
       <c r="J31" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1.28</v>
       </c>
       <c r="M31" s="4">
         <v>30</v>
@@ -23984,6 +24008,9 @@
       </c>
       <c r="O31" s="4">
         <v>2.38</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1.25</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -23993,8 +24020,32 @@
       <c r="B32" s="4" t="s">
         <v>904</v>
       </c>
+      <c r="C32" s="4">
+        <v>3.38</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3.72</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="F32" s="4">
+        <v>404</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1.49</v>
+      </c>
       <c r="J32" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1.3</v>
       </c>
       <c r="M32" s="4">
         <v>63</v>
@@ -24005,16 +24056,43 @@
       <c r="O32" s="4">
         <v>2.63</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>45228</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>905</v>
       </c>
+      <c r="C33" s="4">
+        <v>2.14</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3.34</v>
+      </c>
+      <c r="E33" s="4">
+        <v>3.74</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2.88</v>
+      </c>
+      <c r="G33" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1.66</v>
+      </c>
+      <c r="I33" s="4">
+        <v>2.02</v>
+      </c>
       <c r="J33" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1.72</v>
       </c>
       <c r="M33" s="4">
         <v>55</v>
@@ -24025,16 +24103,43 @@
       <c r="O33" s="4">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33" s="4">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>45228</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>906</v>
       </c>
+      <c r="C34" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3.68</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4.01</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3.92</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1.87</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1.64</v>
+      </c>
       <c r="J34" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1.41</v>
       </c>
       <c r="M34" s="4">
         <v>27</v>
@@ -24045,16 +24150,43 @@
       <c r="O34" s="4">
         <v>2.58</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>45228</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>907</v>
       </c>
+      <c r="C35" s="4">
+        <v>2.66</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3.09</v>
+      </c>
+      <c r="G35" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1.97</v>
+      </c>
       <c r="J35" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K35" s="4">
+        <v>404</v>
       </c>
       <c r="M35" s="4">
         <v>35</v>
@@ -24065,16 +24197,43 @@
       <c r="O35" s="4">
         <v>2.63</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35" s="4">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>45228</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>908</v>
       </c>
+      <c r="C36" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="E36" s="4">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3.47</v>
+      </c>
+      <c r="G36" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1.78</v>
+      </c>
       <c r="J36" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1.53</v>
       </c>
       <c r="M36" s="4">
         <v>27</v>
@@ -24085,16 +24244,43 @@
       <c r="O36" s="4">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>45228</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>909</v>
       </c>
+      <c r="C37" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3.96</v>
+      </c>
+      <c r="E37" s="4">
+        <v>4.51</v>
+      </c>
+      <c r="F37" s="4">
+        <v>404</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="H37" s="4">
+        <v>2.14</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1.56</v>
+      </c>
       <c r="J37" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1.35</v>
       </c>
       <c r="M37" s="4">
         <v>49</v>
@@ -24104,6 +24290,9 @@
       </c>
       <c r="O37" s="4">
         <v>2.34</v>
+      </c>
+      <c r="P37" s="4">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>
@@ -25604,7 +25793,7 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="118.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borge Pc\Documents\GitHub\automationbet-matriz\tecnica_analise\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBXBILLIONS\Documents\JBX COMPANY\automationbet-matriz\tecnica_analise\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4187" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4190" uniqueCount="911">
   <si>
     <t>DATA</t>
   </si>
@@ -2779,6 +2779,9 @@
   </si>
   <si>
     <t>MONTPELLIER vs TOULOUSE</t>
+  </si>
+  <si>
+    <t>GRANADA vs VILLARREAL</t>
   </si>
 </sst>
 </file>
@@ -22512,10 +22515,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24293,6 +24296,26 @@
       </c>
       <c r="P37" s="4">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>45229</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="4">
+        <v>74</v>
+      </c>
+      <c r="N38" t="s">
+        <v>234</v>
+      </c>
+      <c r="O38" s="4">
+        <v>2.78</v>
       </c>
     </row>
   </sheetData>
@@ -25793,7 +25816,7 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="118.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -22514,8 +22514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24115,31 +24115,31 @@
         <v>906</v>
       </c>
       <c r="C34" s="4">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="D34" s="4">
-        <v>3.68</v>
+        <v>3.83</v>
       </c>
       <c r="E34" s="4">
-        <v>4.01</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="F34" s="4">
-        <v>3.92</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="G34" s="4">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="H34" s="4">
-        <v>2.0099999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="I34" s="4">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K34" s="4">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M34" s="4">
         <v>27</v>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBXBILLIONS\Documents\JBX COMPANY\automationbet-matriz\tecnica_analise\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borge Pc\Documents\GitHub\automationbet-matriz\tecnica_analise\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22518,7 +22518,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23977,25 +23977,25 @@
         <v>903</v>
       </c>
       <c r="C31" s="4">
-        <v>6.41</v>
+        <v>5.51</v>
       </c>
       <c r="D31" s="4">
-        <v>4.75</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E31" s="4">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="F31" s="4">
         <v>404</v>
       </c>
       <c r="G31" s="4">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="H31" s="4">
-        <v>2.37</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="I31" s="4">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>18</v>
@@ -24212,31 +24212,31 @@
         <v>908</v>
       </c>
       <c r="C36" s="4">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="D36" s="4">
-        <v>3.7</v>
+        <v>3.54</v>
       </c>
       <c r="E36" s="4">
-        <v>4.8600000000000003</v>
+        <v>4.66</v>
       </c>
       <c r="F36" s="4">
-        <v>3.47</v>
+        <v>3.25</v>
       </c>
       <c r="G36" s="4">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="H36" s="4">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="I36" s="4">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K36" s="4">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="M36" s="4">
         <v>27</v>
@@ -24248,7 +24248,7 @@
         <v>2.4</v>
       </c>
       <c r="P36" s="4">
-        <v>404</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -25816,7 +25816,7 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="118.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borge Pc\Documents\GitHub\automationbet-matriz\tecnica_analise\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBXBILLIONS\Documents\JBX COMPANY\automationbet-matriz\tecnica_analise\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4190" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4193" uniqueCount="912">
   <si>
     <t>DATA</t>
   </si>
@@ -2782,6 +2782,9 @@
   </si>
   <si>
     <t>GRANADA vs VILLARREAL</t>
+  </si>
+  <si>
+    <t>BARROW vs MORECAMBE</t>
   </si>
 </sst>
 </file>
@@ -22515,10 +22518,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24343,6 +24346,26 @@
       </c>
       <c r="P38" s="4">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>45230</v>
+      </c>
+      <c r="B39" t="s">
+        <v>911</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" s="4">
+        <v>47</v>
+      </c>
+      <c r="N39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O39" s="4">
+        <v>2.67</v>
       </c>
     </row>
   </sheetData>
@@ -25843,7 +25866,7 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="118.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -22517,8 +22517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24305,8 +24305,32 @@
       <c r="B38" s="4" t="s">
         <v>910</v>
       </c>
+      <c r="C38" s="4">
+        <v>2.99</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3.64</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2.39</v>
+      </c>
+      <c r="F38" s="4">
+        <v>3.74</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="H38" s="4">
+        <v>2.33</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1.47</v>
+      </c>
       <c r="J38" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1.29</v>
       </c>
       <c r="M38" s="4">
         <v>74</v>
@@ -24316,6 +24340,9 @@
       </c>
       <c r="O38" s="4">
         <v>2.78</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBXBILLIONS\Documents\JBX COMPANY\automationbet-matriz\tecnica_analise\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borge Pc\Documents\GitHub\automationbet-matriz\tecnica_analise\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22520,8 +22520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24355,8 +24355,32 @@
       <c r="B39" t="s">
         <v>911</v>
       </c>
+      <c r="C39" s="4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D39" s="4">
+        <v>3.45</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="F39" s="4">
+        <v>3.46</v>
+      </c>
+      <c r="G39" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1.76</v>
+      </c>
       <c r="J39" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1.52</v>
       </c>
       <c r="M39" s="4">
         <v>47</v>
@@ -24366,6 +24390,9 @@
       </c>
       <c r="O39" s="4">
         <v>2.67</v>
+      </c>
+      <c r="P39" s="4">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>
@@ -25866,7 +25893,7 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="118.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borge Pc\Documents\GitHub\automationbet-matriz\tecnica_analise\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBXBILLIONS\Documents\JBX COMPANY\automationbet-matriz\tecnica_analise\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="janeiro" sheetId="5" r:id="rId1"/>
@@ -30,13 +30,14 @@
     <sheet name="setembro" sheetId="21" r:id="rId16"/>
     <sheet name="outubro" sheetId="22" r:id="rId17"/>
     <sheet name="outubronew" sheetId="23" r:id="rId18"/>
+    <sheet name="novembro" sheetId="24" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4193" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4212" uniqueCount="913">
   <si>
     <t>DATA</t>
   </si>
@@ -2785,6 +2786,9 @@
   </si>
   <si>
     <t>BARROW vs MORECAMBE</t>
+  </si>
+  <si>
+    <t>VENTFORET KOFU vs R. KUMAMOTO</t>
   </si>
 </sst>
 </file>
@@ -3213,7 +3217,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11307,7 +11331,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12595,29 +12619,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E37:E49 I37:I49">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H35">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H49">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13663,7 +13687,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14315,29 +14339,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E32 I20:I32">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H18">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H32">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18264,17 +18288,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:K37">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75 K77:K79">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19476,21 +19500,21 @@
     <mergeCell ref="G36:H36"/>
   </mergeCells>
   <conditionalFormatting sqref="E38:E55 H38:H55">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G35">
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20933,7 +20957,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22507,7 +22531,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22520,7 +22544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
+    <sheetView topLeftCell="C36" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -24397,7 +24421,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24410,8 +24434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:Q30"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection sqref="A1:R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25864,7 +25888,605 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"NOT INVEST"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="151.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>45232</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4">
+        <v>15</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25893,7 +26515,7 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="118.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -26990,29 +27612,29 @@
     <mergeCell ref="G29:I29"/>
   </mergeCells>
   <conditionalFormatting sqref="E31:E44 I31:I44">
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H28">
-    <cfRule type="cellIs" dxfId="55" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32995,7 +33617,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34207,29 +34829,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E39:E51 I39:I51">
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H37">
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H51">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39012,7 +39634,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40480,29 +41102,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E33:E45 I33:I45">
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H31">
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H45">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48286,7 +48908,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49967,29 +50589,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E51:E63 I51:I63">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H63">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52689,7 +53311,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K2">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borge Pc\Documents\GitHub\automationbet-matriz\tecnica_analise\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBXBILLIONS\Documents\JBX COMPANY\automationbet-matriz\tecnica_analise\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4242" uniqueCount="921">
   <si>
     <t>DATA</t>
   </si>
@@ -2790,6 +2790,30 @@
   <si>
     <t>VENTFORET KOFU vs R. KUMAMOTO</t>
   </si>
+  <si>
+    <t>BARI vs ASCOLI</t>
+  </si>
+  <si>
+    <t>CATANZARO vs MODENA</t>
+  </si>
+  <si>
+    <t>CELTA VIGO vs SEVILLA FC</t>
+  </si>
+  <si>
+    <t>HUDDERSFIELD vs WATFORD</t>
+  </si>
+  <si>
+    <t>JUBILO IWATA vs MITO HOLLYHOCK</t>
+  </si>
+  <si>
+    <t>PISA vs COMO</t>
+  </si>
+  <si>
+    <t>WEST BROM vs HULL CITY</t>
+  </si>
+  <si>
+    <t>FAGIANO OKAYAMA vs BLAUBLITZ AKITA</t>
+  </si>
 </sst>
 </file>
 
@@ -2799,7 +2823,7 @@
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2881,6 +2905,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2996,7 +3025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -3212,6 +3241,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -25891,14 +25923,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -26005,8 +26037,12 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="9">
+        <v>45234</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>913</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -26014,17 +26050,29 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="M3" s="4">
+        <v>24</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O3" s="4">
+        <v>2.34</v>
+      </c>
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="9">
+        <v>45234</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>914</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -26032,17 +26080,29 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="M4" s="4">
+        <v>23</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2.4</v>
+      </c>
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="9">
+        <v>45234</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>915</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -26050,17 +26110,29 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="M5" s="4">
+        <v>20</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="O5" s="4">
+        <v>2.59</v>
+      </c>
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="9">
+        <v>45234</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>916</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -26068,17 +26140,29 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="M6" s="4">
+        <v>58</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2.68</v>
+      </c>
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="9">
+        <v>45234</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>917</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -26086,17 +26170,29 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="M7" s="4">
+        <v>34</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="4">
+        <v>2.68</v>
+      </c>
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="9">
+        <v>45234</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>918</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -26104,17 +26200,29 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="4"/>
+      <c r="M8" s="4">
+        <v>39</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="O8" s="4">
+        <v>2.6</v>
+      </c>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="9">
+        <v>45234</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>919</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -26122,17 +26230,29 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="M9" s="4">
+        <v>22</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O9" s="4">
+        <v>2.65</v>
+      </c>
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="9">
+        <v>45235</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>920</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -26140,11 +26260,17 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="M10" s="4">
+        <v>20</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
@@ -26158,7 +26284,9 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -26176,7 +26304,9 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -26194,7 +26324,9 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -26212,7 +26344,9 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -26229,7 +26363,9 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -26525,7 +26661,7 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="118.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBXBILLIONS\Documents\JBX COMPANY\automationbet-matriz\tecnica_analise\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borge Pc\Documents\GitHub\automationbet-matriz\tecnica_analise\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4212" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="913">
   <si>
     <t>DATA</t>
   </si>
@@ -3217,17 +3217,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="61">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11331,7 +11321,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12619,29 +12609,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E37:E49 I37:I49">
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H35">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H49">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13687,7 +13677,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14339,29 +14329,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E32 I20:I32">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H18">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H32">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18288,17 +18278,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:K37">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75 K77:K79">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19500,21 +19490,21 @@
     <mergeCell ref="G36:H36"/>
   </mergeCells>
   <conditionalFormatting sqref="E38:E55 H38:H55">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G35">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20957,7 +20947,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22531,7 +22521,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24421,7 +24411,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25888,7 +25878,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25901,8 +25891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25968,20 +25958,38 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.71</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.46</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4.28</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.77</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.56</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4">
+        <v>404</v>
+      </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4">
         <v>15</v>
@@ -25992,7 +26000,9 @@
       <c r="O2" s="4">
         <v>2.5</v>
       </c>
-      <c r="P2" s="4"/>
+      <c r="P2" s="4">
+        <v>404</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
@@ -26486,7 +26496,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26515,7 +26525,7 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="118.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -27612,29 +27622,29 @@
     <mergeCell ref="G29:I29"/>
   </mergeCells>
   <conditionalFormatting sqref="E31:E44 I31:I44">
-    <cfRule type="cellIs" dxfId="60" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H28">
-    <cfRule type="cellIs" dxfId="57" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33617,7 +33627,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34829,29 +34839,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E39:E51 I39:I51">
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H37">
-    <cfRule type="cellIs" dxfId="49" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H51">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39634,7 +39644,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41102,29 +41112,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E33:E45 I33:I45">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H31">
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H45">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48908,7 +48918,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50589,29 +50599,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E51:E63 I51:I63">
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H63">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53311,7 +53321,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K2">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBXBILLIONS\Documents\JBX COMPANY\automationbet-matriz\tecnica_analise\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borge Pc\Documents\GitHub\automationbet-matriz\tecnica_analise\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="14" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="janeiro" sheetId="5" r:id="rId1"/>
@@ -31,13 +31,14 @@
     <sheet name="outubro" sheetId="22" r:id="rId17"/>
     <sheet name="outubronew" sheetId="23" r:id="rId18"/>
     <sheet name="novembro" sheetId="24" r:id="rId19"/>
+    <sheet name="test" sheetId="25" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4242" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4262" uniqueCount="921">
   <si>
     <t>DATA</t>
   </si>
@@ -3236,20 +3237,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="63">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3824,6 +3835,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -11353,7 +11374,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12641,29 +12662,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E37:E49 I37:I49">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H35">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H49">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13709,7 +13730,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14361,29 +14382,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E20:E32 I20:I32">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H18">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H32">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18310,17 +18331,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:K37">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75 K77:K79">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19245,11 +19266,11 @@
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
@@ -19522,21 +19543,21 @@
     <mergeCell ref="G36:H36"/>
   </mergeCells>
   <conditionalFormatting sqref="E38:E55 H38:H55">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G35">
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20979,7 +21000,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22553,7 +22574,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24443,7 +24464,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25910,7 +25931,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25923,8 +25944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection sqref="A1:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26163,17 +26184,33 @@
       <c r="B7" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="C7" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.99</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.41</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.38</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.47</v>
+      </c>
       <c r="J7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4">
+        <v>404</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4">
         <v>34</v>
@@ -26184,7 +26221,9 @@
       <c r="O7" s="4">
         <v>2.68</v>
       </c>
-      <c r="P7" s="4"/>
+      <c r="P7" s="4">
+        <v>404</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -26250,7 +26289,7 @@
       <c r="A10" s="9">
         <v>45235</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="74" t="s">
         <v>920</v>
       </c>
       <c r="C10" s="4"/>
@@ -26632,7 +26671,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26661,7 +26700,7 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="118.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -27513,12 +27552,12 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -27758,34 +27797,159 @@
     <mergeCell ref="G29:I29"/>
   </mergeCells>
   <conditionalFormatting sqref="E31:E44 I31:I44">
-    <cfRule type="cellIs" dxfId="59" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H28">
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>45234</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.99</v>
+      </c>
+      <c r="E2" s="4">
+        <v>7.41</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2.38</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4">
+        <v>404</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4">
+        <v>34</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="P2" s="4">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"NOT INVEST"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -33763,7 +33927,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34975,29 +35139,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E39:E51 I39:I51">
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H37">
-    <cfRule type="cellIs" dxfId="48" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H51">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39780,7 +39944,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41248,29 +41412,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E33:E45 I33:I45">
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H31">
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H45">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49054,7 +49218,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K3">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50735,29 +50899,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E51:E63 I51:I63">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H49">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H63">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53457,7 +53621,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K2">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"NOT INVEST"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="14" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="janeiro" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4262" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="921">
   <si>
     <t>DATA</t>
   </si>
@@ -3250,7 +3250,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="62">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3835,16 +3835,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -25944,8 +25934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection sqref="A1:Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26064,17 +26054,33 @@
       <c r="B3" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="C3" s="4">
+        <v>2.14</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.02</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4.34</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2.63</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="J3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="4">
+        <v>1.93</v>
+      </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4">
         <v>24</v>
@@ -26085,7 +26091,9 @@
       <c r="O3" s="4">
         <v>2.34</v>
       </c>
-      <c r="P3" s="4"/>
+      <c r="P3" s="4">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
@@ -26094,17 +26102,33 @@
       <c r="B4" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="C4" s="4">
+        <v>2.37</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.32</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.27</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.33</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.85</v>
+      </c>
       <c r="J4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4">
+        <v>1.57</v>
+      </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4">
         <v>23</v>
@@ -26115,7 +26139,9 @@
       <c r="O4" s="4">
         <v>2.4</v>
       </c>
-      <c r="P4" s="4"/>
+      <c r="P4" s="4">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -26124,17 +26150,33 @@
       <c r="B5" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="C5" s="4">
+        <v>2.36</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.14</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.68</v>
+      </c>
       <c r="J5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4">
+        <v>1.44</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4">
         <v>20</v>
@@ -26145,7 +26187,9 @@
       <c r="O5" s="4">
         <v>2.59</v>
       </c>
-      <c r="P5" s="4"/>
+      <c r="P5" s="4">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
@@ -26154,17 +26198,33 @@
       <c r="B6" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="C6" s="4">
+        <v>3.42</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.45</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2.14</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.77</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.87</v>
+      </c>
       <c r="J6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4">
+        <v>1.58</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4">
         <v>58</v>
@@ -26175,7 +26235,9 @@
       <c r="O6" s="4">
         <v>2.68</v>
       </c>
-      <c r="P6" s="4"/>
+      <c r="P6" s="4">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -26232,17 +26294,33 @@
       <c r="B8" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="C8" s="4">
+        <v>2.66</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.23</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2.09</v>
+      </c>
       <c r="J8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4">
+        <v>1.75</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4">
         <v>39</v>
@@ -26253,7 +26331,9 @@
       <c r="O8" s="4">
         <v>2.6</v>
       </c>
-      <c r="P8" s="4"/>
+      <c r="P8" s="4">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -26262,17 +26342,33 @@
       <c r="B9" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="C9" s="4">
+        <v>1.94</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3.52</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3.37</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.83</v>
+      </c>
       <c r="J9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4">
+        <v>1.56</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4">
         <v>22</v>
@@ -26283,7 +26379,9 @@
       <c r="O9" s="4">
         <v>2.65</v>
       </c>
-      <c r="P9" s="4"/>
+      <c r="P9" s="4">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -26292,17 +26390,33 @@
       <c r="B10" s="74" t="s">
         <v>920</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="C10" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.18</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.04</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1.99</v>
+      </c>
       <c r="J10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4">
+        <v>1.68</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4">
         <v>20</v>
@@ -26310,8 +26424,12 @@
       <c r="N10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="O10" s="4">
+        <v>2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
@@ -26323,9 +26441,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -26343,9 +26459,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -26363,9 +26477,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -26383,9 +26495,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -26402,9 +26512,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -27832,7 +27940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borge Pc\Documents\GitHub\automationbet-matriz\tecnica_analise\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBXBILLIONS\Documents\JBX COMPANY\automationbet-matriz\tecnica_analise\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4275" uniqueCount="930">
   <si>
     <t>DATA</t>
   </si>
@@ -2814,6 +2814,33 @@
   </si>
   <si>
     <t>FAGIANO OKAYAMA vs BLAUBLITZ AKITA</t>
+  </si>
+  <si>
+    <t>ASCOLI vs COMO</t>
+  </si>
+  <si>
+    <t>BRADFORD vs BARROW</t>
+  </si>
+  <si>
+    <t>CARLISLE UTD vs BRISTOL ROVERS</t>
+  </si>
+  <si>
+    <t>COSENZA vs REGGIANA</t>
+  </si>
+  <si>
+    <t>DERBY COUNTY vs BARNSLEY</t>
+  </si>
+  <si>
+    <t>MODENA vs SAMPDORIA</t>
+  </si>
+  <si>
+    <t>SHEFFIELD WED vs MILLWALL</t>
+  </si>
+  <si>
+    <t>SUDTIROL vs PISA</t>
+  </si>
+  <si>
+    <t>WYCOMBE vs STEVENAGE</t>
   </si>
 </sst>
 </file>
@@ -25934,8 +25961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26432,8 +26459,12 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="9">
+        <v>45241</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>921</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -26444,14 +26475,24 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="M11" s="4">
+        <v>41</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O11" s="4">
+        <v>2.37</v>
+      </c>
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="9">
+        <v>45241</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>922</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -26462,14 +26503,24 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="M12" s="4">
+        <v>52</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" s="4">
+        <v>2.13</v>
+      </c>
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="9">
+        <v>45241</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>923</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -26480,14 +26531,24 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="M13" s="4">
+        <v>58</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" s="4">
+        <v>2.3199999999999998</v>
+      </c>
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="9">
+        <v>45241</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>924</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -26497,14 +26558,24 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="M14" s="4">
+        <v>30</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O14" s="4">
+        <v>2.67</v>
+      </c>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="9">
+        <v>45241</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>925</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -26514,14 +26585,24 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="M15" s="4">
+        <v>32</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" s="4">
+        <v>2.2200000000000002</v>
+      </c>
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="9">
+        <v>45241</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>926</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -26531,14 +26612,24 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="M16" s="4">
+        <v>19</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O16" s="4">
+        <v>2.17</v>
+      </c>
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="9">
+        <v>45241</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>927</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -26548,14 +26639,24 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="M17" s="4">
+        <v>30</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1.93</v>
+      </c>
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="9">
+        <v>45241</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>928</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -26565,14 +26666,24 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="M18" s="4">
+        <v>47</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O18" s="4">
+        <v>2.17</v>
+      </c>
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="9">
+        <v>45241</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>929</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -26582,9 +26693,15 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="M19" s="4">
+        <v>34</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" s="4">
+        <v>2.66</v>
+      </c>
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -26808,7 +26925,7 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="118.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBXBILLIONS\Documents\JBX COMPANY\automationbet-matriz\tecnica_analise\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borge Pc\Documents\GitHub\automationbet-matriz\tecnica_analise\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4275" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4284" uniqueCount="930">
   <si>
     <t>DATA</t>
   </si>
@@ -25961,8 +25961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26465,15 +26465,33 @@
       <c r="B11" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="C11" s="4">
+        <v>3.12</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.96</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2.92</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.41</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1.76</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4">
         <v>41</v>
@@ -26484,7 +26502,9 @@
       <c r="O11" s="4">
         <v>2.37</v>
       </c>
-      <c r="P11" s="4"/>
+      <c r="P11" s="4">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -26493,15 +26513,33 @@
       <c r="B12" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="C12" s="4">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.76</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.03</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.99</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.68</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4">
         <v>52</v>
@@ -26512,7 +26550,9 @@
       <c r="O12" s="4">
         <v>2.13</v>
       </c>
-      <c r="P12" s="4"/>
+      <c r="P12" s="4">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
@@ -26521,15 +26561,33 @@
       <c r="B13" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="C13" s="4">
+        <v>3.13</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3.42</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.37</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3.57</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1.99</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.49</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4">
         <v>58</v>
@@ -26540,7 +26598,9 @@
       <c r="O13" s="4">
         <v>2.3199999999999998</v>
       </c>
-      <c r="P13" s="4"/>
+      <c r="P13" s="4">
+        <v>404</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -26549,15 +26609,33 @@
       <c r="B14" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="C14" s="4">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3.29</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3.56</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3.16</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.72</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1.63</v>
+      </c>
       <c r="M14" s="4">
         <v>30</v>
       </c>
@@ -26567,7 +26645,9 @@
       <c r="O14" s="4">
         <v>2.67</v>
       </c>
-      <c r="P14" s="4"/>
+      <c r="P14" s="4">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -26576,15 +26656,33 @@
       <c r="B15" s="4" t="s">
         <v>925</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="C15" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3.69</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4.28</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3.89</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1.86</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1.41</v>
+      </c>
       <c r="M15" s="4">
         <v>32</v>
       </c>
@@ -26594,7 +26692,9 @@
       <c r="O15" s="4">
         <v>2.2200000000000002</v>
       </c>
-      <c r="P15" s="4"/>
+      <c r="P15" s="4">
+        <v>404</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
@@ -26603,15 +26703,33 @@
       <c r="B16" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="C16" s="4">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3.08</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3.68</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3.03</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2.31</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1.69</v>
+      </c>
       <c r="M16" s="4">
         <v>19</v>
       </c>
@@ -26621,7 +26739,9 @@
       <c r="O16" s="4">
         <v>2.17</v>
       </c>
-      <c r="P16" s="4"/>
+      <c r="P16" s="4">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
@@ -26630,15 +26750,33 @@
       <c r="B17" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="C17" s="4">
+        <v>2.59</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3.19</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2.71</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2.58</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1.9</v>
+      </c>
       <c r="M17" s="4">
         <v>30</v>
       </c>
@@ -26648,7 +26786,9 @@
       <c r="O17" s="4">
         <v>1.93</v>
       </c>
-      <c r="P17" s="4"/>
+      <c r="P17" s="4">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
@@ -26657,15 +26797,33 @@
       <c r="B18" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="C18" s="4">
+        <v>2.84</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2.88</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.57</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2.81</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2.42</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2.04</v>
+      </c>
       <c r="M18" s="4">
         <v>47</v>
       </c>
@@ -26675,7 +26833,9 @@
       <c r="O18" s="4">
         <v>2.17</v>
       </c>
-      <c r="P18" s="4"/>
+      <c r="P18" s="4">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
@@ -26684,15 +26844,33 @@
       <c r="B19" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="C19" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3.37</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.74</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3.43</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1.82</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1.53</v>
+      </c>
       <c r="M19" s="4">
         <v>34</v>
       </c>
@@ -26702,7 +26880,9 @@
       <c r="O19" s="4">
         <v>2.66</v>
       </c>
-      <c r="P19" s="4"/>
+      <c r="P19" s="4">
+        <v>404</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -26925,7 +27105,7 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="118.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borge Pc\Documents\GitHub\automationbet-matriz\tecnica_analise\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBXBILLIONS\Documents\JBX COMPANY\automationbet-matriz\tecnica_analise\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4284" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4287" uniqueCount="931">
   <si>
     <t>DATA</t>
   </si>
@@ -2841,6 +2841,9 @@
   </si>
   <si>
     <t>WYCOMBE vs STEVENAGE</t>
+  </si>
+  <si>
+    <t>CLERMONT vs LORIENT</t>
   </si>
 </sst>
 </file>
@@ -25961,8 +25964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26885,8 +26888,12 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="9">
+        <v>45242</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>930</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -26894,11 +26901,19 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="M20" s="4">
+        <v>22</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="O20" s="4">
+        <v>2.7</v>
+      </c>
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -27105,7 +27120,7 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="118.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBXBILLIONS\Documents\JBX COMPANY\automationbet-matriz\tecnica_analise\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borge Pc\Documents\GitHub\automationbet-matriz\tecnica_analise\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26894,17 +26894,33 @@
       <c r="B20" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="C20" s="4">
+        <v>2.31</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3.42</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3.28</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1.9</v>
+      </c>
       <c r="J20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="4"/>
+      <c r="K20" s="4">
+        <v>1.61</v>
+      </c>
       <c r="M20" s="4">
         <v>22</v>
       </c>
@@ -26914,7 +26930,9 @@
       <c r="O20" s="4">
         <v>2.7</v>
       </c>
-      <c r="P20" s="4"/>
+      <c r="P20" s="4">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -27120,7 +27138,7 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="118.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>

--- a/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
+++ b/tecnica_analise/2023/MATRIZ-FULL-2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Borge Pc\Documents\GitHub\automationbet-matriz\tecnica_analise\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBXBILLIONS\Documents\JBX COMPANY\automationbet-matriz\tecnica_analise\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4287" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="932">
   <si>
     <t>DATA</t>
   </si>
@@ -2844,6 +2844,9 @@
   </si>
   <si>
     <t>CLERMONT vs LORIENT</t>
+  </si>
+  <si>
+    <t>BARROW vs CRAWLEY TOWN</t>
   </si>
 </sst>
 </file>
@@ -25964,8 +25967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26935,21 +26938,51 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="A21" s="9">
+        <v>45248</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.92</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3.63</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3.76</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1.92</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="M21" s="4">
+        <v>56</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O21" s="4">
+        <v>2.79</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -27138,7 +27171,7 @@
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="118.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
